--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1BE8F4-8196-8943-95AD-76122202F2B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D576B7B5-15B3-9644-9E1E-FC0AAD9ACA45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="102">
   <si>
     <t>count</t>
   </si>
@@ -103,16 +103,257 @@
   </si>
   <si>
     <t xml:space="preserve">notes </t>
+  </si>
+  <si>
+    <t>PD_190501_01</t>
+  </si>
+  <si>
+    <t>PD_190501_02</t>
+  </si>
+  <si>
+    <t>PD_190501_03</t>
+  </si>
+  <si>
+    <t>PD_190503_04</t>
+  </si>
+  <si>
+    <t>PD_190503_05</t>
+  </si>
+  <si>
+    <t>PD_190503_06</t>
+  </si>
+  <si>
+    <t>PD_190510_07</t>
+  </si>
+  <si>
+    <t>PD_190510_08</t>
+  </si>
+  <si>
+    <t>PD_190510_09</t>
+  </si>
+  <si>
+    <t>PD_190515_10</t>
+  </si>
+  <si>
+    <t>PD_190515_11</t>
+  </si>
+  <si>
+    <t>PD_190515_12</t>
+  </si>
+  <si>
+    <t>PD_190517_13</t>
+  </si>
+  <si>
+    <t>PD_190517_14</t>
+  </si>
+  <si>
+    <t>ba980</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>bing</t>
+  </si>
+  <si>
+    <t>molly</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>karen</t>
+  </si>
+  <si>
+    <t>linda</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>ba986</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>bb066</t>
+  </si>
+  <si>
+    <t>ba949</t>
+  </si>
+  <si>
+    <t>bb052</t>
+  </si>
+  <si>
+    <t>bb055</t>
+  </si>
+  <si>
+    <t>bb054</t>
+  </si>
+  <si>
+    <t>bb266</t>
+  </si>
+  <si>
+    <t>ba1071</t>
+  </si>
+  <si>
+    <t>ba1006</t>
+  </si>
+  <si>
+    <t>ba1081</t>
+  </si>
+  <si>
+    <t>bb053</t>
+  </si>
+  <si>
+    <t>bb263</t>
+  </si>
+  <si>
+    <t>bb264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t>warmup_explanation</t>
+  </si>
+  <si>
+    <t>selective_prompt</t>
+  </si>
+  <si>
+    <t>overpraise_prompt</t>
+  </si>
+  <si>
+    <t>Because this one [points to bad drawing and does scribbling motion with his hand]</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>Because that one [points to bad drawing] is not really good</t>
+  </si>
+  <si>
+    <t>anything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because these [points to good drawing] have like petals around it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't ask for teacher checks yet </t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karen </t>
+  </si>
+  <si>
+    <t>Because this one's [points to bad drawing] like scribble scrabble</t>
+  </si>
+  <si>
+    <t>Cuz it doesn’t have…cuz it has leaves and it has a circle in the middle but this one [points to bad drawing] just has scribble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drew flower in the square tracing, I prompted for tracing again and she did it; teacher check was right on the line, I counted it as a fail because she didn't really seem to get it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cus this one's [points to bad drawing] not very good </t>
+  </si>
+  <si>
+    <t xml:space="preserve">im not sure if this teacher check should count as pass for fail, I didn’t ask exactly three times so I don’t think we should count it, she doesn’t seem sure; originally said both for explicit effort but I pushed her once and she said linda </t>
+  </si>
+  <si>
+    <t>Cuz it's like this [traces good drawing a bit with finger]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">she pushed back on the prompts, said she wanted to draw flowers and then something she likes, I didn’t push beach and park </t>
+  </si>
+  <si>
+    <t>[Points to bad drawing] no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">native japanese speaker, can understand some english and speak a little but is not fluent; he got the memchecks eventually, but he didn’t seem to get park or beach so I kind of changed to anything and did that for the second one  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuz this one [points to good drawing] has petals and this little thing and this one [points to bad drawing] is scribble scrabble </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>Because it's a flower</t>
+  </si>
+  <si>
+    <t>first child I actually started the official teacher check protocol for; she was on the edge for it but I said pass; she pushed the replay button accidentally for the first video but I just skipped right through it</t>
+  </si>
+  <si>
+    <t>Because it looks like a flower</t>
+  </si>
+  <si>
+    <t>not sure if she failed the teacher check or not, ask mika about a bunch of these</t>
+  </si>
+  <si>
+    <t>Because this one [points to bad drawing] is just scribble scrabble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't know </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tried to push her once on the explicit effort but she said don’t know </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because it's like a real flower </t>
+  </si>
+  <si>
+    <t>Because that's [points to bad drawing] crazy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,8 +379,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,30 +697,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.83203125" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" customWidth="1"/>
+    <col min="20" max="20" width="18.5" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" customWidth="1"/>
+    <col min="22" max="22" width="18.83203125" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="24" max="24" width="17.83203125" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,43 +767,1196 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43586</v>
+      </c>
+      <c r="D2">
+        <v>5.51</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43586</v>
+      </c>
+      <c r="D3">
+        <v>5.48</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43586</v>
+      </c>
+      <c r="D4">
+        <v>4.3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43588</v>
+      </c>
+      <c r="D5">
+        <v>5.25</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43588</v>
+      </c>
+      <c r="D6">
+        <v>5.08</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43588</v>
+      </c>
+      <c r="D7">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D8">
+        <v>4.55</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D9">
+        <v>4.96</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D10">
+        <v>5.18</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" t="s">
+        <v>68</v>
+      </c>
+      <c r="W10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D11">
+        <v>4.08</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D12">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" t="s">
+        <v>68</v>
+      </c>
+      <c r="W12" t="s">
+        <v>69</v>
+      </c>
+      <c r="X12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D13">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s">
+        <v>68</v>
+      </c>
+      <c r="W13" t="s">
+        <v>87</v>
+      </c>
+      <c r="X13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D14">
+        <v>5.58</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W14" t="s">
+        <v>87</v>
+      </c>
+      <c r="X14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D15">
+        <v>5.58</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" t="s">
+        <v>69</v>
+      </c>
+      <c r="X15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaba/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D576B7B5-15B3-9644-9E1E-FC0AAD9ACA45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2EAB58-3F80-364C-BED5-8B25F8CA7415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="27240" windowHeight="15500" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="103">
   <si>
     <t>count</t>
   </si>
@@ -337,6 +331,9 @@
   </si>
   <si>
     <t>Because that's [points to bad drawing] crazy</t>
+  </si>
+  <si>
+    <t>include</t>
   </si>
 </sst>
 </file>
@@ -697,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,10 +726,10 @@
     <col min="23" max="23" width="16.5" customWidth="1"/>
     <col min="24" max="24" width="17.83203125" customWidth="1"/>
     <col min="25" max="25" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" customWidth="1"/>
+    <col min="26" max="27" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -812,10 +809,13 @@
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -894,11 +894,11 @@
       <c r="Z2" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -978,7 +978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1217,11 +1217,11 @@
       <c r="Z6" t="s">
         <v>78</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1300,11 +1300,11 @@
       <c r="Z7" t="s">
         <v>44</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1383,11 +1383,11 @@
       <c r="Z8" t="s">
         <v>73</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1466,11 +1466,11 @@
       <c r="Z9" t="s">
         <v>78</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1629,11 +1629,11 @@
       <c r="Z11" t="s">
         <v>44</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1712,11 +1712,11 @@
       <c r="Z12" t="s">
         <v>73</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1795,11 +1795,11 @@
       <c r="Z13" t="s">
         <v>73</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaba/Documents/GitHub/praise-draw/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2EAB58-3F80-364C-BED5-8B25F8CA7415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23AD2EB-CB33-B842-A457-CFE1C3587DDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="27240" windowHeight="15500" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="104">
   <si>
     <t>count</t>
   </si>
@@ -333,7 +339,10 @@
     <t>Because that's [points to bad drawing] crazy</t>
   </si>
   <si>
-    <t>include</t>
+    <t>explicit_effort_explanation</t>
+  </si>
+  <si>
+    <t>teacher_pref_explanation</t>
   </si>
 </sst>
 </file>
@@ -694,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,10 +735,12 @@
     <col min="23" max="23" width="16.5" customWidth="1"/>
     <col min="24" max="24" width="17.83203125" customWidth="1"/>
     <col min="25" max="25" width="12.83203125" customWidth="1"/>
-    <col min="26" max="27" width="11.83203125" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" customWidth="1"/>
+    <col min="28" max="28" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,16 +817,19 @@
         <v>21</v>
       </c>
       <c r="Z1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
-        <v>102</v>
-      </c>
       <c r="AB1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -892,13 +906,19 @@
         <v>44</v>
       </c>
       <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" t="s">
         <v>44</v>
       </c>
       <c r="AB2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -975,10 +995,16 @@
         <v>45</v>
       </c>
       <c r="Z3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" t="s">
         <v>73</v>
       </c>
+      <c r="AB3" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1055,10 +1081,16 @@
         <v>44</v>
       </c>
       <c r="Z4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" t="s">
         <v>78</v>
       </c>
+      <c r="AB4" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1135,10 +1167,16 @@
         <v>45</v>
       </c>
       <c r="Z5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" t="s">
         <v>73</v>
       </c>
+      <c r="AB5" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1215,13 +1253,19 @@
         <v>45</v>
       </c>
       <c r="Z6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA6" t="s">
         <v>78</v>
       </c>
       <c r="AB6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1298,13 +1342,19 @@
         <v>45</v>
       </c>
       <c r="Z7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" t="s">
         <v>44</v>
       </c>
       <c r="AB7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1381,13 +1431,19 @@
         <v>78</v>
       </c>
       <c r="Z8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA8" t="s">
         <v>73</v>
       </c>
       <c r="AB8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1464,13 +1520,19 @@
         <v>44</v>
       </c>
       <c r="Z9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" t="s">
         <v>78</v>
       </c>
       <c r="AB9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1547,10 +1609,16 @@
         <v>45</v>
       </c>
       <c r="Z10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA10" t="s">
         <v>73</v>
       </c>
+      <c r="AB10" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1627,13 +1695,19 @@
         <v>45</v>
       </c>
       <c r="Z11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA11" t="s">
         <v>44</v>
       </c>
       <c r="AB11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1710,13 +1784,19 @@
         <v>44</v>
       </c>
       <c r="Z12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA12" t="s">
         <v>73</v>
       </c>
       <c r="AB12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1793,13 +1873,19 @@
         <v>98</v>
       </c>
       <c r="Z13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA13" t="s">
         <v>73</v>
       </c>
       <c r="AB13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1876,10 +1962,16 @@
         <v>45</v>
       </c>
       <c r="Z14" t="s">
-        <v>44</v>
+        <v>68</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1956,7 +2048,13 @@
         <v>45</v>
       </c>
       <c r="Z15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA15" t="s">
         <v>73</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23AD2EB-CB33-B842-A457-CFE1C3587DDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5A418-71BA-8647-B556-C330619CD947}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="136">
   <si>
     <t>count</t>
   </si>
@@ -343,6 +343,102 @@
   </si>
   <si>
     <t>teacher_pref_explanation</t>
+  </si>
+  <si>
+    <t>PD_190522_01</t>
+  </si>
+  <si>
+    <t>PD_190522_02</t>
+  </si>
+  <si>
+    <t>PD_190522_03</t>
+  </si>
+  <si>
+    <t>PD_190522_04</t>
+  </si>
+  <si>
+    <t>PD_190524_01</t>
+  </si>
+  <si>
+    <t>PD_190524_02</t>
+  </si>
+  <si>
+    <t>ba991</t>
+  </si>
+  <si>
+    <t>Because this one [points to good drawing] is the shape of a flower and this one [points to bad drawing] is just a scribble</t>
+  </si>
+  <si>
+    <t>Because I like scribbles…and I like triangles too…and I made a triangle in Teacher Karen's but that triangle had a little go out so it means I worked harder on hers [still pointing to Teacher Karen] and hers is better [taps Teacher Linda]</t>
+  </si>
+  <si>
+    <t>Because I want to practice more drawings so I don’t get [quick line motion with his finger]</t>
+  </si>
+  <si>
+    <t>ba1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first child with new teacher checks with separate teacher introductions and shirt colors </t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>ba1072</t>
+  </si>
+  <si>
+    <t>[Didn't answer, shrugged and shook her head]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this child kept looking up at me and then looking back down to draw more flowers, I got the sense that she didn’t know when she could be finished and so she just kept drawing, both times I kind of had to ask her if she was finished because it had been so long and she wasn't saying she was done, so I'm not sure if we can include it because I technically prompted her to be done; she is pretty quiet, didn't say anything for either explanation so i just asked if she didn't know and she nodded </t>
+  </si>
+  <si>
+    <t>[Didn't respond, nodded when I said you don't know]</t>
+  </si>
+  <si>
+    <t>ba915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because this one [points to good drawing] is not scribble scrabble and it has a stem and that and kinda looks cool and has blossoms and this [points to bad one] is kind of like scribble scrabbling </t>
+  </si>
+  <si>
+    <t>Because she looks like she was more kinder because even though some of them were bad she still gave the boy more stickers because he worked super hard and she [points to Teacher Karen] didn't, so I picked her [points to Teacher Linda]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She was so kind! </t>
+  </si>
+  <si>
+    <t>ba987</t>
+  </si>
+  <si>
+    <t>Because it's drawn better</t>
+  </si>
+  <si>
+    <t>Because it was a little…just because of that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had to push him once on explicit effort because he said it wasn't hard </t>
+  </si>
+  <si>
+    <t>ba923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because it looks better and this one [points to bad drawing] is scribble scrabble </t>
+  </si>
+  <si>
+    <t>So I could get a sticker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She might say my drawings are all of them are good </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Cool answers, check out </t>
+  </si>
+  <si>
+    <t>*Cool answers; I had to push him twice on the explciit effort, he said both, gave the same effort</t>
   </si>
 </sst>
 </file>
@@ -703,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2057,6 +2153,537 @@
         <v>68</v>
       </c>
     </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D16">
+        <v>5.22</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" t="s">
+        <v>68</v>
+      </c>
+      <c r="W16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D17">
+        <v>4.03</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" t="s">
+        <v>77</v>
+      </c>
+      <c r="U17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" t="s">
+        <v>86</v>
+      </c>
+      <c r="X17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D18">
+        <v>4.78</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" t="s">
+        <v>68</v>
+      </c>
+      <c r="W18" t="s">
+        <v>69</v>
+      </c>
+      <c r="X18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D19">
+        <v>5.47</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19" t="s">
+        <v>68</v>
+      </c>
+      <c r="T19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" t="s">
+        <v>46</v>
+      </c>
+      <c r="V19" t="s">
+        <v>68</v>
+      </c>
+      <c r="W19" t="s">
+        <v>69</v>
+      </c>
+      <c r="X19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43609</v>
+      </c>
+      <c r="D20">
+        <v>5.49</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" t="s">
+        <v>68</v>
+      </c>
+      <c r="T20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" t="s">
+        <v>46</v>
+      </c>
+      <c r="V20" t="s">
+        <v>68</v>
+      </c>
+      <c r="W20" t="s">
+        <v>87</v>
+      </c>
+      <c r="X20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43609</v>
+      </c>
+      <c r="D21">
+        <v>4.79</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s">
+        <v>68</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s">
+        <v>68</v>
+      </c>
+      <c r="W21" t="s">
+        <v>86</v>
+      </c>
+      <c r="X21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5A418-71BA-8647-B556-C330619CD947}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659ACC9-3050-054E-A99F-1DCE520D7F06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="170">
   <si>
     <t>count</t>
   </si>
@@ -439,6 +439,108 @@
   </si>
   <si>
     <t>*Cool answers; I had to push him twice on the explciit effort, he said both, gave the same effort</t>
+  </si>
+  <si>
+    <t>selective_notes</t>
+  </si>
+  <si>
+    <t>overpraise_notes</t>
+  </si>
+  <si>
+    <t>person on a hill, maybe beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person </t>
+  </si>
+  <si>
+    <t>tracing the outline box</t>
+  </si>
+  <si>
+    <t>flower and circle</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>shapes and lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe flowers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shapes  </t>
+  </si>
+  <si>
+    <t>person on ground/water</t>
+  </si>
+  <si>
+    <t>tree/flower</t>
+  </si>
+  <si>
+    <t>person on ground with line</t>
+  </si>
+  <si>
+    <t>grass, flowwe/person</t>
+  </si>
+  <si>
+    <t>slide and ladder and person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person on ground  </t>
+  </si>
+  <si>
+    <t>person and shapes</t>
+  </si>
+  <si>
+    <t>scribble scrabble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowers </t>
+  </si>
+  <si>
+    <t>person and lines and name</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>house, slide</t>
+  </si>
+  <si>
+    <t>lines, grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainbow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower </t>
+  </si>
+  <si>
+    <t xml:space="preserve">person on slide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scribble scrabble </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">person swimming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">person on ground </t>
+  </si>
+  <si>
+    <t>person with swing</t>
+  </si>
+  <si>
+    <t>person on ground with shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scribble shape </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclear but not scribbles </t>
   </si>
 </sst>
 </file>
@@ -799,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,14 +931,16 @@
     <col min="21" max="21" width="16.1640625" customWidth="1"/>
     <col min="22" max="22" width="18.83203125" customWidth="1"/>
     <col min="23" max="23" width="16.5" customWidth="1"/>
-    <col min="24" max="24" width="17.83203125" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="23.33203125" customWidth="1"/>
-    <col min="27" max="27" width="11.83203125" customWidth="1"/>
-    <col min="28" max="28" width="22" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" customWidth="1"/>
+    <col min="26" max="26" width="15.5" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="23.33203125" customWidth="1"/>
+    <col min="29" max="29" width="11.83203125" customWidth="1"/>
+    <col min="30" max="30" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,25 +1011,31 @@
         <v>64</v>
       </c>
       <c r="X1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>103</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -996,13 +1106,13 @@
         <v>69</v>
       </c>
       <c r="X2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y2" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
       <c r="Z2" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="AA2" t="s">
         <v>44</v>
@@ -1011,10 +1121,16 @@
         <v>68</v>
       </c>
       <c r="AC2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1085,22 +1201,28 @@
         <v>72</v>
       </c>
       <c r="X3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA3" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1171,22 +1293,28 @@
         <v>72</v>
       </c>
       <c r="X4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y4" t="s">
         <v>72</v>
       </c>
-      <c r="Y4" t="s">
-        <v>44</v>
-      </c>
       <c r="Z4" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="AA4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" t="s">
         <v>78</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1257,22 +1385,28 @@
         <v>72</v>
       </c>
       <c r="X5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y5" t="s">
         <v>72</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA5" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" t="s">
         <v>73</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1343,25 +1477,31 @@
         <v>72</v>
       </c>
       <c r="X6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y6" t="s">
         <v>72</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA6" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1432,25 +1572,31 @@
         <v>72</v>
       </c>
       <c r="X7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y7" t="s">
         <v>72</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA7" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>44</v>
-      </c>
       <c r="AB7" t="s">
         <v>68</v>
       </c>
       <c r="AC7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1521,25 +1667,31 @@
         <v>87</v>
       </c>
       <c r="X8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y8" t="s">
         <v>86</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA8" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC8" t="s">
         <v>73</v>
       </c>
-      <c r="AB8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1610,25 +1762,31 @@
         <v>72</v>
       </c>
       <c r="X9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y9" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" t="s">
-        <v>44</v>
-      </c>
       <c r="Z9" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="AA9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC9" t="s">
         <v>78</v>
       </c>
-      <c r="AB9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1699,22 +1857,28 @@
         <v>69</v>
       </c>
       <c r="X10" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y10" t="s">
         <v>87</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA10" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC10" t="s">
         <v>73</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1785,25 +1949,31 @@
         <v>87</v>
       </c>
       <c r="X11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y11" t="s">
         <v>86</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA11" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>44</v>
-      </c>
       <c r="AB11" t="s">
         <v>68</v>
       </c>
       <c r="AC11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1874,25 +2044,31 @@
         <v>69</v>
       </c>
       <c r="X12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y12" t="s">
         <v>70</v>
       </c>
-      <c r="Y12" t="s">
-        <v>44</v>
-      </c>
       <c r="Z12" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC12" t="s">
         <v>73</v>
       </c>
-      <c r="AB12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1963,25 +2139,31 @@
         <v>87</v>
       </c>
       <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
         <v>86</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA13" t="s">
         <v>98</v>
       </c>
-      <c r="Z13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC13" t="s">
         <v>73</v>
       </c>
-      <c r="AB13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2052,22 +2234,28 @@
         <v>87</v>
       </c>
       <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
         <v>86</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA14" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>44</v>
-      </c>
       <c r="AB14" t="s">
         <v>68</v>
       </c>
+      <c r="AC14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2138,22 +2326,28 @@
         <v>69</v>
       </c>
       <c r="X15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
         <v>70</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA15" t="s">
         <v>45</v>
       </c>
-      <c r="Z15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC15" t="s">
         <v>73</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2224,25 +2418,31 @@
         <v>87</v>
       </c>
       <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
         <v>86</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA16" t="s">
         <v>73</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AB16" t="s">
         <v>112</v>
       </c>
-      <c r="AA16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD16" t="s">
         <v>113</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AE16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2313,22 +2513,28 @@
         <v>86</v>
       </c>
       <c r="X17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" t="s">
         <v>87</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA17" t="s">
         <v>73</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AB17" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>78</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2399,25 +2605,31 @@
         <v>69</v>
       </c>
       <c r="X18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y18" t="s">
         <v>87</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA18" t="s">
         <v>45</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>73</v>
       </c>
       <c r="AB18" t="s">
         <v>121</v>
       </c>
       <c r="AC18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2488,25 +2700,31 @@
         <v>69</v>
       </c>
       <c r="X19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y19" t="s">
         <v>87</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA19" t="s">
         <v>45</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AB19" t="s">
         <v>124</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>73</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>125</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2577,25 +2795,31 @@
         <v>87</v>
       </c>
       <c r="X20" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y20" t="s">
         <v>86</v>
       </c>
-      <c r="Y20" t="s">
-        <v>44</v>
-      </c>
       <c r="Z20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB20" t="s">
         <v>128</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>73</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
         <v>115</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2666,21 +2890,27 @@
         <v>86</v>
       </c>
       <c r="X21" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y21" t="s">
         <v>87</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA21" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AB21" t="s">
         <v>132</v>
       </c>
-      <c r="AA21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD21" t="s">
         <v>133</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
         <v>134</v>
       </c>
     </row>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659ACC9-3050-054E-A99F-1DCE520D7F06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87208BCD-A61C-214A-88D8-DD7F073A400B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pilot 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="170">
   <si>
     <t>count</t>
   </si>
@@ -903,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2917,4 +2918,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
+  <dimension ref="A1:AE1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87208BCD-A61C-214A-88D8-DD7F073A400B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD742316-68F6-414F-8664-9FB104D58D57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="209">
   <si>
     <t>count</t>
   </si>
@@ -542,6 +542,123 @@
   </si>
   <si>
     <t xml:space="preserve">unclear but not scribbles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">redo button below screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">molly </t>
+  </si>
+  <si>
+    <t>drawing1_notes</t>
+  </si>
+  <si>
+    <t>drawing2_notes</t>
+  </si>
+  <si>
+    <t>PD_190712_01</t>
+  </si>
+  <si>
+    <t>bb236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because it doesn’t have scribble scribble </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuz I like yellow and red </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuz I like red </t>
+  </si>
+  <si>
+    <t>PD_190712_02</t>
+  </si>
+  <si>
+    <t>ba896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because this one [points to bad one] is just a scribble scrabble </t>
+  </si>
+  <si>
+    <t>well kind of other kind of a little of the points from my flower kind of it was a little low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kind of because she was the one who I worked hardest for because the other time wait I did better points kind of I was trying to do that for the other teacher but I kind of got messed up a little </t>
+  </si>
+  <si>
+    <t>PD_190712_03</t>
+  </si>
+  <si>
+    <t>bb249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good </t>
+  </si>
+  <si>
+    <t xml:space="preserve">because it's not messy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">redo button below screen; drew a really long time for both, I didn’t have a protocol for time warnings yet  </t>
+  </si>
+  <si>
+    <t>can't see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t know </t>
+  </si>
+  <si>
+    <t>PD_190712_04</t>
+  </si>
+  <si>
+    <t>bb230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because this one [good one] has a circle and this one [bad one] has a scribble scrabble </t>
+  </si>
+  <si>
+    <t>cuz I liked it a lot</t>
+  </si>
+  <si>
+    <t>because I like her t shirt</t>
+  </si>
+  <si>
+    <t>PD2_190715_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because it looks like a flower that [bad one] is scribbling </t>
+  </si>
+  <si>
+    <t>bb226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t know </t>
+  </si>
+  <si>
+    <t>PD2_190715_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because this one [bad] is only scribble scrabble and this one [good] is the right way </t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>**no</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because  </t>
   </si>
 </sst>
 </file>
@@ -904,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
@@ -2922,15 +3039,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
+    <col min="26" max="26" width="23.5" customWidth="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="28" max="28" width="22" customWidth="1"/>
+    <col min="29" max="29" width="24.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2998,31 +3145,579 @@
         <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="X1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="Y1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="Z1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="AA1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43658</v>
+      </c>
+      <c r="D2">
+        <v>4.67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" t="s">
+        <v>178</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" t="s">
+        <v>178</v>
+      </c>
+      <c r="W2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43658</v>
+      </c>
+      <c r="D3">
+        <v>5.31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" t="s">
+        <v>178</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" t="s">
+        <v>160</v>
+      </c>
+      <c r="X3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43658</v>
+      </c>
+      <c r="D4">
+        <v>4.08</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" t="s">
+        <v>178</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W4" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43658</v>
+      </c>
+      <c r="D5">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" t="s">
+        <v>178</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" t="s">
+        <v>178</v>
+      </c>
+      <c r="W5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43661</v>
+      </c>
+      <c r="D6">
+        <v>4.51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" t="s">
+        <v>178</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" t="s">
+        <v>178</v>
+      </c>
+      <c r="W6" t="s">
+        <v>160</v>
+      </c>
+      <c r="X6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43661</v>
+      </c>
+      <c r="D7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" t="s">
+        <v>178</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>92</v>
+      </c>
+      <c r="V7" t="s">
+        <v>178</v>
+      </c>
+      <c r="W7" t="s">
+        <v>191</v>
+      </c>
+      <c r="X7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD742316-68F6-414F-8664-9FB104D58D57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8509C55B-DDE3-2342-9F16-33FBB68941E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="239">
   <si>
     <t>count</t>
   </si>
@@ -649,16 +649,106 @@
     <t xml:space="preserve">because this one [bad] is only scribble scrabble and this one [good] is the right way </t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>**no</t>
-  </si>
-  <si>
     <t>because</t>
   </si>
   <si>
     <t xml:space="preserve">because  </t>
+  </si>
+  <si>
+    <t>ba861</t>
+  </si>
+  <si>
+    <t>PD2_190715_03</t>
+  </si>
+  <si>
+    <t>ba1178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuz it looks like a real flower </t>
+  </si>
+  <si>
+    <t xml:space="preserve">can't tell </t>
+  </si>
+  <si>
+    <t>cuz she looks like teacher aarthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuz she does all of them </t>
+  </si>
+  <si>
+    <t>PD2_190715_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because it more looks like a flower </t>
+  </si>
+  <si>
+    <t>bb222</t>
+  </si>
+  <si>
+    <t>PD2_190716_01</t>
+  </si>
+  <si>
+    <t>bb040</t>
+  </si>
+  <si>
+    <t>because it has petals and grass and things, but this [bad one] is just scribble scrabble</t>
+  </si>
+  <si>
+    <t>for warmup, chose bad one and said "I like that one better" and then I asked "which one do you think is drawn better" and he chose good one; accidentally clicked the next button to watch the distractor video before he drew the first drawing, throw out data</t>
+  </si>
+  <si>
+    <t>cuz I like her</t>
+  </si>
+  <si>
+    <t>cuz I like her shirt</t>
+  </si>
+  <si>
+    <t>PD2_190716_02</t>
+  </si>
+  <si>
+    <t>because because I like the top of it</t>
+  </si>
+  <si>
+    <t>ba880</t>
+  </si>
+  <si>
+    <t>because because I'm trying to work really hard on it</t>
+  </si>
+  <si>
+    <t>because I don’t know why</t>
+  </si>
+  <si>
+    <t>PD2_190716_03</t>
+  </si>
+  <si>
+    <t>cuz it like this one [bad] is scribble scrabble and this one [good] is not</t>
+  </si>
+  <si>
+    <t>bb042</t>
+  </si>
+  <si>
+    <t>because orange is my favorite color</t>
+  </si>
+  <si>
+    <t>PD2_190716_04</t>
+  </si>
+  <si>
+    <t>ba1004</t>
+  </si>
+  <si>
+    <t>because it has a spout and a circle and four sizes</t>
+  </si>
+  <si>
+    <t>"im gonna do a lot for this one" before drawing for selective!</t>
+  </si>
+  <si>
+    <t>no flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because I was trying to make a flower but I didn’t </t>
+  </si>
+  <si>
+    <t>because she only said one because I only sent her one</t>
   </si>
 </sst>
 </file>
@@ -701,10 +791,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3039,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3050,34 +3141,33 @@
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" customWidth="1"/>
-    <col min="22" max="22" width="19.1640625" customWidth="1"/>
-    <col min="23" max="23" width="14.6640625" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" customWidth="1"/>
-    <col min="26" max="26" width="23.5" customWidth="1"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="22" customWidth="1"/>
-    <col min="29" max="29" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" customWidth="1"/>
+    <col min="25" max="25" width="23.5" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="22" customWidth="1"/>
+    <col min="28" max="28" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3091,82 +3181,79 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="W1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X1" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="Z1" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="AB1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3179,80 +3266,80 @@
       <c r="D2">
         <v>4.67</v>
       </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
         <v>75</v>
       </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="R2" t="s">
+        <v>178</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
         <v>92</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>178</v>
       </c>
-      <c r="T2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" t="s">
-        <v>92</v>
-      </c>
       <c r="V2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="W2" t="s">
         <v>160</v>
       </c>
       <c r="X2" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="Z2" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3265,80 +3352,80 @@
       <c r="D3">
         <v>5.31</v>
       </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="L3" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" t="s">
+        <v>178</v>
+      </c>
+      <c r="S3" t="s">
         <v>75</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>92</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>178</v>
       </c>
-      <c r="T3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" t="s">
-        <v>92</v>
-      </c>
       <c r="V3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="W3" t="s">
         <v>160</v>
       </c>
       <c r="X3" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="Z3" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="AB3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3351,80 +3438,80 @@
       <c r="D4">
         <v>4.08</v>
       </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" t="s">
         <v>78</v>
       </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="R4" t="s">
+        <v>178</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
         <v>92</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>178</v>
       </c>
-      <c r="T4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" t="s">
-        <v>92</v>
-      </c>
       <c r="V4" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="W4" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="X4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y4" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="Z4" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="AB4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3437,80 +3524,80 @@
       <c r="D5">
         <v>4.1900000000000004</v>
       </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L5" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="R5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
         <v>92</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>178</v>
       </c>
-      <c r="T5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" t="s">
-        <v>92</v>
-      </c>
       <c r="V5" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="W5" t="s">
         <v>160</v>
       </c>
       <c r="X5" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="Z5" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="AB5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3523,77 +3610,77 @@
       <c r="D6">
         <v>4.51</v>
       </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I6" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="L6" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
         <v>75</v>
       </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" t="s">
-        <v>78</v>
-      </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="R6" t="s">
+        <v>178</v>
+      </c>
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
         <v>92</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>178</v>
       </c>
-      <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" t="s">
-        <v>92</v>
-      </c>
       <c r="V6" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="W6" t="s">
         <v>160</v>
       </c>
       <c r="X6" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="Y6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" t="s">
         <v>202</v>
       </c>
-      <c r="Z6" t="s">
-        <v>68</v>
-      </c>
       <c r="AA6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3603,121 +3690,581 @@
       <c r="C7" s="2">
         <v>43661</v>
       </c>
-      <c r="D7" t="s">
-        <v>205</v>
+      <c r="D7">
+        <v>5.09</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="G7" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I7" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="L7" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s">
         <v>75</v>
       </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="R7" t="s">
+        <v>178</v>
+      </c>
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" t="s">
         <v>92</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>178</v>
       </c>
-      <c r="T7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" t="s">
-        <v>92</v>
-      </c>
       <c r="V7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="W7" t="s">
         <v>191</v>
       </c>
       <c r="X7" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="Z7" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43661</v>
+      </c>
+      <c r="D8">
+        <v>4.76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" t="s">
+        <v>171</v>
+      </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" t="s">
+        <v>178</v>
+      </c>
+      <c r="S8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" t="s">
+        <v>178</v>
+      </c>
+      <c r="V8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W8" t="s">
+        <v>211</v>
+      </c>
+      <c r="X8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43661</v>
+      </c>
+      <c r="D9">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" t="s">
+        <v>178</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U9" t="s">
+        <v>178</v>
+      </c>
+      <c r="V9" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" t="s">
+        <v>160</v>
+      </c>
+      <c r="X9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43662</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
       <c r="H10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>172</v>
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" t="s">
+        <v>178</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" t="s">
+        <v>178</v>
+      </c>
+      <c r="V10" t="s">
+        <v>160</v>
+      </c>
+      <c r="W10" t="s">
+        <v>160</v>
+      </c>
+      <c r="X10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43662</v>
+      </c>
+      <c r="D11">
+        <v>5.26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" t="s">
+        <v>171</v>
+      </c>
       <c r="H11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
+        <v>178</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" t="s">
+        <v>92</v>
+      </c>
+      <c r="U11" t="s">
+        <v>178</v>
+      </c>
+      <c r="V11" t="s">
+        <v>160</v>
+      </c>
+      <c r="W11" t="s">
+        <v>160</v>
+      </c>
+      <c r="X11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43662</v>
+      </c>
+      <c r="D12">
+        <v>4.12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" t="s">
         <v>171</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
         <v>172</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" t="s">
+        <v>178</v>
+      </c>
+      <c r="S12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" t="s">
+        <v>178</v>
+      </c>
+      <c r="V12" t="s">
+        <v>160</v>
+      </c>
+      <c r="W12" t="s">
+        <v>160</v>
+      </c>
+      <c r="X12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43662</v>
+      </c>
+      <c r="D13">
+        <v>4.29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U13" t="s">
+        <v>178</v>
+      </c>
+      <c r="V13" t="s">
+        <v>160</v>
+      </c>
+      <c r="W13" t="s">
+        <v>236</v>
+      </c>
+      <c r="X13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8509C55B-DDE3-2342-9F16-33FBB68941E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D0E477-B5FA-6D48-A952-5664C124BF9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="263">
   <si>
     <t>count</t>
   </si>
@@ -610,9 +610,6 @@
     <t>can't see</t>
   </si>
   <si>
-    <t xml:space="preserve">both </t>
-  </si>
-  <si>
     <t xml:space="preserve">I don’t know </t>
   </si>
   <si>
@@ -640,9 +637,6 @@
     <t>bb226</t>
   </si>
   <si>
-    <t xml:space="preserve">don’t know </t>
-  </si>
-  <si>
     <t>PD2_190715_02</t>
   </si>
   <si>
@@ -749,6 +743,84 @@
   </si>
   <si>
     <t>because she only said one because I only sent her one</t>
+  </si>
+  <si>
+    <t>PD2_190718_01</t>
+  </si>
+  <si>
+    <t>because it doesn’t have scribble scrabble</t>
+  </si>
+  <si>
+    <t>ba1018</t>
+  </si>
+  <si>
+    <t>drawing1_prompt</t>
+  </si>
+  <si>
+    <t>drawing2_prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower garden </t>
+  </si>
+  <si>
+    <t>flower garden</t>
+  </si>
+  <si>
+    <t>I don’t know</t>
+  </si>
+  <si>
+    <t>PD2_190718_02</t>
+  </si>
+  <si>
+    <t>bb002</t>
+  </si>
+  <si>
+    <t>because it looks more like a flower and this one [bad] looks more like a scribble</t>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>her drawing [points to linda] was easier than teacher karen's</t>
+  </si>
+  <si>
+    <t>because I worked more harder on her drawing</t>
+  </si>
+  <si>
+    <t>PD2_190718_03</t>
+  </si>
+  <si>
+    <t>ba875</t>
+  </si>
+  <si>
+    <t>because it looks a little straight</t>
+  </si>
+  <si>
+    <t>two flowers</t>
+  </si>
+  <si>
+    <t>flower and sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still don’t know </t>
+  </si>
+  <si>
+    <t>PD2_190718_04</t>
+  </si>
+  <si>
+    <t>because it's not scribble scrabble</t>
+  </si>
+  <si>
+    <t>ba847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for selective praise teacher, said done but then added more </t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>don’t know</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:AE1"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3130,16 +3202,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" customWidth="1"/>
@@ -3157,17 +3230,18 @@
     <col min="18" max="18" width="19.6640625" customWidth="1"/>
     <col min="19" max="19" width="18.33203125" customWidth="1"/>
     <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.1640625" customWidth="1"/>
-    <col min="25" max="25" width="23.5" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="22" customWidth="1"/>
-    <col min="28" max="28" width="24.83203125" customWidth="1"/>
+    <col min="21" max="22" width="19.1640625" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="13.1640625" customWidth="1"/>
+    <col min="27" max="27" width="23.5" customWidth="1"/>
+    <col min="28" max="28" width="12" customWidth="1"/>
+    <col min="29" max="29" width="22" customWidth="1"/>
+    <col min="30" max="30" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3232,28 +3306,34 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W1" t="s">
         <v>173</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y1" t="s">
         <v>174</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3291,10 +3371,10 @@
         <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
         <v>78</v>
@@ -3318,28 +3398,34 @@
         <v>178</v>
       </c>
       <c r="V2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="W2" t="s">
         <v>160</v>
       </c>
       <c r="X2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="Y2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="s">
         <v>180</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3380,7 +3466,7 @@
         <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
         <v>78</v>
@@ -3404,28 +3490,34 @@
         <v>178</v>
       </c>
       <c r="V3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="W3" t="s">
         <v>160</v>
       </c>
       <c r="X3" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="Y3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" t="s">
         <v>184</v>
       </c>
-      <c r="Z3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3463,10 +3555,10 @@
         <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
         <v>78</v>
@@ -3490,33 +3582,39 @@
         <v>178</v>
       </c>
       <c r="V4" t="s">
+        <v>142</v>
+      </c>
+      <c r="W4" t="s">
         <v>160</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y4" t="s">
         <v>191</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" t="s">
         <v>192</v>
       </c>
-      <c r="Y4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="2">
         <v>43658</v>
@@ -3528,7 +3626,7 @@
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" t="s">
         <v>171</v>
@@ -3543,7 +3641,7 @@
         <v>188</v>
       </c>
       <c r="K5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L5" t="s">
         <v>75</v>
@@ -3552,7 +3650,7 @@
         <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
         <v>78</v>
@@ -3576,33 +3674,39 @@
         <v>178</v>
       </c>
       <c r="V5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="W5" t="s">
         <v>160</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="Y5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" t="s">
         <v>197</v>
       </c>
-      <c r="Z5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2">
         <v>43661</v>
@@ -3614,7 +3718,7 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>171</v>
@@ -3629,16 +3733,16 @@
         <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L6" t="s">
         <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
         <v>78</v>
@@ -3662,30 +3766,36 @@
         <v>178</v>
       </c>
       <c r="V6" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="W6" t="s">
         <v>160</v>
       </c>
       <c r="X6" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="Y6" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="Z6" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2">
         <v>43661</v>
@@ -3697,7 +3807,7 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
         <v>171</v>
@@ -3712,16 +3822,16 @@
         <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L7" t="s">
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
         <v>78</v>
@@ -3745,30 +3855,36 @@
         <v>178</v>
       </c>
       <c r="V7" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="W7" t="s">
         <v>191</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="Y7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="Z7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="2">
         <v>43661</v>
@@ -3780,7 +3896,7 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
         <v>171</v>
@@ -3795,16 +3911,16 @@
         <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L8" t="s">
         <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s">
         <v>73</v>
@@ -3828,30 +3944,36 @@
         <v>178</v>
       </c>
       <c r="V8" t="s">
+        <v>142</v>
+      </c>
+      <c r="W8" t="s">
         <v>160</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" t="s">
         <v>211</v>
       </c>
-      <c r="X8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>213</v>
-      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="2">
         <v>43661</v>
@@ -3863,7 +3985,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
         <v>171</v>
@@ -3878,7 +4000,7 @@
         <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L9" t="s">
         <v>75</v>
@@ -3887,7 +4009,7 @@
         <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
         <v>73</v>
@@ -3911,33 +4033,39 @@
         <v>178</v>
       </c>
       <c r="V9" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="W9" t="s">
+        <v>68</v>
+      </c>
+      <c r="X9" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y9" t="s">
         <v>160</v>
       </c>
-      <c r="X9" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>68</v>
-      </c>
       <c r="Z9" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="AA9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AB9" t="s">
-        <v>220</v>
+      <c r="AD9" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" s="2">
         <v>43662</v>
@@ -3949,7 +4077,7 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
         <v>171</v>
@@ -3964,7 +4092,7 @@
         <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L10" t="s">
         <v>75</v>
@@ -3973,7 +4101,7 @@
         <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s">
         <v>78</v>
@@ -3997,30 +4125,36 @@
         <v>178</v>
       </c>
       <c r="V10" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="W10" t="s">
         <v>160</v>
       </c>
       <c r="X10" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="Y10" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="Z10" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C11" s="2">
         <v>43662</v>
@@ -4032,7 +4166,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G11" t="s">
         <v>171</v>
@@ -4047,7 +4181,7 @@
         <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L11" t="s">
         <v>75</v>
@@ -4056,7 +4190,7 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="O11" t="s">
         <v>78</v>
@@ -4080,30 +4214,36 @@
         <v>178</v>
       </c>
       <c r="V11" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="W11" t="s">
         <v>160</v>
       </c>
       <c r="X11" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="Z11" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C12" s="2">
         <v>43662</v>
@@ -4115,7 +4255,7 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G12" t="s">
         <v>171</v>
@@ -4130,16 +4270,16 @@
         <v>67</v>
       </c>
       <c r="K12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L12" t="s">
         <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O12" t="s">
         <v>45</v>
@@ -4163,30 +4303,36 @@
         <v>178</v>
       </c>
       <c r="V12" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="W12" t="s">
         <v>160</v>
       </c>
       <c r="X12" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="AA12" t="s">
-        <v>231</v>
+        <v>68</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C13" s="2">
         <v>43662</v>
@@ -4198,7 +4344,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
         <v>171</v>
@@ -4213,16 +4359,16 @@
         <v>67</v>
       </c>
       <c r="K13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L13" t="s">
         <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
@@ -4246,25 +4392,390 @@
         <v>178</v>
       </c>
       <c r="V13" t="s">
+        <v>142</v>
+      </c>
+      <c r="W13" t="s">
         <v>160</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" t="s">
         <v>236</v>
       </c>
-      <c r="X13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="AD13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>237</v>
       </c>
-      <c r="Z13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="C14" s="2">
+        <v>43664</v>
+      </c>
+      <c r="D14">
+        <v>5.01</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" t="s">
         <v>238</v>
       </c>
-      <c r="AB13" t="s">
-        <v>235</v>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" t="s">
+        <v>92</v>
+      </c>
+      <c r="U14" t="s">
+        <v>178</v>
+      </c>
+      <c r="V14" t="s">
+        <v>242</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43664</v>
+      </c>
+      <c r="D15">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
+        <v>247</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" t="s">
+        <v>92</v>
+      </c>
+      <c r="U15" t="s">
+        <v>178</v>
+      </c>
+      <c r="V15" t="s">
+        <v>243</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43664</v>
+      </c>
+      <c r="D16">
+        <v>5.57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" t="s">
+        <v>92</v>
+      </c>
+      <c r="U16" t="s">
+        <v>178</v>
+      </c>
+      <c r="V16" t="s">
+        <v>243</v>
+      </c>
+      <c r="W16" t="s">
+        <v>254</v>
+      </c>
+      <c r="X16" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43664</v>
+      </c>
+      <c r="D17">
+        <v>5.54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U17" t="s">
+        <v>178</v>
+      </c>
+      <c r="V17" t="s">
+        <v>243</v>
+      </c>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D0E477-B5FA-6D48-A952-5664C124BF9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19887D81-72AB-7D4B-98ED-684AF3E47EB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="302">
   <si>
     <t>count</t>
   </si>
@@ -821,6 +821,123 @@
   </si>
   <si>
     <t>don’t know</t>
+  </si>
+  <si>
+    <t>PD2_190719_01</t>
+  </si>
+  <si>
+    <t>because I can see what it is, and I don’t know what this [bad] is</t>
+  </si>
+  <si>
+    <t>ba865</t>
+  </si>
+  <si>
+    <t>first one to have demonstrated redo button</t>
+  </si>
+  <si>
+    <t>flower garden + picture of garden</t>
+  </si>
+  <si>
+    <t>cuz it looked easier</t>
+  </si>
+  <si>
+    <t>because I like this shirt</t>
+  </si>
+  <si>
+    <t>PD2_190719_02</t>
+  </si>
+  <si>
+    <t>bb346</t>
+  </si>
+  <si>
+    <t>because it looks like a flower</t>
+  </si>
+  <si>
+    <t>failed the teacher checks, but I asked her to say each name with me and she did; said she was done with the selective praise drawing and then went back and added more</t>
+  </si>
+  <si>
+    <t>because I think I heard her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just want her </t>
+  </si>
+  <si>
+    <t>PD2_190722_01</t>
+  </si>
+  <si>
+    <t>bb247</t>
+  </si>
+  <si>
+    <t>cuz it looks like a flower</t>
+  </si>
+  <si>
+    <t>failed the teacher checks, but I asked her to say each name with me and she did</t>
+  </si>
+  <si>
+    <t>picture of three flowers</t>
+  </si>
+  <si>
+    <t>cuz it was pretty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuz smile </t>
+  </si>
+  <si>
+    <t>PD2_190722_02</t>
+  </si>
+  <si>
+    <t>because it's white, no because it's better than the other one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">already tested for praise draw pilot 1 </t>
+  </si>
+  <si>
+    <t>flower then scribbles</t>
+  </si>
+  <si>
+    <t>scribbles</t>
+  </si>
+  <si>
+    <t>because I made to give her [karen] one and her [linda] more</t>
+  </si>
+  <si>
+    <t>PD2_190722_03</t>
+  </si>
+  <si>
+    <t>since this one [bad] is just scribble scrabble</t>
+  </si>
+  <si>
+    <t>ba902</t>
+  </si>
+  <si>
+    <t>three flowers</t>
+  </si>
+  <si>
+    <t>no nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no nothing </t>
+  </si>
+  <si>
+    <t>PD2_190723_01</t>
+  </si>
+  <si>
+    <t>ba1054</t>
+  </si>
+  <si>
+    <t>said laura instead of linda, but I kept going and said it was a pass because it was distinct from karen</t>
+  </si>
+  <si>
+    <t>PD2_190723_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because it has these [petals] and this one [bad] is bah bah bah bah </t>
+  </si>
+  <si>
+    <t>ba635</t>
+  </si>
+  <si>
+    <t>flower and cloud</t>
   </si>
 </sst>
 </file>
@@ -1184,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3202,10 +3319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3230,9 +3347,10 @@
     <col min="18" max="18" width="19.6640625" customWidth="1"/>
     <col min="19" max="19" width="18.33203125" customWidth="1"/>
     <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="22" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" customWidth="1"/>
+    <col min="22" max="22" width="28" customWidth="1"/>
     <col min="23" max="23" width="14.6640625" customWidth="1"/>
-    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="24" max="24" width="27.6640625" customWidth="1"/>
     <col min="25" max="25" width="15.6640625" customWidth="1"/>
     <col min="26" max="26" width="13.1640625" customWidth="1"/>
     <col min="27" max="27" width="23.5" customWidth="1"/>
@@ -4507,6 +4625,9 @@
       <c r="AC14" t="s">
         <v>244</v>
       </c>
+      <c r="AD14" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -4776,6 +4897,644 @@
       </c>
       <c r="AD17" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43665</v>
+      </c>
+      <c r="D18">
+        <v>5.46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s">
+        <v>178</v>
+      </c>
+      <c r="V18" t="s">
+        <v>267</v>
+      </c>
+      <c r="W18" t="s">
+        <v>160</v>
+      </c>
+      <c r="X18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43665</v>
+      </c>
+      <c r="D19">
+        <v>4.79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" t="s">
+        <v>68</v>
+      </c>
+      <c r="V19" t="s">
+        <v>267</v>
+      </c>
+      <c r="W19" t="s">
+        <v>142</v>
+      </c>
+      <c r="X19" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43668</v>
+      </c>
+      <c r="D20">
+        <v>4.16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>277</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" t="s">
+        <v>68</v>
+      </c>
+      <c r="V20" t="s">
+        <v>280</v>
+      </c>
+      <c r="W20" t="s">
+        <v>142</v>
+      </c>
+      <c r="X20" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43668</v>
+      </c>
+      <c r="D21">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" t="s">
+        <v>284</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>46</v>
+      </c>
+      <c r="R21" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s">
+        <v>68</v>
+      </c>
+      <c r="V21" t="s">
+        <v>280</v>
+      </c>
+      <c r="W21" t="s">
+        <v>286</v>
+      </c>
+      <c r="X21" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43668</v>
+      </c>
+      <c r="D22">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
+        <v>290</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>46</v>
+      </c>
+      <c r="R22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" t="s">
+        <v>46</v>
+      </c>
+      <c r="U22" t="s">
+        <v>68</v>
+      </c>
+      <c r="V22" t="s">
+        <v>280</v>
+      </c>
+      <c r="W22" t="s">
+        <v>142</v>
+      </c>
+      <c r="X22" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43669</v>
+      </c>
+      <c r="D23">
+        <v>5.2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s">
+        <v>68</v>
+      </c>
+      <c r="V23" t="s">
+        <v>280</v>
+      </c>
+      <c r="W23" t="s">
+        <v>254</v>
+      </c>
+      <c r="X23" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43669</v>
+      </c>
+      <c r="D24">
+        <v>5.87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>300</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" t="s">
+        <v>299</v>
+      </c>
+      <c r="L24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s">
+        <v>68</v>
+      </c>
+      <c r="V24" t="s">
+        <v>280</v>
+      </c>
+      <c r="W24" t="s">
+        <v>142</v>
+      </c>
+      <c r="X24" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19887D81-72AB-7D4B-98ED-684AF3E47EB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A82F6B4-BAE7-EE44-A531-A1D8C515B688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="336">
   <si>
     <t>count</t>
   </si>
@@ -938,6 +938,108 @@
   </si>
   <si>
     <t>flower and cloud</t>
+  </si>
+  <si>
+    <t>PD2_190724_01</t>
+  </si>
+  <si>
+    <t>because it has like a weed stuff and it has these and it has the big button and this [bad] has like scribbles</t>
+  </si>
+  <si>
+    <t>ba1162</t>
+  </si>
+  <si>
+    <t>picture of watermelon</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because like I wasn’t all my time and I was trying to make the shape of this one so I just couldn’t do the [inaudible] so I couldn’t make it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeah because I was gonna make some good ones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">struggled to draw the seeds because the iPad doesn’t register a dot; accidentally pressed the next button with his pinky before he was finished with his second teacher drawing; kinda funny because he did the thing from the other task, chose to do more drawings with the teacher that he didnt get to finish his drawing for because she wouldnt know that he can do well </t>
+  </si>
+  <si>
+    <t>PD2_190724_02</t>
+  </si>
+  <si>
+    <t>cuz its like more like a flower and this one [bad] is just like scribble scrabble</t>
+  </si>
+  <si>
+    <t>ba864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also struggled with the seeds, made it work by pressing hard </t>
+  </si>
+  <si>
+    <t>because I only took one to finish, only one and then the next one was finished, but I had to do a few for this one [karen] and then it was finished</t>
+  </si>
+  <si>
+    <t>I'm still thinking</t>
+  </si>
+  <si>
+    <t>PD2_190724_03</t>
+  </si>
+  <si>
+    <t>because it has because it's a real flower</t>
+  </si>
+  <si>
+    <t>bb240</t>
+  </si>
+  <si>
+    <t>cuz I wanted it to be a real watermelon and hers [linda] a little funnier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because her shirt is orange and my favorite color is orange and yellow </t>
+  </si>
+  <si>
+    <t>PD2_190725_01</t>
+  </si>
+  <si>
+    <t>because of the scribble</t>
+  </si>
+  <si>
+    <t>ba775</t>
+  </si>
+  <si>
+    <t>because my favorite color is orange</t>
+  </si>
+  <si>
+    <t>because I like orange better</t>
+  </si>
+  <si>
+    <t>PD2_190725_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because this one [bad] looks scrabbled up </t>
+  </si>
+  <si>
+    <t>ba776</t>
+  </si>
+  <si>
+    <t>because it was better</t>
+  </si>
+  <si>
+    <t>because it's yellow and it's really good stars but I don't like the shirt</t>
+  </si>
+  <si>
+    <t>PD2_190725_03</t>
+  </si>
+  <si>
+    <t>because that one [bad] doesn't look like a flower</t>
+  </si>
+  <si>
+    <t>bb039</t>
+  </si>
+  <si>
+    <t>it's because she's pretty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's because she's a good drawer </t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035477AC-CE20-344D-9C0D-66946B13C514}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -3319,10 +3421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5537,6 +5639,546 @@
         <v>279</v>
       </c>
     </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43670</v>
+      </c>
+      <c r="D25">
+        <v>4.55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25" t="s">
+        <v>68</v>
+      </c>
+      <c r="V25" t="s">
+        <v>305</v>
+      </c>
+      <c r="W25" t="s">
+        <v>306</v>
+      </c>
+      <c r="X25" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43670</v>
+      </c>
+      <c r="D26">
+        <v>5.54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" t="s">
+        <v>311</v>
+      </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>46</v>
+      </c>
+      <c r="U26" t="s">
+        <v>68</v>
+      </c>
+      <c r="V26" t="s">
+        <v>305</v>
+      </c>
+      <c r="W26" t="s">
+        <v>306</v>
+      </c>
+      <c r="X26" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43670</v>
+      </c>
+      <c r="D27">
+        <v>4.49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>318</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" t="s">
+        <v>317</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" t="s">
+        <v>68</v>
+      </c>
+      <c r="S27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" t="s">
+        <v>68</v>
+      </c>
+      <c r="V27" t="s">
+        <v>305</v>
+      </c>
+      <c r="W27" t="s">
+        <v>306</v>
+      </c>
+      <c r="X27" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43671</v>
+      </c>
+      <c r="D28">
+        <v>5.68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" t="s">
+        <v>322</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" t="s">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" t="s">
+        <v>305</v>
+      </c>
+      <c r="W28" t="s">
+        <v>306</v>
+      </c>
+      <c r="X28" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43671</v>
+      </c>
+      <c r="D29">
+        <v>5.68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>46</v>
+      </c>
+      <c r="R29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S29" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" t="s">
+        <v>68</v>
+      </c>
+      <c r="V29" t="s">
+        <v>305</v>
+      </c>
+      <c r="W29" t="s">
+        <v>306</v>
+      </c>
+      <c r="X29" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43671</v>
+      </c>
+      <c r="D30">
+        <v>4.55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" t="s">
+        <v>332</v>
+      </c>
+      <c r="L30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" t="s">
+        <v>68</v>
+      </c>
+      <c r="V30" t="s">
+        <v>305</v>
+      </c>
+      <c r="W30" t="s">
+        <v>306</v>
+      </c>
+      <c r="X30" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A82F6B4-BAE7-EE44-A531-A1D8C515B688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B353EDF-4AF5-8045-800C-9C4F1F63D367}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="367">
   <si>
     <t>count</t>
   </si>
@@ -1040,6 +1040,99 @@
   </si>
   <si>
     <t xml:space="preserve">it's because she's a good drawer </t>
+  </si>
+  <si>
+    <t>PD2_190805_01</t>
+  </si>
+  <si>
+    <t>because it has little petals</t>
+  </si>
+  <si>
+    <t>ba944</t>
+  </si>
+  <si>
+    <t>drawing1_forcedchoice</t>
+  </si>
+  <si>
+    <t>drawing2_forcedchoice</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>a little weird on the warmup, she touched bad one first but because she asked herself "which one is lauren's" I think she knew which was better though; I did forced choice but didn't ask again the second time</t>
+  </si>
+  <si>
+    <t>because I couldn't make the petals okay</t>
+  </si>
+  <si>
+    <t>PD2_190805_02</t>
+  </si>
+  <si>
+    <t>cuz it looks like a flower but this one [bad] doesn't</t>
+  </si>
+  <si>
+    <t>already tested for praise draw pilot 1; said he was going to make his drawing for teacher mark, unclear if that affected; I did forced choice but didn't ask again the second time</t>
+  </si>
+  <si>
+    <t>cuz it had [hand gesture]</t>
+  </si>
+  <si>
+    <t>because I worked hard on it</t>
+  </si>
+  <si>
+    <t>PD2_190806_01</t>
+  </si>
+  <si>
+    <t>I can't even tell this one [bad] looks like a flower</t>
+  </si>
+  <si>
+    <t>ba979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">said he was done and then added more for selective </t>
+  </si>
+  <si>
+    <t>I don't know why I just tried a little bit harder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just wanna do it </t>
+  </si>
+  <si>
+    <t>PD2_190806_02</t>
+  </si>
+  <si>
+    <t>because it has like more coloring and a flower and this one [bad] is just scribble scabble</t>
+  </si>
+  <si>
+    <t>ba978</t>
+  </si>
+  <si>
+    <t>square with heart</t>
+  </si>
+  <si>
+    <t>well she was first</t>
+  </si>
+  <si>
+    <t>because if I do good on her [karen] I wanna do good on her [linda]</t>
+  </si>
+  <si>
+    <t>PD2_190806_03</t>
+  </si>
+  <si>
+    <t>because this one [bad] doesn’t have leaves and this one [good] does</t>
+  </si>
+  <si>
+    <t>bb260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know  </t>
   </si>
 </sst>
 </file>
@@ -3421,10 +3514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3452,16 +3546,18 @@
     <col min="21" max="21" width="19.1640625" customWidth="1"/>
     <col min="22" max="22" width="28" customWidth="1"/>
     <col min="23" max="23" width="14.6640625" customWidth="1"/>
-    <col min="24" max="24" width="27.6640625" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="13.1640625" customWidth="1"/>
-    <col min="27" max="27" width="23.5" customWidth="1"/>
-    <col min="28" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="22" customWidth="1"/>
-    <col min="30" max="30" width="24.83203125" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" customWidth="1"/>
+    <col min="25" max="25" width="27.6640625" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+    <col min="27" max="27" width="20" customWidth="1"/>
+    <col min="28" max="28" width="13.1640625" customWidth="1"/>
+    <col min="29" max="29" width="23.5" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
+    <col min="31" max="31" width="22" customWidth="1"/>
+    <col min="32" max="32" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3532,28 +3628,34 @@
         <v>173</v>
       </c>
       <c r="X1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y1" t="s">
         <v>241</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3624,28 +3726,34 @@
         <v>160</v>
       </c>
       <c r="X2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" t="s">
         <v>142</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>160</v>
       </c>
-      <c r="Z2" t="s">
-        <v>44</v>
-      </c>
       <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3716,28 +3824,34 @@
         <v>160</v>
       </c>
       <c r="X3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" t="s">
         <v>142</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>160</v>
       </c>
-      <c r="Z3" t="s">
-        <v>45</v>
-      </c>
       <c r="AA3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="s">
         <v>184</v>
       </c>
-      <c r="AB3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3808,28 +3922,34 @@
         <v>160</v>
       </c>
       <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
         <v>142</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>191</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" t="s">
         <v>261</v>
       </c>
-      <c r="AA4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>44</v>
-      </c>
       <c r="AC4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE4" t="s">
         <v>192</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3900,28 +4020,34 @@
         <v>160</v>
       </c>
       <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
         <v>142</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>160</v>
       </c>
-      <c r="Z5" t="s">
-        <v>45</v>
-      </c>
       <c r="AA5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" t="s">
         <v>196</v>
       </c>
-      <c r="AB5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" t="s">
         <v>197</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3992,13 +4118,13 @@
         <v>160</v>
       </c>
       <c r="X6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" t="s">
         <v>142</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>160</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>262</v>
       </c>
       <c r="AA6" t="s">
         <v>68</v>
@@ -4007,10 +4133,16 @@
         <v>262</v>
       </c>
       <c r="AC6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4081,25 +4213,31 @@
         <v>191</v>
       </c>
       <c r="X7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" t="s">
         <v>142</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>191</v>
       </c>
-      <c r="Z7" t="s">
-        <v>45</v>
-      </c>
       <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" t="s">
         <v>203</v>
       </c>
-      <c r="AB7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4170,25 +4308,31 @@
         <v>160</v>
       </c>
       <c r="X8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" t="s">
         <v>142</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>209</v>
       </c>
-      <c r="Z8" t="s">
-        <v>44</v>
-      </c>
       <c r="AA8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" t="s">
         <v>210</v>
       </c>
-      <c r="AB8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4259,28 +4403,34 @@
         <v>68</v>
       </c>
       <c r="X9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" t="s">
         <v>142</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>160</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" t="s">
         <v>261</v>
       </c>
-      <c r="AA9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD9" t="s">
         <v>244</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4351,25 +4501,31 @@
         <v>160</v>
       </c>
       <c r="X10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" t="s">
         <v>142</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>160</v>
       </c>
-      <c r="Z10" t="s">
-        <v>45</v>
-      </c>
       <c r="AA10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" t="s">
         <v>219</v>
       </c>
-      <c r="AB10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4440,25 +4596,31 @@
         <v>160</v>
       </c>
       <c r="X11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" t="s">
         <v>142</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>160</v>
       </c>
-      <c r="Z11" t="s">
-        <v>44</v>
-      </c>
       <c r="AA11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11" t="s">
         <v>224</v>
       </c>
-      <c r="AB11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4529,25 +4691,31 @@
         <v>160</v>
       </c>
       <c r="X12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y12" t="s">
         <v>142</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>160</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12" t="s">
         <v>244</v>
       </c>
-      <c r="AA12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>45</v>
-      </c>
       <c r="AC12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4618,28 +4786,34 @@
         <v>160</v>
       </c>
       <c r="X13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" t="s">
         <v>142</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>234</v>
       </c>
-      <c r="Z13" t="s">
-        <v>45</v>
-      </c>
       <c r="AA13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" t="s">
         <v>235</v>
       </c>
-      <c r="AB13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" t="s">
         <v>236</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4710,28 +4884,34 @@
         <v>160</v>
       </c>
       <c r="X14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y14" t="s">
         <v>243</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>160</v>
       </c>
-      <c r="Z14" t="s">
-        <v>44</v>
-      </c>
       <c r="AA14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AB14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14" t="s">
         <v>244</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4802,25 +4982,31 @@
         <v>160</v>
       </c>
       <c r="X15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y15" t="s">
         <v>243</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>248</v>
       </c>
-      <c r="Z15" t="s">
-        <v>44</v>
-      </c>
       <c r="AA15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15" t="s">
         <v>249</v>
       </c>
-      <c r="AB15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4891,25 +5077,31 @@
         <v>254</v>
       </c>
       <c r="X16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" t="s">
         <v>243</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>255</v>
       </c>
-      <c r="Z16" t="s">
-        <v>44</v>
-      </c>
       <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC16" t="s">
         <v>192</v>
       </c>
-      <c r="AB16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4980,28 +5172,34 @@
         <v>160</v>
       </c>
       <c r="X17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y17" t="s">
         <v>243</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>142</v>
       </c>
-      <c r="Z17" t="s">
-        <v>45</v>
-      </c>
       <c r="AA17" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="AB17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC17" t="s">
         <v>192</v>
       </c>
       <c r="AD17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5072,25 +5270,31 @@
         <v>160</v>
       </c>
       <c r="X18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" t="s">
         <v>267</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>142</v>
       </c>
-      <c r="Z18" t="s">
-        <v>44</v>
-      </c>
       <c r="AA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC18" t="s">
         <v>268</v>
       </c>
-      <c r="AB18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5161,28 +5365,34 @@
         <v>142</v>
       </c>
       <c r="X19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y19" t="s">
         <v>267</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>142</v>
       </c>
-      <c r="Z19" t="s">
-        <v>45</v>
-      </c>
       <c r="AA19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" t="s">
         <v>274</v>
       </c>
-      <c r="AB19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE19" t="s">
         <v>275</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AF19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5253,28 +5463,34 @@
         <v>142</v>
       </c>
       <c r="X20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y20" t="s">
         <v>280</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>142</v>
       </c>
-      <c r="Z20" t="s">
-        <v>44</v>
-      </c>
       <c r="AA20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC20" t="s">
         <v>281</v>
       </c>
-      <c r="AB20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE20" t="s">
         <v>282</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5345,28 +5561,34 @@
         <v>286</v>
       </c>
       <c r="X21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y21" t="s">
         <v>280</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>287</v>
       </c>
-      <c r="Z21" t="s">
-        <v>44</v>
-      </c>
       <c r="AA21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC21" t="s">
         <v>288</v>
       </c>
-      <c r="AB21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE21" t="s">
         <v>192</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AF21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5437,25 +5659,31 @@
         <v>142</v>
       </c>
       <c r="X22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y22" t="s">
         <v>280</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>292</v>
       </c>
-      <c r="Z22" t="s">
-        <v>45</v>
-      </c>
       <c r="AA22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" t="s">
         <v>293</v>
       </c>
-      <c r="AB22" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5526,28 +5754,34 @@
         <v>254</v>
       </c>
       <c r="X23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y23" t="s">
         <v>280</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>254</v>
       </c>
-      <c r="Z23" t="s">
-        <v>45</v>
-      </c>
       <c r="AA23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC23" t="s">
         <v>192</v>
       </c>
-      <c r="AB23" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE23" t="s">
         <v>244</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5618,28 +5852,34 @@
         <v>142</v>
       </c>
       <c r="X24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y24" t="s">
         <v>280</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>301</v>
       </c>
-      <c r="Z24" t="s">
-        <v>44</v>
-      </c>
       <c r="AA24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC24" t="s">
         <v>192</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AD24" t="s">
         <v>261</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
         <v>178</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AF24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5710,28 +5950,34 @@
         <v>306</v>
       </c>
       <c r="X25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y25" t="s">
         <v>305</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>306</v>
       </c>
-      <c r="Z25" t="s">
-        <v>44</v>
-      </c>
       <c r="AA25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC25" t="s">
         <v>307</v>
       </c>
-      <c r="AB25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE25" t="s">
         <v>308</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AF25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5802,28 +6048,34 @@
         <v>306</v>
       </c>
       <c r="X26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y26" t="s">
         <v>305</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>306</v>
       </c>
-      <c r="Z26" t="s">
-        <v>45</v>
-      </c>
       <c r="AA26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC26" t="s">
         <v>314</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AD26" t="s">
         <v>315</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>178</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5894,25 +6146,31 @@
         <v>306</v>
       </c>
       <c r="X27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y27" t="s">
         <v>305</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>306</v>
       </c>
-      <c r="Z27" t="s">
-        <v>44</v>
-      </c>
       <c r="AA27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC27" t="s">
         <v>319</v>
       </c>
-      <c r="AB27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE27" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5983,25 +6241,31 @@
         <v>306</v>
       </c>
       <c r="X28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y28" t="s">
         <v>305</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>306</v>
       </c>
-      <c r="Z28" t="s">
-        <v>45</v>
-      </c>
       <c r="AA28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s">
         <v>324</v>
       </c>
-      <c r="AB28" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6072,25 +6336,31 @@
         <v>306</v>
       </c>
       <c r="X29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y29" t="s">
         <v>305</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>306</v>
       </c>
-      <c r="Z29" t="s">
-        <v>44</v>
-      </c>
       <c r="AA29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC29" t="s">
         <v>329</v>
       </c>
-      <c r="AB29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE29" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6161,22 +6431,512 @@
         <v>306</v>
       </c>
       <c r="X30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y30" t="s">
         <v>305</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>306</v>
       </c>
-      <c r="Z30" t="s">
-        <v>45</v>
-      </c>
       <c r="AA30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s">
         <v>334</v>
       </c>
-      <c r="AB30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43682</v>
+      </c>
+      <c r="D31">
+        <v>5.14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>338</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" t="s">
+        <v>337</v>
+      </c>
+      <c r="L31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>46</v>
+      </c>
+      <c r="R31" t="s">
+        <v>68</v>
+      </c>
+      <c r="S31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" t="s">
+        <v>46</v>
+      </c>
+      <c r="U31" t="s">
+        <v>68</v>
+      </c>
+      <c r="V31" t="s">
+        <v>72</v>
+      </c>
+      <c r="W31" t="s">
+        <v>341</v>
+      </c>
+      <c r="X31" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>345</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43682</v>
+      </c>
+      <c r="D32">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" t="s">
+        <v>346</v>
+      </c>
+      <c r="L32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U32" t="s">
+        <v>68</v>
+      </c>
+      <c r="V32" t="s">
+        <v>72</v>
+      </c>
+      <c r="W32" t="s">
+        <v>287</v>
+      </c>
+      <c r="X32" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43682</v>
+      </c>
+      <c r="D33">
+        <v>5.84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>352</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" t="s">
+        <v>351</v>
+      </c>
+      <c r="L33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>46</v>
+      </c>
+      <c r="R33" t="s">
+        <v>68</v>
+      </c>
+      <c r="S33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" t="s">
+        <v>68</v>
+      </c>
+      <c r="V33" t="s">
+        <v>72</v>
+      </c>
+      <c r="W33" t="s">
+        <v>142</v>
+      </c>
+      <c r="X33" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43682</v>
+      </c>
+      <c r="D34">
+        <v>5.84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>358</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" t="s">
+        <v>357</v>
+      </c>
+      <c r="L34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>68</v>
+      </c>
+      <c r="V34" t="s">
+        <v>72</v>
+      </c>
+      <c r="W34" t="s">
+        <v>359</v>
+      </c>
+      <c r="X34" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43682</v>
+      </c>
+      <c r="D35">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>364</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" t="s">
+        <v>363</v>
+      </c>
+      <c r="L35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" t="s">
+        <v>68</v>
+      </c>
+      <c r="S35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U35" t="s">
+        <v>68</v>
+      </c>
+      <c r="V35" t="s">
+        <v>72</v>
+      </c>
+      <c r="W35" t="s">
+        <v>287</v>
+      </c>
+      <c r="X35" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B353EDF-4AF5-8045-800C-9C4F1F63D367}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD35ECA-B0F7-4C4B-9DD0-CC1E01179B99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
     <sheet name="Pilot 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pilot 2 - Alums" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="377">
   <si>
     <t>count</t>
   </si>
@@ -1133,6 +1134,36 @@
   </si>
   <si>
     <t xml:space="preserve">I don't know  </t>
+  </si>
+  <si>
+    <t>PD2_190805_03</t>
+  </si>
+  <si>
+    <t>ba693</t>
+  </si>
+  <si>
+    <t>because it looks like they spent more time</t>
+  </si>
+  <si>
+    <t>because for karen she gave stars for every one but for teacher linda she only gave the real ones</t>
+  </si>
+  <si>
+    <t>well because she wants to, because she actually, she does the real ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfect example if we need one </t>
+  </si>
+  <si>
+    <t>PD2_190806_04</t>
+  </si>
+  <si>
+    <t>because a flower is not scribble scrabble</t>
+  </si>
+  <si>
+    <t>ba747</t>
+  </si>
+  <si>
+    <t>because I haven't been practicing on drawing that kind of flower</t>
   </si>
 </sst>
 </file>
@@ -3516,9 +3547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF35" sqref="AF35"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6942,4 +6973,342 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AA399A-D8CF-C643-ACB9-43959DA58862}">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="14.1640625" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" customWidth="1"/>
+    <col min="28" max="28" width="13.1640625" customWidth="1"/>
+    <col min="29" max="29" width="23" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="31" max="31" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W1" t="s">
+        <v>173</v>
+      </c>
+      <c r="X1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43682</v>
+      </c>
+      <c r="D2">
+        <v>6.73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>369</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43683</v>
+      </c>
+      <c r="D3">
+        <v>6.51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" t="s">
+        <v>142</v>
+      </c>
+      <c r="X3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD35ECA-B0F7-4C4B-9DD0-CC1E01179B99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A982455-9E50-9945-9036-4E15ED5A4B0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
     <sheet name="Pilot 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Pilot 2 - Alums" sheetId="3" r:id="rId3"/>
+    <sheet name="Quality Ratings" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="377">
   <si>
     <t>count</t>
   </si>
@@ -3545,11 +3545,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6687,19 +6687,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C33" s="2">
         <v>43682</v>
       </c>
       <c r="D33">
-        <v>5.84</v>
+        <v>6.73</v>
       </c>
       <c r="E33" t="s">
         <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -6714,7 +6714,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="L33" t="s">
         <v>43</v>
@@ -6726,7 +6726,7 @@
         <v>44</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P33" t="s">
         <v>43</v>
@@ -6747,37 +6747,37 @@
         <v>68</v>
       </c>
       <c r="V33" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="W33" t="s">
         <v>142</v>
       </c>
       <c r="X33" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="Y33" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="Z33" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="AA33" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="AB33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="AD33" t="s">
         <v>45</v>
       </c>
       <c r="AE33" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="AF33" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
@@ -6785,7 +6785,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C34" s="2">
         <v>43682</v>
@@ -6797,7 +6797,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -6812,7 +6812,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s">
         <v>43</v>
@@ -6827,13 +6827,13 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="Q34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R34" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="S34" t="s">
         <v>43</v>
@@ -6848,7 +6848,7 @@
         <v>72</v>
       </c>
       <c r="W34" t="s">
-        <v>359</v>
+        <v>142</v>
       </c>
       <c r="X34" t="s">
         <v>342</v>
@@ -6857,7 +6857,7 @@
         <v>72</v>
       </c>
       <c r="Z34" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="AA34" t="s">
         <v>342</v>
@@ -6866,13 +6866,16 @@
         <v>44</v>
       </c>
       <c r="AC34" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AD34" t="s">
         <v>45</v>
       </c>
       <c r="AE34" t="s">
-        <v>361</v>
+        <v>355</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
@@ -6880,19 +6883,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C35" s="2">
         <v>43682</v>
       </c>
       <c r="D35">
-        <v>4.5599999999999996</v>
+        <v>5.84</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -6907,28 +6910,28 @@
         <v>67</v>
       </c>
       <c r="K35" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s">
         <v>43</v>
       </c>
       <c r="M35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Q35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R35" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="S35" t="s">
         <v>43</v>
@@ -6943,10 +6946,10 @@
         <v>72</v>
       </c>
       <c r="W35" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="X35" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="Y35" t="s">
         <v>72</v>
@@ -6958,16 +6961,206 @@
         <v>342</v>
       </c>
       <c r="AB35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC35" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43682</v>
+      </c>
+      <c r="D36">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>364</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" t="s">
+        <v>363</v>
+      </c>
+      <c r="L36" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" t="s">
+        <v>68</v>
+      </c>
+      <c r="S36" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36" t="s">
+        <v>46</v>
+      </c>
+      <c r="U36" t="s">
+        <v>68</v>
+      </c>
+      <c r="V36" t="s">
+        <v>72</v>
+      </c>
+      <c r="W36" t="s">
+        <v>287</v>
+      </c>
+      <c r="X36" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC36" t="s">
         <v>366</v>
       </c>
-      <c r="AD35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE35" t="s">
+      <c r="AD36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE36" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>373</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43683</v>
+      </c>
+      <c r="D37">
+        <v>6.51</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>375</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" t="s">
+        <v>374</v>
+      </c>
+      <c r="L37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>46</v>
+      </c>
+      <c r="R37" t="s">
+        <v>68</v>
+      </c>
+      <c r="S37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" t="s">
+        <v>46</v>
+      </c>
+      <c r="U37" t="s">
+        <v>68</v>
+      </c>
+      <c r="V37" t="s">
+        <v>142</v>
+      </c>
+      <c r="W37" t="s">
+        <v>142</v>
+      </c>
+      <c r="X37" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6976,336 +7169,425 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AA399A-D8CF-C643-ACB9-43959DA58862}">
-  <dimension ref="A1:AF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCF0D24-0A3F-5B4C-B64B-3F8F6122393A}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" customWidth="1"/>
-    <col min="16" max="16" width="18.5" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="19.83203125" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="14.1640625" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" customWidth="1"/>
-    <col min="28" max="28" width="13.1640625" customWidth="1"/>
-    <col min="29" max="29" width="23" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
-    <col min="31" max="31" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>240</v>
-      </c>
-      <c r="W1" t="s">
-        <v>173</v>
-      </c>
-      <c r="X1" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y1" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>175</v>
       </c>
       <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="2">
-        <v>43682</v>
-      </c>
-      <c r="D2">
-        <v>6.73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>369</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="B33" t="s">
         <v>142</v>
       </c>
-      <c r="W2" t="s">
+      <c r="C33" t="s">
         <v>142</v>
       </c>
-      <c r="X2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>356</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>373</v>
+      </c>
+      <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="Z2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43683</v>
-      </c>
-      <c r="D3">
-        <v>6.51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>374</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="C37" t="s">
         <v>142</v>
-      </c>
-      <c r="W3" t="s">
-        <v>142</v>
-      </c>
-      <c r="X3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A982455-9E50-9945-9036-4E15ED5A4B0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C681C5ED-055E-1146-B85F-C9F05FD107A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="382">
   <si>
     <t>count</t>
   </si>
@@ -1164,6 +1164,21 @@
   </si>
   <si>
     <t>because I haven't been practicing on drawing that kind of flower</t>
+  </si>
+  <si>
+    <t>a flower</t>
+  </si>
+  <si>
+    <t>visual_cue</t>
+  </si>
+  <si>
+    <t>a flower garden</t>
+  </si>
+  <si>
+    <t>some flowers</t>
+  </si>
+  <si>
+    <t>a slice of watermelon</t>
   </si>
 </sst>
 </file>
@@ -3547,9 +3562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="109" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:Y1048576"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7170,10 +7185,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCF0D24-0A3F-5B4C-B64B-3F8F6122393A}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7183,7 +7198,7 @@
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7193,327 +7208,417 @@
       <c r="C1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>379</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>257</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="C18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>289</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>298</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>310</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>316</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="C28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>326</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>331</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>336</v>
       </c>
@@ -7523,8 +7628,11 @@
       <c r="C31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>345</v>
       </c>
@@ -7534,19 +7642,25 @@
       <c r="C32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>367</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -7556,8 +7670,11 @@
       <c r="C34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>356</v>
       </c>
@@ -7567,8 +7684,11 @@
       <c r="C35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>362</v>
       </c>
@@ -7578,16 +7698,22 @@
       <c r="C36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>373</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>377</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C681C5ED-055E-1146-B85F-C9F05FD107A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303E903A-0712-8040-BFA7-87BA58D9640B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="391">
   <si>
     <t>count</t>
   </si>
@@ -1130,9 +1130,6 @@
     <t>bb260</t>
   </si>
   <si>
-    <t xml:space="preserve">one </t>
-  </si>
-  <si>
     <t xml:space="preserve">I don't know  </t>
   </si>
   <si>
@@ -1179,6 +1176,36 @@
   </si>
   <si>
     <t>a slice of watermelon</t>
+  </si>
+  <si>
+    <t>PD2_190808_01</t>
+  </si>
+  <si>
+    <t>ba850</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>because one minute</t>
+  </si>
+  <si>
+    <t>PD2_190808_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because it looks more like a flower  </t>
+  </si>
+  <si>
+    <t>ba756</t>
+  </si>
+  <si>
+    <t>I kept having to do U turns [his word for redos]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't think about it </t>
   </si>
 </sst>
 </file>
@@ -3560,11 +3587,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF39" sqref="AF39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6702,7 +6729,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C33" s="2">
         <v>43682</v>
@@ -6714,7 +6741,7 @@
         <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -6729,7 +6756,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L33" t="s">
         <v>43</v>
@@ -6783,16 +6810,16 @@
         <v>45</v>
       </c>
       <c r="AC33" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE33" t="s">
         <v>370</v>
       </c>
-      <c r="AD33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>371</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
@@ -7059,7 +7086,7 @@
         <v>287</v>
       </c>
       <c r="X36" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="Y36" t="s">
         <v>72</v>
@@ -7074,7 +7101,7 @@
         <v>45</v>
       </c>
       <c r="AC36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AD36" t="s">
         <v>45</v>
@@ -7088,7 +7115,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C37" s="2">
         <v>43683</v>
@@ -7100,7 +7127,7 @@
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -7115,7 +7142,7 @@
         <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L37" t="s">
         <v>43</v>
@@ -7169,13 +7196,203 @@
         <v>45</v>
       </c>
       <c r="AC37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AD37" t="s">
         <v>44</v>
       </c>
       <c r="AE37" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>381</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43685</v>
+      </c>
+      <c r="D38">
+        <v>5.39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
+        <v>382</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" t="s">
+        <v>272</v>
+      </c>
+      <c r="L38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" t="s">
+        <v>45</v>
+      </c>
+      <c r="O38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" t="s">
+        <v>68</v>
+      </c>
+      <c r="S38" t="s">
+        <v>43</v>
+      </c>
+      <c r="T38" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" t="s">
+        <v>68</v>
+      </c>
+      <c r="V38" t="s">
+        <v>72</v>
+      </c>
+      <c r="W38" t="s">
+        <v>384</v>
+      </c>
+      <c r="X38" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43685</v>
+      </c>
+      <c r="D39">
+        <v>5.93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>388</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" t="s">
+        <v>387</v>
+      </c>
+      <c r="L39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" t="s">
+        <v>68</v>
+      </c>
+      <c r="S39" t="s">
+        <v>43</v>
+      </c>
+      <c r="T39" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" t="s">
+        <v>68</v>
+      </c>
+      <c r="V39" t="s">
+        <v>142</v>
+      </c>
+      <c r="W39" t="s">
+        <v>160</v>
+      </c>
+      <c r="X39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -7187,7 +7404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCF0D24-0A3F-5B4C-B64B-3F8F6122393A}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -7209,7 +7426,7 @@
         <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7217,10 +7434,10 @@
         <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -7231,10 +7448,10 @@
         <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -7245,10 +7462,10 @@
         <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -7259,10 +7476,10 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -7273,10 +7490,10 @@
         <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -7287,10 +7504,10 @@
         <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -7301,10 +7518,10 @@
         <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -7315,10 +7532,10 @@
         <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -7329,10 +7546,10 @@
         <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -7343,10 +7560,10 @@
         <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -7357,10 +7574,10 @@
         <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -7371,10 +7588,10 @@
         <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -7385,10 +7602,10 @@
         <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -7399,10 +7616,10 @@
         <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
@@ -7413,10 +7630,10 @@
         <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -7427,10 +7644,10 @@
         <v>257</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -7441,10 +7658,10 @@
         <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -7455,10 +7672,10 @@
         <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
@@ -7469,10 +7686,10 @@
         <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
@@ -7483,10 +7700,10 @@
         <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -7497,10 +7714,10 @@
         <v>289</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -7511,10 +7728,10 @@
         <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -7525,10 +7742,10 @@
         <v>298</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
@@ -7539,10 +7756,10 @@
         <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D25" t="s">
         <v>42</v>
@@ -7553,10 +7770,10 @@
         <v>310</v>
       </c>
       <c r="B26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
@@ -7567,10 +7784,10 @@
         <v>316</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
@@ -7581,10 +7798,10 @@
         <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
@@ -7595,10 +7812,10 @@
         <v>326</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D29" t="s">
         <v>42</v>
@@ -7609,10 +7826,10 @@
         <v>331</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D30" t="s">
         <v>42</v>
@@ -7648,13 +7865,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -7704,13 +7921,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303E903A-0712-8040-BFA7-87BA58D9640B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D1CC9A-F2DD-914F-B088-F391D7EBDAB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="391">
   <si>
     <t>count</t>
   </si>
@@ -3589,9 +3589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF39" sqref="AF39"/>
+    <sheetView topLeftCell="R1" zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7402,534 +7402,680 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCF0D24-0A3F-5B4C-B64B-3F8F6122393A}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>240</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>241</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>175</v>
-      </c>
-      <c r="B2" t="s">
-        <v>376</v>
       </c>
       <c r="C2" t="s">
         <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" t="s">
-        <v>376</v>
       </c>
       <c r="C3" t="s">
         <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>186</v>
-      </c>
-      <c r="B4" t="s">
-        <v>376</v>
       </c>
       <c r="C4" t="s">
         <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>376</v>
       </c>
       <c r="C5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>198</v>
-      </c>
-      <c r="B6" t="s">
-        <v>376</v>
       </c>
       <c r="C6" t="s">
         <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>201</v>
-      </c>
-      <c r="B7" t="s">
-        <v>376</v>
       </c>
       <c r="C7" t="s">
         <v>376</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>376</v>
       </c>
       <c r="C8" t="s">
         <v>376</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>212</v>
-      </c>
-      <c r="B9" t="s">
-        <v>376</v>
       </c>
       <c r="C9" t="s">
         <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>376</v>
       </c>
       <c r="C10" t="s">
         <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>221</v>
-      </c>
-      <c r="B11" t="s">
-        <v>376</v>
       </c>
       <c r="C11" t="s">
         <v>376</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>226</v>
-      </c>
-      <c r="B12" t="s">
-        <v>376</v>
       </c>
       <c r="C12" t="s">
         <v>376</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>230</v>
-      </c>
-      <c r="B13" t="s">
-        <v>376</v>
       </c>
       <c r="C13" t="s">
         <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>237</v>
-      </c>
-      <c r="B14" t="s">
-        <v>378</v>
       </c>
       <c r="C14" t="s">
         <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>245</v>
-      </c>
-      <c r="B15" t="s">
-        <v>378</v>
       </c>
       <c r="C15" t="s">
         <v>378</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>251</v>
-      </c>
-      <c r="B16" t="s">
-        <v>378</v>
       </c>
       <c r="C16" t="s">
         <v>378</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>257</v>
-      </c>
-      <c r="B17" t="s">
-        <v>378</v>
       </c>
       <c r="C17" t="s">
         <v>378</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>263</v>
-      </c>
-      <c r="B18" t="s">
-        <v>378</v>
       </c>
       <c r="C18" t="s">
         <v>378</v>
       </c>
       <c r="D18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>270</v>
-      </c>
-      <c r="B19" t="s">
-        <v>378</v>
       </c>
       <c r="C19" t="s">
         <v>378</v>
       </c>
       <c r="D19" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>276</v>
-      </c>
-      <c r="B20" t="s">
-        <v>379</v>
       </c>
       <c r="C20" t="s">
         <v>379</v>
       </c>
       <c r="D20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>283</v>
-      </c>
-      <c r="B21" t="s">
-        <v>379</v>
       </c>
       <c r="C21" t="s">
         <v>379</v>
       </c>
       <c r="D21" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>289</v>
-      </c>
-      <c r="B22" t="s">
-        <v>379</v>
       </c>
       <c r="C22" t="s">
         <v>379</v>
       </c>
       <c r="D22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>295</v>
-      </c>
-      <c r="B23" t="s">
-        <v>379</v>
       </c>
       <c r="C23" t="s">
         <v>379</v>
       </c>
       <c r="D23" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>298</v>
-      </c>
-      <c r="B24" t="s">
-        <v>379</v>
       </c>
       <c r="C24" t="s">
         <v>379</v>
       </c>
       <c r="D24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>302</v>
-      </c>
-      <c r="B25" t="s">
-        <v>380</v>
       </c>
       <c r="C25" t="s">
         <v>380</v>
       </c>
       <c r="D25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>310</v>
-      </c>
-      <c r="B26" t="s">
-        <v>380</v>
       </c>
       <c r="C26" t="s">
         <v>380</v>
       </c>
       <c r="D26" t="s">
+        <v>380</v>
+      </c>
+      <c r="E26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>316</v>
-      </c>
-      <c r="B27" t="s">
-        <v>380</v>
       </c>
       <c r="C27" t="s">
         <v>380</v>
       </c>
       <c r="D27" t="s">
+        <v>380</v>
+      </c>
+      <c r="E27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>321</v>
-      </c>
-      <c r="B28" t="s">
-        <v>380</v>
       </c>
       <c r="C28" t="s">
         <v>380</v>
       </c>
       <c r="D28" t="s">
+        <v>380</v>
+      </c>
+      <c r="E28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>326</v>
-      </c>
-      <c r="B29" t="s">
-        <v>380</v>
       </c>
       <c r="C29" t="s">
         <v>380</v>
       </c>
       <c r="D29" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>331</v>
-      </c>
-      <c r="B30" t="s">
-        <v>380</v>
       </c>
       <c r="C30" t="s">
         <v>380</v>
       </c>
       <c r="D30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>336</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>345</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>366</v>
-      </c>
-      <c r="B33" t="s">
-        <v>376</v>
       </c>
       <c r="C33" t="s">
         <v>376</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>350</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>356</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>362</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>372</v>
-      </c>
-      <c r="B37" t="s">
-        <v>376</v>
       </c>
       <c r="C37" t="s">
         <v>376</v>
       </c>
       <c r="D37" t="s">
+        <v>376</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>381</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C39" t="s">
+        <v>376</v>
+      </c>
+      <c r="D39" t="s">
+        <v>376</v>
+      </c>
+      <c r="E39" t="s">
         <v>46</v>
       </c>
     </row>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D1CC9A-F2DD-914F-B088-F391D7EBDAB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6B458B-3F83-4F46-B10B-621DE20AF2DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="392">
   <si>
     <t>count</t>
   </si>
@@ -1206,6 +1206,9 @@
   </si>
   <si>
     <t xml:space="preserve">Can't think about it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will turn into PD3 </t>
   </si>
 </sst>
 </file>
@@ -3587,11 +3590,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7395,6 +7398,11 @@
         <v>390</v>
       </c>
     </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7404,7 +7412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCF0D24-0A3F-5B4C-B64B-3F8F6122393A}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6B458B-3F83-4F46-B10B-621DE20AF2DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C846ADD-9591-FB4D-AE95-EDC32CF6660F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Pilot 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pilot 2 + 3" sheetId="2" r:id="rId2"/>
     <sheet name="Quality Ratings" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="400">
   <si>
     <t>count</t>
   </si>
@@ -1205,10 +1205,34 @@
     <t>I kept having to do U turns [his word for redos]</t>
   </si>
   <si>
-    <t xml:space="preserve">Can't think about it </t>
-  </si>
-  <si>
-    <t xml:space="preserve">will turn into PD3 </t>
+    <t>PD2_190812_01</t>
+  </si>
+  <si>
+    <t>because it looks more realistic</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>because I only had like one drawing in my head so I used it on her [karen] and I had to think of another one</t>
+  </si>
+  <si>
+    <t>because I did my favorite drawing on her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can't think about it </t>
+  </si>
+  <si>
+    <t>PD3_190814_03</t>
+  </si>
+  <si>
+    <t>PD3_190816_03</t>
+  </si>
+  <si>
+    <t>PD3_190816_04</t>
+  </si>
+  <si>
+    <t>ba716</t>
   </si>
 </sst>
 </file>
@@ -3590,11 +3614,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AF40"/>
+  <dimension ref="A1:AF43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7395,12 +7419,189 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="C40" s="2">
+        <v>43689</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>392</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s">
+        <v>392</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" t="s">
         <v>391</v>
+      </c>
+      <c r="L40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" t="s">
+        <v>68</v>
+      </c>
+      <c r="S40" t="s">
+        <v>43</v>
+      </c>
+      <c r="T40" t="s">
+        <v>46</v>
+      </c>
+      <c r="U40" t="s">
+        <v>68</v>
+      </c>
+      <c r="V40" t="s">
+        <v>142</v>
+      </c>
+      <c r="W40" t="s">
+        <v>142</v>
+      </c>
+      <c r="X40" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>396</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>392</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43693</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>398</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43693</v>
+      </c>
+      <c r="D43">
+        <v>6.69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" t="s">
+        <v>399</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaba/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C846ADD-9591-FB4D-AE95-EDC32CF6660F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A3B9F8-B536-524E-A761-B5D076C3A8F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="-35120" yWindow="2420" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="402">
   <si>
     <t>count</t>
   </si>
@@ -1233,6 +1227,12 @@
   </si>
   <si>
     <t>ba716</t>
+  </si>
+  <si>
+    <t>age_bin</t>
+  </si>
+  <si>
+    <t>6_7</t>
   </si>
 </sst>
 </file>
@@ -1275,11 +1275,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3614,11 +3615,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3626,38 +3627,38 @@
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" customWidth="1"/>
-    <col min="22" max="22" width="28" customWidth="1"/>
-    <col min="23" max="23" width="14.6640625" customWidth="1"/>
-    <col min="24" max="24" width="19.83203125" customWidth="1"/>
-    <col min="25" max="25" width="27.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" customWidth="1"/>
-    <col min="27" max="27" width="20" customWidth="1"/>
-    <col min="28" max="28" width="13.1640625" customWidth="1"/>
-    <col min="29" max="29" width="23.5" customWidth="1"/>
-    <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="24.83203125" customWidth="1"/>
+    <col min="4" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" customWidth="1"/>
+    <col min="23" max="23" width="28" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" customWidth="1"/>
+    <col min="26" max="26" width="27.6640625" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" customWidth="1"/>
+    <col min="30" max="30" width="23.5" customWidth="1"/>
+    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="32" max="32" width="22" customWidth="1"/>
+    <col min="33" max="33" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3671,91 +3672,94 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>240</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>173</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>339</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>174</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>340</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>103</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3768,92 +3772,96 @@
       <c r="D2">
         <v>4.67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <f>ROUNDDOWN(D2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>176</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>171</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>172</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>67</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>177</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
         <v>78</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>92</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>178</v>
       </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
       <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
         <v>92</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>178</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>142</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>160</v>
       </c>
-      <c r="X2" t="s">
-        <v>68</v>
-      </c>
       <c r="Y2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" t="s">
         <v>142</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" t="s">
-        <v>68</v>
-      </c>
       <c r="AB2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" t="s">
         <v>179</v>
       </c>
-      <c r="AD2" t="s">
-        <v>45</v>
-      </c>
       <c r="AE2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" t="s">
         <v>180</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3866,92 +3874,96 @@
       <c r="D3">
         <v>5.31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <f t="shared" ref="E3:E43" si="0">ROUNDDOWN(D3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>182</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>171</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>172</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>183</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>75</v>
       </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
         <v>78</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>92</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>178</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>75</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>92</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>178</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>142</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>160</v>
       </c>
-      <c r="X3" t="s">
-        <v>68</v>
-      </c>
       <c r="Y3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" t="s">
         <v>142</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>160</v>
       </c>
-      <c r="AA3" t="s">
-        <v>68</v>
-      </c>
       <c r="AB3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" t="s">
         <v>184</v>
       </c>
-      <c r="AD3" t="s">
-        <v>45</v>
-      </c>
       <c r="AE3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" t="s">
         <v>185</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3964,92 +3976,96 @@
       <c r="D4">
         <v>4.08</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>187</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>171</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>172</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>188</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>189</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>82</v>
       </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
         <v>78</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>92</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>178</v>
       </c>
-      <c r="S4" t="s">
-        <v>43</v>
-      </c>
       <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
         <v>92</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>178</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>142</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>160</v>
       </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
       <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" t="s">
         <v>142</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>191</v>
       </c>
-      <c r="AA4" t="s">
-        <v>68</v>
-      </c>
       <c r="AB4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" t="s">
         <v>261</v>
       </c>
-      <c r="AC4" t="s">
-        <v>68</v>
-      </c>
       <c r="AD4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AE4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF4" t="s">
         <v>192</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4062,92 +4078,96 @@
       <c r="D5">
         <v>4.1900000000000004</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>194</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>171</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>172</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>188</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>195</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>92</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>178</v>
       </c>
-      <c r="S5" t="s">
-        <v>43</v>
-      </c>
       <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
         <v>92</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>178</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>142</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>160</v>
       </c>
-      <c r="X5" t="s">
-        <v>68</v>
-      </c>
       <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" t="s">
         <v>142</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>160</v>
       </c>
-      <c r="AA5" t="s">
-        <v>68</v>
-      </c>
       <c r="AB5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" t="s">
         <v>196</v>
       </c>
-      <c r="AD5" t="s">
-        <v>45</v>
-      </c>
       <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
         <v>197</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4160,89 +4180,93 @@
       <c r="D6">
         <v>4.51</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>200</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>171</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>172</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>67</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>199</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" t="s">
         <v>78</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>92</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>178</v>
       </c>
-      <c r="S6" t="s">
-        <v>43</v>
-      </c>
       <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
         <v>92</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>178</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>142</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>160</v>
       </c>
-      <c r="X6" t="s">
-        <v>68</v>
-      </c>
       <c r="Y6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" t="s">
         <v>142</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>160</v>
       </c>
-      <c r="AA6" t="s">
-        <v>68</v>
-      </c>
       <c r="AB6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" t="s">
         <v>262</v>
       </c>
-      <c r="AC6" t="s">
-        <v>68</v>
-      </c>
       <c r="AD6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" t="s">
         <v>262</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4255,89 +4279,93 @@
       <c r="D7">
         <v>5.09</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>205</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>171</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>172</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>67</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>202</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>75</v>
       </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
         <v>78</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>92</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>178</v>
       </c>
-      <c r="S7" t="s">
-        <v>43</v>
-      </c>
       <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
         <v>92</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>178</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>142</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>191</v>
       </c>
-      <c r="X7" t="s">
-        <v>68</v>
-      </c>
       <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" t="s">
         <v>142</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>191</v>
       </c>
-      <c r="AA7" t="s">
-        <v>68</v>
-      </c>
       <c r="AB7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" t="s">
         <v>203</v>
       </c>
-      <c r="AD7" t="s">
-        <v>45</v>
-      </c>
       <c r="AE7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4350,89 +4378,93 @@
       <c r="D8">
         <v>4.76</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>207</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>171</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>172</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>188</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>208</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>75</v>
       </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
         <v>73</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>92</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>178</v>
       </c>
-      <c r="S8" t="s">
-        <v>43</v>
-      </c>
       <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
         <v>92</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>178</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>142</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>160</v>
       </c>
-      <c r="X8" t="s">
-        <v>68</v>
-      </c>
       <c r="Y8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" t="s">
         <v>142</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>209</v>
       </c>
-      <c r="AA8" t="s">
-        <v>68</v>
-      </c>
       <c r="AB8" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD8" t="s">
         <v>210</v>
       </c>
-      <c r="AD8" t="s">
-        <v>44</v>
-      </c>
       <c r="AE8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4445,92 +4477,96 @@
       <c r="D9">
         <v>5.0199999999999996</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>214</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>171</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>172</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>67</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>213</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>75</v>
       </c>
-      <c r="M9" t="s">
-        <v>45</v>
-      </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
         <v>73</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>178</v>
       </c>
-      <c r="S9" t="s">
-        <v>43</v>
-      </c>
       <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
         <v>92</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>178</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>142</v>
       </c>
-      <c r="W9" t="s">
-        <v>68</v>
-      </c>
       <c r="X9" t="s">
         <v>68</v>
       </c>
       <c r="Y9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" t="s">
         <v>142</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>160</v>
       </c>
-      <c r="AA9" t="s">
-        <v>68</v>
-      </c>
       <c r="AB9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC9" t="s">
         <v>261</v>
       </c>
-      <c r="AC9" t="s">
-        <v>68</v>
-      </c>
       <c r="AD9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE9" t="s">
         <v>244</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>178</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4543,89 +4579,93 @@
       <c r="D10" s="3">
         <v>4.5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>216</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>171</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>172</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>42</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>217</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>75</v>
       </c>
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" t="s">
         <v>78</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>92</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>178</v>
       </c>
-      <c r="S10" t="s">
-        <v>43</v>
-      </c>
       <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
         <v>92</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>178</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>142</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>160</v>
       </c>
-      <c r="X10" t="s">
-        <v>68</v>
-      </c>
       <c r="Y10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" t="s">
         <v>142</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>160</v>
       </c>
-      <c r="AA10" t="s">
-        <v>68</v>
-      </c>
       <c r="AB10" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD10" t="s">
         <v>219</v>
       </c>
-      <c r="AD10" t="s">
-        <v>45</v>
-      </c>
       <c r="AE10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4638,89 +4678,93 @@
       <c r="D11">
         <v>5.26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>223</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>171</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>172</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>42</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>67</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>222</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>75</v>
       </c>
-      <c r="M11" t="s">
-        <v>45</v>
-      </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s">
         <v>78</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>178</v>
       </c>
-      <c r="S11" t="s">
-        <v>43</v>
-      </c>
       <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
         <v>92</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>178</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>142</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>160</v>
       </c>
-      <c r="X11" t="s">
-        <v>68</v>
-      </c>
       <c r="Y11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" t="s">
         <v>142</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>160</v>
       </c>
-      <c r="AA11" t="s">
-        <v>68</v>
-      </c>
       <c r="AB11" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" t="s">
         <v>224</v>
       </c>
-      <c r="AD11" t="s">
-        <v>45</v>
-      </c>
       <c r="AE11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4733,89 +4777,93 @@
       <c r="D12">
         <v>4.12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>228</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>171</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>172</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>67</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>227</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>75</v>
       </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
         <v>45</v>
       </c>
       <c r="P12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" t="s">
         <v>75</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>92</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>178</v>
       </c>
-      <c r="S12" t="s">
-        <v>43</v>
-      </c>
       <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
         <v>92</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>178</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>142</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>160</v>
       </c>
-      <c r="X12" t="s">
-        <v>68</v>
-      </c>
       <c r="Y12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" t="s">
         <v>142</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>160</v>
       </c>
-      <c r="AA12" t="s">
-        <v>68</v>
-      </c>
       <c r="AB12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC12" t="s">
         <v>244</v>
       </c>
-      <c r="AC12" t="s">
-        <v>68</v>
-      </c>
       <c r="AD12" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AE12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4828,92 +4876,96 @@
       <c r="D13">
         <v>4.29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>231</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>171</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>172</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>42</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>67</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>232</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>75</v>
       </c>
-      <c r="M13" t="s">
-        <v>44</v>
-      </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
       </c>
       <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
         <v>75</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
-        <v>68</v>
-      </c>
       <c r="S13" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
         <v>92</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>178</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>142</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>160</v>
       </c>
-      <c r="X13" t="s">
-        <v>68</v>
-      </c>
       <c r="Y13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" t="s">
         <v>142</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>234</v>
       </c>
-      <c r="AA13" t="s">
-        <v>68</v>
-      </c>
       <c r="AB13" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD13" t="s">
         <v>235</v>
       </c>
-      <c r="AD13" t="s">
-        <v>45</v>
-      </c>
       <c r="AE13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF13" t="s">
         <v>236</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4926,92 +4978,96 @@
       <c r="D14">
         <v>5.01</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>239</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>171</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>172</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>42</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>188</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>238</v>
       </c>
-      <c r="L14" t="s">
-        <v>43</v>
-      </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
         <v>75</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>92</v>
       </c>
-      <c r="R14" t="s">
-        <v>68</v>
-      </c>
       <c r="S14" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" t="s">
         <v>92</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>178</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>242</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>160</v>
       </c>
-      <c r="X14" t="s">
-        <v>68</v>
-      </c>
       <c r="Y14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" t="s">
         <v>243</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>160</v>
       </c>
-      <c r="AA14" t="s">
-        <v>68</v>
-      </c>
       <c r="AB14" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
-        <v>45</v>
-      </c>
       <c r="AE14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" t="s">
         <v>244</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5024,89 +5080,93 @@
       <c r="D15">
         <v>4.6100000000000003</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>246</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>171</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>172</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>42</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>67</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>247</v>
       </c>
-      <c r="L15" t="s">
-        <v>43</v>
-      </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>92</v>
       </c>
-      <c r="R15" t="s">
-        <v>68</v>
-      </c>
       <c r="S15" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s">
         <v>92</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>178</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>243</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>160</v>
       </c>
-      <c r="X15" t="s">
-        <v>68</v>
-      </c>
       <c r="Y15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" t="s">
         <v>243</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>248</v>
       </c>
-      <c r="AA15" t="s">
-        <v>68</v>
-      </c>
       <c r="AB15" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" t="s">
         <v>249</v>
       </c>
-      <c r="AD15" t="s">
-        <v>44</v>
-      </c>
       <c r="AE15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5119,89 +5179,93 @@
       <c r="D16">
         <v>5.57</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>252</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>171</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>172</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>42</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>67</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>253</v>
       </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
         <v>75</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>92</v>
       </c>
-      <c r="R16" t="s">
-        <v>68</v>
-      </c>
       <c r="S16" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" t="s">
         <v>92</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>178</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>243</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>254</v>
       </c>
-      <c r="X16" t="s">
-        <v>68</v>
-      </c>
       <c r="Y16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16" t="s">
         <v>243</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>255</v>
       </c>
-      <c r="AA16" t="s">
-        <v>68</v>
-      </c>
       <c r="AB16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD16" t="s">
         <v>192</v>
       </c>
-      <c r="AD16" t="s">
-        <v>45</v>
-      </c>
       <c r="AE16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5214,92 +5278,96 @@
       <c r="D17">
         <v>5.54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>259</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>171</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>42</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>67</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>258</v>
       </c>
-      <c r="L17" t="s">
-        <v>43</v>
-      </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" t="s">
         <v>75</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>92</v>
       </c>
-      <c r="R17" t="s">
-        <v>68</v>
-      </c>
       <c r="S17" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" t="s">
         <v>92</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>178</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>243</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>160</v>
       </c>
-      <c r="X17" t="s">
-        <v>68</v>
-      </c>
       <c r="Y17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" t="s">
         <v>243</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>142</v>
       </c>
-      <c r="AA17" t="s">
-        <v>68</v>
-      </c>
       <c r="AB17" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD17" t="s">
         <v>192</v>
       </c>
-      <c r="AD17" t="s">
-        <v>44</v>
-      </c>
       <c r="AE17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF17" t="s">
         <v>192</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5312,89 +5380,93 @@
       <c r="D18">
         <v>5.46</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>265</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>171</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>41</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>42</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>67</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>264</v>
       </c>
-      <c r="L18" t="s">
-        <v>43</v>
-      </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R18" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S18" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" t="s">
         <v>178</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>267</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>160</v>
       </c>
-      <c r="X18" t="s">
-        <v>68</v>
-      </c>
       <c r="Y18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" t="s">
         <v>267</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>142</v>
       </c>
-      <c r="AA18" t="s">
-        <v>68</v>
-      </c>
       <c r="AB18" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD18" t="s">
         <v>268</v>
       </c>
-      <c r="AD18" t="s">
-        <v>44</v>
-      </c>
       <c r="AE18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5407,92 +5479,96 @@
       <c r="D19">
         <v>4.79</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>271</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>67</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>272</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>82</v>
       </c>
-      <c r="M19" t="s">
-        <v>45</v>
-      </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R19" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U19" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V19" t="s">
+        <v>68</v>
+      </c>
+      <c r="W19" t="s">
         <v>267</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>142</v>
       </c>
-      <c r="X19" t="s">
-        <v>68</v>
-      </c>
       <c r="Y19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z19" t="s">
         <v>267</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>142</v>
       </c>
-      <c r="AA19" t="s">
-        <v>68</v>
-      </c>
       <c r="AB19" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" t="s">
         <v>274</v>
       </c>
-      <c r="AD19" t="s">
-        <v>44</v>
-      </c>
       <c r="AE19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF19" t="s">
         <v>275</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5505,92 +5581,96 @@
       <c r="D20">
         <v>4.16</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
         <v>49</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>277</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>40</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>41</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>42</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>67</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>278</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>77</v>
       </c>
-      <c r="M20" t="s">
-        <v>44</v>
-      </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
         <v>45</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S20" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U20" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V20" t="s">
+        <v>68</v>
+      </c>
+      <c r="W20" t="s">
         <v>280</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>142</v>
       </c>
-      <c r="X20" t="s">
-        <v>68</v>
-      </c>
       <c r="Y20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z20" t="s">
         <v>280</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>142</v>
       </c>
-      <c r="AA20" t="s">
-        <v>68</v>
-      </c>
       <c r="AB20" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD20" t="s">
         <v>281</v>
       </c>
-      <c r="AD20" t="s">
-        <v>44</v>
-      </c>
       <c r="AE20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF20" t="s">
         <v>282</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5603,92 +5683,96 @@
       <c r="D21">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>57</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>41</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>42</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>67</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>284</v>
       </c>
-      <c r="L21" t="s">
-        <v>43</v>
-      </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O21" t="s">
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R21" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S21" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U21" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V21" t="s">
+        <v>68</v>
+      </c>
+      <c r="W21" t="s">
         <v>280</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>286</v>
       </c>
-      <c r="X21" t="s">
-        <v>68</v>
-      </c>
       <c r="Y21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" t="s">
         <v>280</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>287</v>
       </c>
-      <c r="AA21" t="s">
-        <v>68</v>
-      </c>
       <c r="AB21" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD21" t="s">
         <v>288</v>
       </c>
-      <c r="AD21" t="s">
-        <v>44</v>
-      </c>
       <c r="AE21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF21" t="s">
         <v>192</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5701,89 +5785,93 @@
       <c r="D22">
         <v>4.9800000000000004</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>291</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>40</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>41</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>67</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>290</v>
       </c>
-      <c r="L22" t="s">
-        <v>43</v>
-      </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R22" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U22" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W22" t="s">
         <v>280</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>142</v>
       </c>
-      <c r="X22" t="s">
-        <v>68</v>
-      </c>
       <c r="Y22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z22" t="s">
         <v>280</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>292</v>
       </c>
-      <c r="AA22" t="s">
-        <v>68</v>
-      </c>
       <c r="AB22" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD22" t="s">
         <v>293</v>
       </c>
-      <c r="AD22" t="s">
-        <v>44</v>
-      </c>
       <c r="AE22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF22" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5796,92 +5884,96 @@
       <c r="D23">
         <v>5.2</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
         <v>39</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>296</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>40</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>41</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>42</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>67</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>192</v>
       </c>
-      <c r="L23" t="s">
-        <v>43</v>
-      </c>
       <c r="M23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R23" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U23" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V23" t="s">
+        <v>68</v>
+      </c>
+      <c r="W23" t="s">
         <v>280</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>254</v>
       </c>
-      <c r="X23" t="s">
-        <v>68</v>
-      </c>
       <c r="Y23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23" t="s">
         <v>280</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>254</v>
       </c>
-      <c r="AA23" t="s">
-        <v>68</v>
-      </c>
       <c r="AB23" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD23" t="s">
         <v>192</v>
       </c>
-      <c r="AD23" t="s">
-        <v>44</v>
-      </c>
       <c r="AE23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF23" t="s">
         <v>244</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5894,92 +5986,96 @@
       <c r="D24">
         <v>5.87</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
         <v>49</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>300</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>40</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>41</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>47</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>67</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>299</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>77</v>
       </c>
-      <c r="M24" t="s">
-        <v>45</v>
-      </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R24" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U24" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V24" t="s">
+        <v>68</v>
+      </c>
+      <c r="W24" t="s">
         <v>280</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>142</v>
       </c>
-      <c r="X24" t="s">
-        <v>68</v>
-      </c>
       <c r="Y24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24" t="s">
         <v>280</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>301</v>
       </c>
-      <c r="AA24" t="s">
-        <v>68</v>
-      </c>
       <c r="AB24" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD24" t="s">
         <v>192</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>261</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>178</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5992,92 +6088,96 @@
       <c r="D25">
         <v>4.55</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>39</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>304</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>40</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>41</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>42</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>67</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>303</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
       <c r="M25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U25" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V25" t="s">
+        <v>68</v>
+      </c>
+      <c r="W25" t="s">
         <v>305</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>306</v>
       </c>
-      <c r="X25" t="s">
-        <v>68</v>
-      </c>
       <c r="Y25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" t="s">
         <v>305</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>306</v>
       </c>
-      <c r="AA25" t="s">
-        <v>68</v>
-      </c>
       <c r="AB25" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD25" t="s">
         <v>307</v>
       </c>
-      <c r="AD25" t="s">
-        <v>44</v>
-      </c>
       <c r="AE25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF25" t="s">
         <v>308</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6090,92 +6190,96 @@
       <c r="D26">
         <v>5.54</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
         <v>39</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>312</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>40</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>41</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>42</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>311</v>
       </c>
-      <c r="L26" t="s">
-        <v>43</v>
-      </c>
       <c r="M26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R26" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U26" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V26" t="s">
+        <v>68</v>
+      </c>
+      <c r="W26" t="s">
         <v>305</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>306</v>
       </c>
-      <c r="X26" t="s">
-        <v>68</v>
-      </c>
       <c r="Y26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26" t="s">
         <v>305</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>306</v>
       </c>
-      <c r="AA26" t="s">
-        <v>68</v>
-      </c>
       <c r="AB26" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD26" t="s">
         <v>314</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>315</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>178</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6188,89 +6292,93 @@
       <c r="D27">
         <v>4.49</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>318</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>40</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>41</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>42</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>67</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>317</v>
       </c>
-      <c r="L27" t="s">
-        <v>43</v>
-      </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S27" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U27" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V27" t="s">
+        <v>68</v>
+      </c>
+      <c r="W27" t="s">
         <v>305</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>306</v>
       </c>
-      <c r="X27" t="s">
-        <v>68</v>
-      </c>
       <c r="Y27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z27" t="s">
         <v>305</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>306</v>
       </c>
-      <c r="AA27" t="s">
-        <v>68</v>
-      </c>
       <c r="AB27" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD27" t="s">
         <v>319</v>
       </c>
-      <c r="AD27" t="s">
-        <v>45</v>
-      </c>
       <c r="AE27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF27" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6283,89 +6391,93 @@
       <c r="D28">
         <v>5.68</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>323</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>40</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>41</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>42</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>67</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>322</v>
       </c>
-      <c r="L28" t="s">
-        <v>43</v>
-      </c>
       <c r="M28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O28" t="s">
         <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R28" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s">
+        <v>68</v>
+      </c>
+      <c r="T28" t="s">
         <v>77</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>42</v>
       </c>
-      <c r="U28" t="s">
-        <v>43</v>
-      </c>
       <c r="V28" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" t="s">
         <v>305</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>306</v>
       </c>
-      <c r="X28" t="s">
-        <v>68</v>
-      </c>
       <c r="Y28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z28" t="s">
         <v>305</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>306</v>
       </c>
-      <c r="AA28" t="s">
-        <v>68</v>
-      </c>
       <c r="AB28" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s">
         <v>324</v>
       </c>
-      <c r="AD28" t="s">
-        <v>45</v>
-      </c>
       <c r="AE28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6378,89 +6490,93 @@
       <c r="D29">
         <v>5.68</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>328</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>40</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>41</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>42</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>67</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>327</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>77</v>
       </c>
-      <c r="M29" t="s">
-        <v>44</v>
-      </c>
       <c r="N29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O29" t="s">
         <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R29" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S29" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U29" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V29" t="s">
+        <v>68</v>
+      </c>
+      <c r="W29" t="s">
         <v>305</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>306</v>
       </c>
-      <c r="X29" t="s">
-        <v>68</v>
-      </c>
       <c r="Y29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z29" t="s">
         <v>305</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>306</v>
       </c>
-      <c r="AA29" t="s">
-        <v>68</v>
-      </c>
       <c r="AB29" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD29" t="s">
         <v>329</v>
       </c>
-      <c r="AD29" t="s">
-        <v>44</v>
-      </c>
       <c r="AE29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF29" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6473,89 +6589,93 @@
       <c r="D30">
         <v>4.55</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
         <v>49</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>333</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>40</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>41</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>42</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>67</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>332</v>
       </c>
-      <c r="L30" t="s">
-        <v>43</v>
-      </c>
       <c r="M30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S30" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U30" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V30" t="s">
+        <v>68</v>
+      </c>
+      <c r="W30" t="s">
         <v>305</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>306</v>
       </c>
-      <c r="X30" t="s">
-        <v>68</v>
-      </c>
       <c r="Y30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" t="s">
         <v>305</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>306</v>
       </c>
-      <c r="AA30" t="s">
-        <v>68</v>
-      </c>
       <c r="AB30" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s">
         <v>334</v>
       </c>
-      <c r="AD30" t="s">
-        <v>45</v>
-      </c>
       <c r="AE30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF30" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6568,92 +6688,96 @@
       <c r="D31">
         <v>5.14</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>338</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>40</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>41</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>42</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>67</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>337</v>
       </c>
-      <c r="L31" t="s">
-        <v>43</v>
-      </c>
       <c r="M31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R31" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U31" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V31" t="s">
+        <v>68</v>
+      </c>
+      <c r="W31" t="s">
         <v>72</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>341</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>342</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>72</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>142</v>
       </c>
-      <c r="AA31" t="s">
-        <v>68</v>
-      </c>
       <c r="AB31" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD31" t="s">
         <v>344</v>
       </c>
-      <c r="AD31" t="s">
-        <v>44</v>
-      </c>
       <c r="AE31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF31" t="s">
         <v>117</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6666,92 +6790,96 @@
       <c r="D32">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
         <v>39</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>114</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>40</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>41</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>42</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>67</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>346</v>
       </c>
-      <c r="L32" t="s">
-        <v>43</v>
-      </c>
       <c r="M32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R32" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U32" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V32" t="s">
+        <v>68</v>
+      </c>
+      <c r="W32" t="s">
         <v>72</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>287</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>342</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>72</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>287</v>
       </c>
-      <c r="AA32" t="s">
-        <v>68</v>
-      </c>
       <c r="AB32" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD32" t="s">
         <v>348</v>
       </c>
-      <c r="AD32" t="s">
-        <v>44</v>
-      </c>
       <c r="AE32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF32" t="s">
         <v>349</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6764,92 +6892,95 @@
       <c r="D33">
         <v>6.73</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F33" t="s">
         <v>39</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>367</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>40</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>41</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>42</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>67</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>368</v>
       </c>
-      <c r="L33" t="s">
-        <v>43</v>
-      </c>
       <c r="M33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R33" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S33" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U33" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V33" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="W33" t="s">
         <v>142</v>
       </c>
       <c r="X33" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="Y33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" t="s">
         <v>142</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>292</v>
       </c>
-      <c r="AA33" t="s">
-        <v>68</v>
-      </c>
       <c r="AB33" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD33" t="s">
         <v>369</v>
       </c>
-      <c r="AD33" t="s">
-        <v>45</v>
-      </c>
       <c r="AE33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF33" t="s">
         <v>370</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6862,92 +6993,96 @@
       <c r="D34">
         <v>5.84</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
         <v>39</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>352</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>40</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>41</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>42</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>67</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>351</v>
       </c>
-      <c r="L34" t="s">
-        <v>43</v>
-      </c>
       <c r="M34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O34" t="s">
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R34" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S34" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U34" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V34" t="s">
+        <v>68</v>
+      </c>
+      <c r="W34" t="s">
         <v>72</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>142</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>342</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>72</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>142</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>342</v>
       </c>
-      <c r="AB34" t="s">
-        <v>44</v>
-      </c>
       <c r="AC34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD34" t="s">
         <v>354</v>
       </c>
-      <c r="AD34" t="s">
-        <v>45</v>
-      </c>
       <c r="AE34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF34" t="s">
         <v>355</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6960,89 +7095,93 @@
       <c r="D35">
         <v>5.84</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
         <v>39</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>358</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>40</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>41</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>42</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>67</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>357</v>
       </c>
-      <c r="L35" t="s">
-        <v>43</v>
-      </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>42</v>
       </c>
-      <c r="R35" t="s">
-        <v>43</v>
-      </c>
       <c r="S35" t="s">
         <v>43</v>
       </c>
       <c r="T35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U35" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V35" t="s">
+        <v>68</v>
+      </c>
+      <c r="W35" t="s">
         <v>72</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>359</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>342</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>72</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>287</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>342</v>
       </c>
-      <c r="AB35" t="s">
-        <v>44</v>
-      </c>
       <c r="AC35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD35" t="s">
         <v>360</v>
       </c>
-      <c r="AD35" t="s">
-        <v>45</v>
-      </c>
       <c r="AE35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF35" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7055,89 +7194,93 @@
       <c r="D36">
         <v>4.5599999999999996</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
         <v>49</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>364</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>40</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>41</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>42</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>67</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>363</v>
       </c>
-      <c r="L36" t="s">
-        <v>43</v>
-      </c>
       <c r="M36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O36" t="s">
         <v>45</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R36" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S36" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U36" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V36" t="s">
+        <v>68</v>
+      </c>
+      <c r="W36" t="s">
         <v>72</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>287</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>383</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>72</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>287</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
         <v>342</v>
       </c>
-      <c r="AB36" t="s">
-        <v>45</v>
-      </c>
       <c r="AC36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD36" t="s">
         <v>365</v>
       </c>
-      <c r="AD36" t="s">
-        <v>45</v>
-      </c>
       <c r="AE36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7150,89 +7293,92 @@
       <c r="D37">
         <v>6.51</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F37" t="s">
         <v>49</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>374</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>40</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>41</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>42</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>67</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>373</v>
       </c>
-      <c r="L37" t="s">
-        <v>43</v>
-      </c>
       <c r="M37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O37" t="s">
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R37" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S37" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U37" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V37" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="W37" t="s">
         <v>142</v>
       </c>
       <c r="X37" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="Y37" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="Z37" t="s">
         <v>142</v>
       </c>
       <c r="AA37" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="AB37" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD37" t="s">
         <v>375</v>
       </c>
-      <c r="AD37" t="s">
-        <v>44</v>
-      </c>
       <c r="AE37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF37" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7245,89 +7391,93 @@
       <c r="D38">
         <v>5.39</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
         <v>39</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>382</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>40</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>41</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>42</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>67</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>272</v>
       </c>
-      <c r="L38" t="s">
-        <v>43</v>
-      </c>
       <c r="M38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R38" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U38" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V38" t="s">
+        <v>68</v>
+      </c>
+      <c r="W38" t="s">
         <v>72</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>384</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>383</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>72</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>384</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>342</v>
       </c>
-      <c r="AB38" t="s">
-        <v>44</v>
-      </c>
       <c r="AC38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s">
         <v>385</v>
       </c>
-      <c r="AD38" t="s">
-        <v>44</v>
-      </c>
       <c r="AE38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7340,89 +7490,93 @@
       <c r="D39">
         <v>5.93</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
         <v>39</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>388</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>40</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>41</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>42</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>67</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>387</v>
       </c>
-      <c r="L39" t="s">
-        <v>43</v>
-      </c>
       <c r="M39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R39" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U39" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V39" t="s">
+        <v>68</v>
+      </c>
+      <c r="W39" t="s">
         <v>142</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>160</v>
       </c>
-      <c r="X39" t="s">
-        <v>68</v>
-      </c>
       <c r="Y39" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="Z39" t="s">
         <v>142</v>
       </c>
       <c r="AA39" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="AB39" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD39" t="s">
         <v>389</v>
       </c>
-      <c r="AD39" t="s">
-        <v>44</v>
-      </c>
       <c r="AE39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF39" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7435,89 +7589,92 @@
       <c r="D40">
         <v>7</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F40" t="s">
         <v>39</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>392</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>40</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>41</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>392</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>67</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>391</v>
       </c>
-      <c r="L40" t="s">
-        <v>43</v>
-      </c>
       <c r="M40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R40" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S40" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U40" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V40" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="W40" t="s">
         <v>142</v>
       </c>
       <c r="X40" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="Y40" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="Z40" t="s">
         <v>142</v>
       </c>
       <c r="AA40" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="AB40" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AC40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD40" t="s">
         <v>393</v>
       </c>
-      <c r="AD40" t="s">
-        <v>45</v>
-      </c>
       <c r="AE40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF40" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7530,23 +7687,26 @@
       <c r="D41">
         <v>7</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F41" t="s">
         <v>49</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>392</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>40</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>41</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7559,23 +7719,26 @@
       <c r="D42">
         <v>7</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F42" t="s">
         <v>49</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>392</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>40</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>41</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7588,19 +7751,22 @@
       <c r="D43">
         <v>6.69</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F43" t="s">
         <v>49</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>399</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>40</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>41</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>42</v>
       </c>
     </row>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaba/Documents/GitHub/praise-draw/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A3B9F8-B536-524E-A761-B5D076C3A8F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE91CDB5-93C6-EB46-94C7-CB53CD77A0C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35120" yWindow="2420" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="431">
   <si>
     <t>count</t>
   </si>
@@ -1205,9 +1211,6 @@
     <t>because it looks more realistic</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>because I only had like one drawing in my head so I used it on her [karen] and I had to think of another one</t>
   </si>
   <si>
@@ -1233,6 +1236,96 @@
   </si>
   <si>
     <t>6_7</t>
+  </si>
+  <si>
+    <t>because it has leaves and petals and that one [bad] just looks like a scribble</t>
+  </si>
+  <si>
+    <t>[no answer]</t>
+  </si>
+  <si>
+    <t>because like this one [bad] is all really like scribbly</t>
+  </si>
+  <si>
+    <t>because she, teacher karen is probably gonna say yes to anything, but teacher karen [she means Linda] is...probably gonna tell like the truth</t>
+  </si>
+  <si>
+    <t>I'm not sure, I like them both in different ways, their opinions in different ways, she's [karen] like not putting any pressure, she's being like...I like these like  even if it's like just scribbles, and like um...teacher karen [means teacher linda]...you have to really try hard</t>
+  </si>
+  <si>
+    <t>the best child in the world; when I asked the second mem check she thought I was asking about the other teacher, but when I brought her back to the current teacher she answered right</t>
+  </si>
+  <si>
+    <t>get_better</t>
+  </si>
+  <si>
+    <t>get_better_explanation</t>
+  </si>
+  <si>
+    <t>[no direct answer]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because...if it's just like scribbling she'll say nah, it's okay, she's not gonna tell anyone "that looks pretty bad" she's just gonna say that's okay, because like, she doesn't want to be like mean... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipad malfunction, the first video wouldn't play so I started again, there will be 2 files with her subID, not sure if we should include her or not </t>
+  </si>
+  <si>
+    <t>cuz it's the perfect flower except this one [bad]</t>
+  </si>
+  <si>
+    <t>because I want to try to make it nice</t>
+  </si>
+  <si>
+    <t>cuz I did a flower for her, I made a nice flower</t>
+  </si>
+  <si>
+    <t>because she gave a little boy a lot of stars</t>
+  </si>
+  <si>
+    <t>PD3_190820_03</t>
+  </si>
+  <si>
+    <t>because it looks like a flower and that [bad] does not look like a flower at all</t>
+  </si>
+  <si>
+    <t>first one to have the new pictures of teachers with their stickers for the second half of the game; has tested praise draw already (very recently) so probably can't use her twice for this same version</t>
+  </si>
+  <si>
+    <t>because I was drawing my really hard flower that I can't really do</t>
+  </si>
+  <si>
+    <t>because she tells me which ones are right</t>
+  </si>
+  <si>
+    <t>because it looks a little easier</t>
+  </si>
+  <si>
+    <t>cuz it's a flower</t>
+  </si>
+  <si>
+    <t>PD3_190820_04</t>
+  </si>
+  <si>
+    <t>bb036</t>
+  </si>
+  <si>
+    <t>because this one [good] actually looks more like a flower and this one [bad] just looks like scribbles</t>
+  </si>
+  <si>
+    <t>PD3_190820_05</t>
+  </si>
+  <si>
+    <t>because hers sorta looks like, the petals are more shaped</t>
+  </si>
+  <si>
+    <t>cuz I really like this drawing [one of the ones with stickers]</t>
+  </si>
+  <si>
+    <t>because I like how she says these specific drawings</t>
+  </si>
+  <si>
+    <t>seems to be basing answers to the exploratory questions on the specific drawings that the teachers gave stickers to</t>
   </si>
 </sst>
 </file>
@@ -3615,25 +3708,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
@@ -3645,20 +3739,22 @@
     <col min="20" max="20" width="18.33203125" customWidth="1"/>
     <col min="21" max="21" width="16.6640625" customWidth="1"/>
     <col min="22" max="22" width="19.1640625" customWidth="1"/>
-    <col min="23" max="23" width="28" customWidth="1"/>
+    <col min="23" max="23" width="28.5" customWidth="1"/>
     <col min="24" max="24" width="14.6640625" customWidth="1"/>
     <col min="25" max="25" width="19.83203125" customWidth="1"/>
-    <col min="26" max="26" width="27.6640625" customWidth="1"/>
+    <col min="26" max="26" width="28.5" customWidth="1"/>
     <col min="27" max="27" width="15.6640625" customWidth="1"/>
     <col min="28" max="28" width="20" customWidth="1"/>
     <col min="29" max="29" width="13.1640625" customWidth="1"/>
     <col min="30" max="30" width="23.5" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
     <col min="32" max="32" width="22" customWidth="1"/>
-    <col min="33" max="33" width="24.83203125" customWidth="1"/>
+    <col min="33" max="33" width="10.5" customWidth="1"/>
+    <col min="34" max="34" width="20.83203125" customWidth="1"/>
+    <col min="35" max="35" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3672,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -3756,10 +3852,16 @@
         <v>103</v>
       </c>
       <c r="AG1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3858,10 +3960,16 @@
         <v>180</v>
       </c>
       <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3875,7 +3983,7 @@
         <v>5.31</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E43" si="0">ROUNDDOWN(D3,0)</f>
+        <f t="shared" ref="E3:E39" si="0">ROUNDDOWN(D3,0)</f>
         <v>5</v>
       </c>
       <c r="F3" t="s">
@@ -3960,10 +4068,16 @@
         <v>185</v>
       </c>
       <c r="AG3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4062,10 +4176,16 @@
         <v>192</v>
       </c>
       <c r="AG4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4164,10 +4284,16 @@
         <v>197</v>
       </c>
       <c r="AG5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4265,8 +4391,14 @@
       <c r="AF6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4364,8 +4496,14 @@
       <c r="AF7" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4463,8 +4601,14 @@
       <c r="AF8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4563,10 +4707,16 @@
         <v>178</v>
       </c>
       <c r="AG9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4664,8 +4814,14 @@
       <c r="AF10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4763,8 +4919,14 @@
       <c r="AF11" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4862,8 +5024,14 @@
       <c r="AF12" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4962,10 +5130,16 @@
         <v>236</v>
       </c>
       <c r="AG13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5064,10 +5238,16 @@
         <v>244</v>
       </c>
       <c r="AG14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5165,8 +5345,14 @@
       <c r="AF15" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5264,8 +5450,14 @@
       <c r="AF16" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5364,10 +5556,16 @@
         <v>192</v>
       </c>
       <c r="AG17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5465,8 +5663,14 @@
       <c r="AF18" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5565,10 +5769,16 @@
         <v>275</v>
       </c>
       <c r="AG19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5667,10 +5877,16 @@
         <v>282</v>
       </c>
       <c r="AG20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI20" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5769,10 +5985,16 @@
         <v>192</v>
       </c>
       <c r="AG21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5870,8 +6092,14 @@
       <c r="AF22" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5881,7 +6109,7 @@
       <c r="C23" s="2">
         <v>43669</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>5.2</v>
       </c>
       <c r="E23">
@@ -5970,10 +6198,16 @@
         <v>244</v>
       </c>
       <c r="AG23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI23" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6072,10 +6306,16 @@
         <v>178</v>
       </c>
       <c r="AG24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6174,10 +6414,16 @@
         <v>308</v>
       </c>
       <c r="AG25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6276,10 +6522,16 @@
         <v>178</v>
       </c>
       <c r="AG26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI26" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6377,8 +6629,14 @@
       <c r="AF27" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6476,8 +6734,14 @@
       <c r="AF28" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6575,8 +6839,14 @@
       <c r="AF29" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6674,8 +6944,14 @@
       <c r="AF30" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6774,10 +7050,16 @@
         <v>117</v>
       </c>
       <c r="AG31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI31" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6876,10 +7158,16 @@
         <v>349</v>
       </c>
       <c r="AG32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI32" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6893,7 +7181,7 @@
         <v>6.73</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
@@ -6977,10 +7265,16 @@
         <v>370</v>
       </c>
       <c r="AG33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI33" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7079,10 +7373,16 @@
         <v>355</v>
       </c>
       <c r="AG34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI34" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7180,8 +7480,14 @@
       <c r="AF35" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7279,8 +7585,14 @@
       <c r="AF36" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7294,7 +7606,7 @@
         <v>6.51</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
@@ -7377,8 +7689,14 @@
       <c r="AF37" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7476,8 +7794,14 @@
       <c r="AF38" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7573,10 +7897,16 @@
         <v>44</v>
       </c>
       <c r="AF39" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7587,16 +7917,16 @@
         <v>43689</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>7.83</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>392</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
         <v>40</v>
@@ -7605,7 +7935,7 @@
         <v>41</v>
       </c>
       <c r="J40" t="s">
-        <v>392</v>
+        <v>68</v>
       </c>
       <c r="K40" t="s">
         <v>67</v>
@@ -7665,36 +7995,42 @@
         <v>45</v>
       </c>
       <c r="AD40" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF40" t="s">
         <v>393</v>
       </c>
-      <c r="AE40" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C41" s="2">
         <v>43691</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>7.01</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F41" t="s">
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>392</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>40</v>
@@ -7703,30 +8039,102 @@
         <v>41</v>
       </c>
       <c r="J41" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="K41" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" t="s">
+        <v>401</v>
+      </c>
+      <c r="M41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" t="s">
+        <v>68</v>
+      </c>
+      <c r="T41" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" t="s">
+        <v>46</v>
+      </c>
+      <c r="V41" t="s">
+        <v>68</v>
+      </c>
+      <c r="W41" t="s">
+        <v>142</v>
+      </c>
+      <c r="X41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C42" s="2">
         <v>43693</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>7.14</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F42" t="s">
         <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>392</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
         <v>40</v>
@@ -7735,15 +8143,90 @@
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="K42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" t="s">
+        <v>403</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>43</v>
+      </c>
+      <c r="R42" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42" t="s">
+        <v>68</v>
+      </c>
+      <c r="T42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U42" t="s">
+        <v>46</v>
+      </c>
+      <c r="V42" t="s">
+        <v>68</v>
+      </c>
+      <c r="W42" t="s">
+        <v>142</v>
+      </c>
+      <c r="X42" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>402</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C43" s="2">
         <v>43693</v>
@@ -7752,13 +8235,13 @@
         <v>6.69</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F43" t="s">
         <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H43" t="s">
         <v>40</v>
@@ -7768,6 +8251,399 @@
       </c>
       <c r="J43" t="s">
         <v>42</v>
+      </c>
+      <c r="K43" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" t="s">
+        <v>412</v>
+      </c>
+      <c r="M43" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R43" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" t="s">
+        <v>68</v>
+      </c>
+      <c r="T43" t="s">
+        <v>43</v>
+      </c>
+      <c r="U43" t="s">
+        <v>46</v>
+      </c>
+      <c r="V43" t="s">
+        <v>68</v>
+      </c>
+      <c r="W43" t="s">
+        <v>142</v>
+      </c>
+      <c r="X43" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>416</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D44">
+        <v>6.54</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s">
+        <v>374</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" t="s">
+        <v>417</v>
+      </c>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" t="s">
+        <v>46</v>
+      </c>
+      <c r="S44" t="s">
+        <v>68</v>
+      </c>
+      <c r="T44" t="s">
+        <v>43</v>
+      </c>
+      <c r="U44" t="s">
+        <v>46</v>
+      </c>
+      <c r="V44" t="s">
+        <v>68</v>
+      </c>
+      <c r="W44" t="s">
+        <v>142</v>
+      </c>
+      <c r="X44" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>420</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>423</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D45">
+        <v>6.71</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>424</v>
+      </c>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L45" t="s">
+        <v>422</v>
+      </c>
+      <c r="M45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R45" t="s">
+        <v>46</v>
+      </c>
+      <c r="S45" t="s">
+        <v>68</v>
+      </c>
+      <c r="T45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U45" t="s">
+        <v>46</v>
+      </c>
+      <c r="V45" t="s">
+        <v>68</v>
+      </c>
+      <c r="W45" t="s">
+        <v>142</v>
+      </c>
+      <c r="X45" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>426</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D46">
+        <v>7.16</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" t="s">
+        <v>425</v>
+      </c>
+      <c r="M46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>43</v>
+      </c>
+      <c r="R46" t="s">
+        <v>46</v>
+      </c>
+      <c r="S46" t="s">
+        <v>68</v>
+      </c>
+      <c r="T46" t="s">
+        <v>43</v>
+      </c>
+      <c r="U46" t="s">
+        <v>46</v>
+      </c>
+      <c r="V46" t="s">
+        <v>68</v>
+      </c>
+      <c r="W46" t="s">
+        <v>142</v>
+      </c>
+      <c r="X46" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>428</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE91CDB5-93C6-EB46-94C7-CB53CD77A0C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD48A69-C3FA-D448-99AA-A4DC7078ED58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -3711,8 +3711,8 @@
   <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7935,7 +7935,7 @@
         <v>41</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K40" t="s">
         <v>67</v>
@@ -8039,7 +8039,7 @@
         <v>41</v>
       </c>
       <c r="J41" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K41" t="s">
         <v>67</v>
@@ -8125,7 +8125,7 @@
         <v>43693</v>
       </c>
       <c r="D42">
-        <v>7.14</v>
+        <v>7.15</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>400</v>
@@ -8143,7 +8143,7 @@
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K42" t="s">
         <v>67</v>
@@ -8568,7 +8568,7 @@
         <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K46" t="s">
         <v>67</v>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD48A69-C3FA-D448-99AA-A4DC7078ED58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58B7BA9-5D5E-0D4E-AFA1-284F8BCF7DB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="320" yWindow="540" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="445">
   <si>
     <t>count</t>
   </si>
@@ -1326,6 +1326,48 @@
   </si>
   <si>
     <t>seems to be basing answers to the exploratory questions on the specific drawings that the teachers gave stickers to</t>
+  </si>
+  <si>
+    <t>PD3_190903_01</t>
+  </si>
+  <si>
+    <t>jmz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tested her because her mom seemed like she really wanted to/as practice, not old enough and I did not run the full task on her </t>
+  </si>
+  <si>
+    <t>cuz I like it</t>
+  </si>
+  <si>
+    <t>PD3_190903_02</t>
+  </si>
+  <si>
+    <t>cuz it has around and down and around and down and all over</t>
+  </si>
+  <si>
+    <t>because I thought it would be good if I did it harder</t>
+  </si>
+  <si>
+    <t>cuz she has a red shirt and that’s a color of the rainbow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because she has a yellow shirt </t>
+  </si>
+  <si>
+    <t>PD3_190903_03</t>
+  </si>
+  <si>
+    <t>cuz it doesn’t have scrabble like this one [bad]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when she looked like she was done I asked "all done?" which I shouldn’t have done and don’t often do, she might have gone back and done more because she did for the second one, I wouldn’t include this child </t>
+  </si>
+  <si>
+    <t>I accidentally did a point</t>
+  </si>
+  <si>
+    <t>cuz I want to do more pictures</t>
   </si>
 </sst>
 </file>
@@ -3708,11 +3750,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI49" sqref="AI49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8646,6 +8688,324 @@
         <v>430</v>
       </c>
     </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>431</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43711</v>
+      </c>
+      <c r="D47">
+        <v>3.29</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="s">
+        <v>432</v>
+      </c>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" t="s">
+        <v>434</v>
+      </c>
+      <c r="M47" t="s">
+        <v>68</v>
+      </c>
+      <c r="N47" t="s">
+        <v>68</v>
+      </c>
+      <c r="O47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>68</v>
+      </c>
+      <c r="R47" t="s">
+        <v>68</v>
+      </c>
+      <c r="S47" t="s">
+        <v>68</v>
+      </c>
+      <c r="T47" t="s">
+        <v>68</v>
+      </c>
+      <c r="U47" t="s">
+        <v>68</v>
+      </c>
+      <c r="V47" t="s">
+        <v>68</v>
+      </c>
+      <c r="W47" t="s">
+        <v>68</v>
+      </c>
+      <c r="X47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>435</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43711</v>
+      </c>
+      <c r="D48">
+        <v>5.29</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="s">
+        <v>432</v>
+      </c>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" t="s">
+        <v>436</v>
+      </c>
+      <c r="M48" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" t="s">
+        <v>45</v>
+      </c>
+      <c r="P48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>43</v>
+      </c>
+      <c r="R48" t="s">
+        <v>46</v>
+      </c>
+      <c r="S48" t="s">
+        <v>68</v>
+      </c>
+      <c r="T48" t="s">
+        <v>43</v>
+      </c>
+      <c r="U48" t="s">
+        <v>46</v>
+      </c>
+      <c r="V48" t="s">
+        <v>68</v>
+      </c>
+      <c r="W48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X48" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>440</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43711</v>
+      </c>
+      <c r="D49">
+        <v>4.96</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s">
+        <v>432</v>
+      </c>
+      <c r="I49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" t="s">
+        <v>441</v>
+      </c>
+      <c r="M49" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49" t="s">
+        <v>46</v>
+      </c>
+      <c r="S49" t="s">
+        <v>68</v>
+      </c>
+      <c r="T49" t="s">
+        <v>43</v>
+      </c>
+      <c r="U49" t="s">
+        <v>46</v>
+      </c>
+      <c r="V49" t="s">
+        <v>68</v>
+      </c>
+      <c r="W49" t="s">
+        <v>142</v>
+      </c>
+      <c r="X49" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58B7BA9-5D5E-0D4E-AFA1-284F8BCF7DB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B3625-255E-4C4C-BD40-718D6A209FF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="540" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="510">
   <si>
     <t>count</t>
   </si>
@@ -1316,9 +1316,6 @@
     <t>PD3_190820_05</t>
   </si>
   <si>
-    <t>because hers sorta looks like, the petals are more shaped</t>
-  </si>
-  <si>
     <t>cuz I really like this drawing [one of the ones with stickers]</t>
   </si>
   <si>
@@ -1368,6 +1365,204 @@
   </si>
   <si>
     <t>cuz I want to do more pictures</t>
+  </si>
+  <si>
+    <t>PD3_190906_01</t>
+  </si>
+  <si>
+    <t>because it's more straight</t>
+  </si>
+  <si>
+    <t>I don’t really know</t>
+  </si>
+  <si>
+    <t>there's more stars</t>
+  </si>
+  <si>
+    <t>first one to have "few minutes left"</t>
+  </si>
+  <si>
+    <t>quick ipad difficulty but handled swiftly</t>
+  </si>
+  <si>
+    <t>PD3_190906_02</t>
+  </si>
+  <si>
+    <t>because this one looks more like a flower than this one [bad], this one [bad] just looks like scribble scrabble</t>
+  </si>
+  <si>
+    <t>because on this one [karen] she just like picked all of them because like even though these ones were really bad</t>
+  </si>
+  <si>
+    <t>because she's more better at judging the drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because like the really bad ones she would really help me on fixing them </t>
+  </si>
+  <si>
+    <t>PD3_190908_01</t>
+  </si>
+  <si>
+    <t>its not scribbled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh because um she just picked all of them [karen] and she [linda] just picked the most best ones </t>
+  </si>
+  <si>
+    <t>because she picked the perfect ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because she picked like the ones that had better shape and not like scribbles </t>
+  </si>
+  <si>
+    <t>PD3_190908_02</t>
+  </si>
+  <si>
+    <t>because these are the leaves and these are the weeds and here is the inside of the petal and the petals of the flower and this one [bad] doesn’t look like a flower, it just looks like somebody scribbled</t>
+  </si>
+  <si>
+    <t>because she says the drawings, that some are good and some are okay</t>
+  </si>
+  <si>
+    <t>I still don't know</t>
+  </si>
+  <si>
+    <t>PD3_190908_03</t>
+  </si>
+  <si>
+    <t>cuz it's like that</t>
+  </si>
+  <si>
+    <t>because I did better</t>
+  </si>
+  <si>
+    <t>because I want to do more</t>
+  </si>
+  <si>
+    <t>because I actually don’t know</t>
+  </si>
+  <si>
+    <t>PD3_190908_04</t>
+  </si>
+  <si>
+    <t>cuz that [bad] is not a flower, just scribbles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent only wrote the month of the birthday, so I added in the 30th arbitrarily; he was holding some play-doh so was slightly distracted for some of it, not a huge problem </t>
+  </si>
+  <si>
+    <t>cuz I wasn't thinking of using this [play-doh]</t>
+  </si>
+  <si>
+    <t>because I like yellow more than red</t>
+  </si>
+  <si>
+    <t>I like these pictures a little bit more</t>
+  </si>
+  <si>
+    <t>PD3_190908_05</t>
+  </si>
+  <si>
+    <t>because it is straight, it doesn’t look that bad, and this one [bad] is scribbles, this one [bad] is worse, it's gross</t>
+  </si>
+  <si>
+    <t>slight parent interference but not too bad</t>
+  </si>
+  <si>
+    <t>because I really wanted to</t>
+  </si>
+  <si>
+    <t>because her's sorta looks like, the petals are more shaped</t>
+  </si>
+  <si>
+    <t>because I did the best one</t>
+  </si>
+  <si>
+    <t>because she puts stars everywhere</t>
+  </si>
+  <si>
+    <t>PD3_190910_01</t>
+  </si>
+  <si>
+    <t>because this one [bad] has like only scribbles</t>
+  </si>
+  <si>
+    <t>some interference from another kid who wanted to play because I had to keep the door open, not too bad</t>
+  </si>
+  <si>
+    <t>because I tried it more bigger</t>
+  </si>
+  <si>
+    <t>maybe we could maybe do one teacher and then after that another teacher so it's easier instead of just one teacher</t>
+  </si>
+  <si>
+    <t>maybe they could both help me draw better, but maybe they can maybe draw great, and then they both draw great</t>
+  </si>
+  <si>
+    <t>PD3_190910_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because that one [bad] looks scribbled, and this one [good] doesn’t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">struggled with drawing a little bit, was resting her hand down so had a tough time getting the line to draw at the beginning </t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>PD3_190912_01</t>
+  </si>
+  <si>
+    <t>because this one [bad] is messy and this one [good] looks better</t>
+  </si>
+  <si>
+    <t>don't know again</t>
+  </si>
+  <si>
+    <t>PD3_190912_02</t>
+  </si>
+  <si>
+    <t>because it's more clearer</t>
+  </si>
+  <si>
+    <t>ipad malfunction, I tried to reload and it still wouldn’t work :(</t>
+  </si>
+  <si>
+    <t>PD3_190913_01</t>
+  </si>
+  <si>
+    <t>cuz it looks more like a flower</t>
+  </si>
+  <si>
+    <t>flowers</t>
+  </si>
+  <si>
+    <t>flowers and heart</t>
+  </si>
+  <si>
+    <t>cuz I think I had a great idea</t>
+  </si>
+  <si>
+    <t>to see how good I can get at it</t>
+  </si>
+  <si>
+    <t>because these were not the best drawings [ones linda didn't give stickers to]</t>
+  </si>
+  <si>
+    <t>PD3_190913_02</t>
+  </si>
+  <si>
+    <t>it looks neat</t>
+  </si>
+  <si>
+    <t>because in the video I saw that she chooses very deeply</t>
+  </si>
+  <si>
+    <t>because, well I don’t really have a reason</t>
+  </si>
+  <si>
+    <t>I don’t really have a reason</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1928,7 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3750,11 +3945,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI49" sqref="AI49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI62" sqref="AI62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8670,22 +8865,22 @@
         <v>45</v>
       </c>
       <c r="AD46" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH46" t="s">
         <v>427</v>
       </c>
-      <c r="AE46" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF46" t="s">
+      <c r="AI46" t="s">
         <v>429</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>428</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
@@ -8693,7 +8888,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C47" s="2">
         <v>43711</v>
@@ -8711,7 +8906,7 @@
         <v>68</v>
       </c>
       <c r="H47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I47" t="s">
         <v>41</v>
@@ -8723,7 +8918,7 @@
         <v>67</v>
       </c>
       <c r="L47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M47" t="s">
         <v>68</v>
@@ -8792,7 +8987,7 @@
         <v>68</v>
       </c>
       <c r="AI47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
@@ -8800,7 +8995,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C48" s="2">
         <v>43711</v>
@@ -8818,7 +9013,7 @@
         <v>68</v>
       </c>
       <c r="H48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I48" t="s">
         <v>41</v>
@@ -8830,7 +9025,7 @@
         <v>67</v>
       </c>
       <c r="L48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s">
         <v>43</v>
@@ -8884,19 +9079,22 @@
         <v>45</v>
       </c>
       <c r="AD48" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF48" t="s">
         <v>437</v>
       </c>
-      <c r="AE48" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF48" t="s">
+      <c r="AG48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH48" t="s">
         <v>438</v>
       </c>
-      <c r="AG48" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>439</v>
+      <c r="AI48" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
@@ -8904,7 +9102,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2">
         <v>43711</v>
@@ -8922,7 +9120,7 @@
         <v>68</v>
       </c>
       <c r="H49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I49" t="s">
         <v>41</v>
@@ -8934,7 +9132,7 @@
         <v>67</v>
       </c>
       <c r="L49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s">
         <v>43</v>
@@ -8988,13 +9186,13 @@
         <v>44</v>
       </c>
       <c r="AD49" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF49" t="s">
         <v>443</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>444</v>
       </c>
       <c r="AG49" t="s">
         <v>45</v>
@@ -9003,7 +9201,1377 @@
         <v>192</v>
       </c>
       <c r="AI49" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>444</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43714</v>
+      </c>
+      <c r="D50">
+        <v>5.73</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" t="s">
+        <v>431</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" t="s">
+        <v>445</v>
+      </c>
+      <c r="M50" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50" t="s">
+        <v>45</v>
+      </c>
+      <c r="O50" t="s">
+        <v>44</v>
+      </c>
+      <c r="P50" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>43</v>
+      </c>
+      <c r="R50" t="s">
+        <v>46</v>
+      </c>
+      <c r="S50" t="s">
+        <v>68</v>
+      </c>
+      <c r="T50" t="s">
+        <v>43</v>
+      </c>
+      <c r="U50" t="s">
+        <v>46</v>
+      </c>
+      <c r="V50" t="s">
+        <v>68</v>
+      </c>
+      <c r="W50" t="s">
+        <v>142</v>
+      </c>
+      <c r="X50" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>446</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>450</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43714</v>
+      </c>
+      <c r="D51">
+        <v>6.91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>400</v>
+      </c>
+      <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" t="s">
+        <v>431</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51" t="s">
+        <v>451</v>
+      </c>
+      <c r="M51" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>43</v>
+      </c>
+      <c r="R51" t="s">
+        <v>46</v>
+      </c>
+      <c r="S51" t="s">
+        <v>68</v>
+      </c>
+      <c r="T51" t="s">
+        <v>43</v>
+      </c>
+      <c r="U51" t="s">
+        <v>46</v>
+      </c>
+      <c r="V51" t="s">
+        <v>68</v>
+      </c>
+      <c r="W51" t="s">
+        <v>142</v>
+      </c>
+      <c r="X51" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>453</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43716</v>
+      </c>
+      <c r="D52">
+        <v>7.33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>400</v>
+      </c>
+      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" t="s">
+        <v>431</v>
+      </c>
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" t="s">
+        <v>67</v>
+      </c>
+      <c r="L52" t="s">
+        <v>456</v>
+      </c>
+      <c r="M52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>43</v>
+      </c>
+      <c r="R52" t="s">
+        <v>46</v>
+      </c>
+      <c r="S52" t="s">
+        <v>68</v>
+      </c>
+      <c r="T52" t="s">
+        <v>43</v>
+      </c>
+      <c r="U52" t="s">
+        <v>46</v>
+      </c>
+      <c r="V52" t="s">
+        <v>68</v>
+      </c>
+      <c r="W52" t="s">
+        <v>142</v>
+      </c>
+      <c r="X52" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C53" s="2">
+        <v>43716</v>
+      </c>
+      <c r="D53">
+        <v>7.87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>400</v>
+      </c>
+      <c r="F53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" t="s">
+        <v>431</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" t="s">
+        <v>461</v>
+      </c>
+      <c r="M53" t="s">
+        <v>43</v>
+      </c>
+      <c r="N53" t="s">
+        <v>45</v>
+      </c>
+      <c r="O53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>43</v>
+      </c>
+      <c r="R53" t="s">
+        <v>46</v>
+      </c>
+      <c r="S53" t="s">
+        <v>68</v>
+      </c>
+      <c r="T53" t="s">
+        <v>43</v>
+      </c>
+      <c r="U53" t="s">
+        <v>46</v>
+      </c>
+      <c r="V53" t="s">
+        <v>68</v>
+      </c>
+      <c r="W53" t="s">
+        <v>142</v>
+      </c>
+      <c r="X53" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>462</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>464</v>
+      </c>
+      <c r="C54" s="2">
+        <v>43716</v>
+      </c>
+      <c r="D54">
+        <v>5.28</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" t="s">
+        <v>431</v>
+      </c>
+      <c r="I54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" t="s">
+        <v>465</v>
+      </c>
+      <c r="M54" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54" t="s">
+        <v>44</v>
+      </c>
+      <c r="O54" t="s">
+        <v>45</v>
+      </c>
+      <c r="P54" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R54" t="s">
+        <v>46</v>
+      </c>
+      <c r="S54" t="s">
+        <v>68</v>
+      </c>
+      <c r="T54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U54" t="s">
+        <v>46</v>
+      </c>
+      <c r="V54" t="s">
+        <v>68</v>
+      </c>
+      <c r="W54" t="s">
+        <v>142</v>
+      </c>
+      <c r="X54" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>469</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43716</v>
+      </c>
+      <c r="D55">
+        <v>6.77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>400</v>
+      </c>
+      <c r="F55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" t="s">
+        <v>431</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K55" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" t="s">
+        <v>470</v>
+      </c>
+      <c r="M55" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" t="s">
+        <v>45</v>
+      </c>
+      <c r="P55" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>43</v>
+      </c>
+      <c r="R55" t="s">
+        <v>46</v>
+      </c>
+      <c r="S55" t="s">
+        <v>68</v>
+      </c>
+      <c r="T55" t="s">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s">
+        <v>42</v>
+      </c>
+      <c r="V55" t="s">
+        <v>43</v>
+      </c>
+      <c r="W55" t="s">
+        <v>142</v>
+      </c>
+      <c r="X55" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>474</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>475</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43716</v>
+      </c>
+      <c r="D56">
+        <v>5.95</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" t="s">
+        <v>431</v>
+      </c>
+      <c r="I56" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K56" t="s">
+        <v>67</v>
+      </c>
+      <c r="L56" t="s">
+        <v>476</v>
+      </c>
+      <c r="M56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N56" t="s">
+        <v>44</v>
+      </c>
+      <c r="O56" t="s">
+        <v>45</v>
+      </c>
+      <c r="P56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>43</v>
+      </c>
+      <c r="R56" t="s">
+        <v>46</v>
+      </c>
+      <c r="S56" t="s">
+        <v>68</v>
+      </c>
+      <c r="T56" t="s">
+        <v>43</v>
+      </c>
+      <c r="U56" t="s">
+        <v>46</v>
+      </c>
+      <c r="V56" t="s">
+        <v>68</v>
+      </c>
+      <c r="W56" t="s">
+        <v>142</v>
+      </c>
+      <c r="X56" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>482</v>
+      </c>
+      <c r="C57" s="2">
+        <v>43718</v>
+      </c>
+      <c r="D57">
+        <v>5.74</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" t="s">
+        <v>431</v>
+      </c>
+      <c r="I57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" t="s">
+        <v>67</v>
+      </c>
+      <c r="L57" t="s">
+        <v>483</v>
+      </c>
+      <c r="M57" t="s">
+        <v>77</v>
+      </c>
+      <c r="N57" t="s">
+        <v>44</v>
+      </c>
+      <c r="O57" t="s">
+        <v>45</v>
+      </c>
+      <c r="P57" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>43</v>
+      </c>
+      <c r="R57" t="s">
+        <v>46</v>
+      </c>
+      <c r="S57" t="s">
+        <v>68</v>
+      </c>
+      <c r="T57" t="s">
+        <v>43</v>
+      </c>
+      <c r="U57" t="s">
+        <v>46</v>
+      </c>
+      <c r="V57" t="s">
+        <v>68</v>
+      </c>
+      <c r="W57" t="s">
+        <v>142</v>
+      </c>
+      <c r="X57" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>486</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>488</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43718</v>
+      </c>
+      <c r="D58">
+        <v>5.54</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" t="s">
+        <v>431</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" t="s">
+        <v>489</v>
+      </c>
+      <c r="M58" t="s">
+        <v>43</v>
+      </c>
+      <c r="N58" t="s">
+        <v>45</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>43</v>
+      </c>
+      <c r="R58" t="s">
+        <v>46</v>
+      </c>
+      <c r="S58" t="s">
+        <v>68</v>
+      </c>
+      <c r="T58" t="s">
+        <v>43</v>
+      </c>
+      <c r="U58" t="s">
+        <v>46</v>
+      </c>
+      <c r="V58" t="s">
+        <v>68</v>
+      </c>
+      <c r="W58" t="s">
+        <v>142</v>
+      </c>
+      <c r="X58" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>492</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43720</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" t="s">
+        <v>431</v>
+      </c>
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59" t="s">
+        <v>493</v>
+      </c>
+      <c r="M59" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>43</v>
+      </c>
+      <c r="R59" t="s">
+        <v>46</v>
+      </c>
+      <c r="S59" t="s">
+        <v>68</v>
+      </c>
+      <c r="T59" t="s">
+        <v>43</v>
+      </c>
+      <c r="U59" t="s">
+        <v>46</v>
+      </c>
+      <c r="V59" t="s">
+        <v>68</v>
+      </c>
+      <c r="W59" t="s">
+        <v>142</v>
+      </c>
+      <c r="X59" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>495</v>
+      </c>
+      <c r="C60" s="2">
+        <v>43720</v>
+      </c>
+      <c r="D60">
+        <v>6.97</v>
+      </c>
+      <c r="E60" t="s">
+        <v>400</v>
+      </c>
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" t="s">
+        <v>431</v>
+      </c>
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" t="s">
+        <v>496</v>
+      </c>
+      <c r="M60" t="s">
+        <v>43</v>
+      </c>
+      <c r="N60" t="s">
+        <v>68</v>
+      </c>
+      <c r="O60" t="s">
+        <v>68</v>
+      </c>
+      <c r="P60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>68</v>
+      </c>
+      <c r="R60" t="s">
+        <v>68</v>
+      </c>
+      <c r="S60" t="s">
+        <v>68</v>
+      </c>
+      <c r="T60" t="s">
+        <v>68</v>
+      </c>
+      <c r="U60" t="s">
+        <v>68</v>
+      </c>
+      <c r="V60" t="s">
+        <v>68</v>
+      </c>
+      <c r="W60" t="s">
+        <v>68</v>
+      </c>
+      <c r="X60" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>498</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43721</v>
+      </c>
+      <c r="D61">
+        <v>5.34</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" t="s">
+        <v>431</v>
+      </c>
+      <c r="I61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L61" t="s">
+        <v>499</v>
+      </c>
+      <c r="M61" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61" t="s">
+        <v>44</v>
+      </c>
+      <c r="P61" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s">
+        <v>42</v>
+      </c>
+      <c r="S61" t="s">
+        <v>43</v>
+      </c>
+      <c r="T61" t="s">
+        <v>43</v>
+      </c>
+      <c r="U61" t="s">
+        <v>46</v>
+      </c>
+      <c r="V61" t="s">
+        <v>68</v>
+      </c>
+      <c r="W61" t="s">
+        <v>142</v>
+      </c>
+      <c r="X61" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>505</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43721</v>
+      </c>
+      <c r="D62" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>400</v>
+      </c>
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" t="s">
+        <v>431</v>
+      </c>
+      <c r="I62" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" t="s">
+        <v>506</v>
+      </c>
+      <c r="M62" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" t="s">
+        <v>44</v>
+      </c>
+      <c r="O62" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>43</v>
+      </c>
+      <c r="R62" t="s">
+        <v>46</v>
+      </c>
+      <c r="S62" t="s">
+        <v>68</v>
+      </c>
+      <c r="T62" t="s">
+        <v>43</v>
+      </c>
+      <c r="U62" t="s">
+        <v>46</v>
+      </c>
+      <c r="V62" t="s">
+        <v>68</v>
+      </c>
+      <c r="W62" t="s">
+        <v>142</v>
+      </c>
+      <c r="X62" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaba/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B3625-255E-4C4C-BD40-718D6A209FF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C991E96D-4501-1D41-BD1E-8C3FFA4500E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="-34820" yWindow="2180" windowWidth="34820" windowHeight="16660" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="518">
   <si>
     <t>count</t>
   </si>
@@ -1235,9 +1229,6 @@
     <t>age_bin</t>
   </si>
   <si>
-    <t>6_7</t>
-  </si>
-  <si>
     <t>because it has leaves and petals and that one [bad] just looks like a scribble</t>
   </si>
   <si>
@@ -1563,6 +1554,33 @@
   </si>
   <si>
     <t>I don’t really have a reason</t>
+  </si>
+  <si>
+    <t>PD3_190820_06</t>
+  </si>
+  <si>
+    <t>PD3_190928_01</t>
+  </si>
+  <si>
+    <t>PD3_190928_02</t>
+  </si>
+  <si>
+    <t>PD3_190928_03</t>
+  </si>
+  <si>
+    <t>PD3_190928_04</t>
+  </si>
+  <si>
+    <t>PD3_190928_05</t>
+  </si>
+  <si>
+    <t>PD3_190928_06</t>
+  </si>
+  <si>
+    <t>PD3_190928_07</t>
+  </si>
+  <si>
+    <t>PD3_190928_08</t>
   </si>
 </sst>
 </file>
@@ -1585,12 +1603,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1605,12 +1629,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3945,11 +3971,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AI62"/>
+  <dimension ref="A1:AI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI62" sqref="AI62"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF42" sqref="AF42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3969,25 +3995,25 @@
     <col min="13" max="13" width="13.1640625" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" customWidth="1"/>
-    <col min="22" max="22" width="19.1640625" customWidth="1"/>
-    <col min="23" max="23" width="28.5" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="25" max="25" width="19.83203125" customWidth="1"/>
-    <col min="26" max="26" width="28.5" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" customWidth="1"/>
-    <col min="28" max="28" width="20" customWidth="1"/>
+    <col min="16" max="16" width="12" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="28.5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="28.5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="20" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="13.1640625" customWidth="1"/>
     <col min="30" max="30" width="23.5" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
     <col min="32" max="32" width="22" customWidth="1"/>
     <col min="33" max="33" width="10.5" customWidth="1"/>
-    <col min="34" max="34" width="20.83203125" customWidth="1"/>
+    <col min="34" max="34" width="73.33203125" customWidth="1"/>
     <col min="35" max="35" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4089,10 +4115,10 @@
         <v>103</v>
       </c>
       <c r="AG1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH1" t="s">
         <v>407</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>408</v>
       </c>
       <c r="AI1" t="s">
         <v>23</v>
@@ -4220,7 +4246,7 @@
         <v>5.31</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E39" si="0">ROUNDDOWN(D3,0)</f>
+        <f t="shared" ref="E3:E63" si="0">ROUNDDOWN(D3,0)</f>
         <v>5</v>
       </c>
       <c r="F3" t="s">
@@ -7417,8 +7443,9 @@
       <c r="D33">
         <v>6.73</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>400</v>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
@@ -7842,8 +7869,9 @@
       <c r="D37">
         <v>6.51</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>400</v>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
@@ -8156,8 +8184,9 @@
       <c r="D40">
         <v>7.83</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>400</v>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
@@ -8260,8 +8289,9 @@
       <c r="D41">
         <v>7.01</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>400</v>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
         <v>49</v>
@@ -8282,67 +8312,67 @@
         <v>67</v>
       </c>
       <c r="L41" t="s">
+        <v>400</v>
+      </c>
+      <c r="M41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" t="s">
+        <v>68</v>
+      </c>
+      <c r="T41" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" t="s">
+        <v>46</v>
+      </c>
+      <c r="V41" t="s">
+        <v>68</v>
+      </c>
+      <c r="W41" t="s">
+        <v>142</v>
+      </c>
+      <c r="X41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s">
         <v>401</v>
       </c>
-      <c r="M41" t="s">
-        <v>43</v>
-      </c>
-      <c r="N41" t="s">
-        <v>44</v>
-      </c>
-      <c r="O41" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>43</v>
-      </c>
-      <c r="R41" t="s">
-        <v>46</v>
-      </c>
-      <c r="S41" t="s">
-        <v>68</v>
-      </c>
-      <c r="T41" t="s">
-        <v>43</v>
-      </c>
-      <c r="U41" t="s">
-        <v>46</v>
-      </c>
-      <c r="V41" t="s">
-        <v>68</v>
-      </c>
-      <c r="W41" t="s">
-        <v>142</v>
-      </c>
-      <c r="X41" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>402</v>
-      </c>
       <c r="AE41" t="s">
         <v>44</v>
       </c>
       <c r="AF41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s">
         <v>68</v>
@@ -8364,8 +8394,9 @@
       <c r="D42">
         <v>7.15</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>400</v>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
         <v>49</v>
@@ -8386,76 +8417,76 @@
         <v>67</v>
       </c>
       <c r="L42" t="s">
+        <v>402</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>43</v>
+      </c>
+      <c r="R42" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42" t="s">
+        <v>68</v>
+      </c>
+      <c r="T42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U42" t="s">
+        <v>46</v>
+      </c>
+      <c r="V42" t="s">
+        <v>68</v>
+      </c>
+      <c r="W42" t="s">
+        <v>142</v>
+      </c>
+      <c r="X42" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD42" t="s">
         <v>403</v>
       </c>
-      <c r="M42" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" t="s">
-        <v>45</v>
-      </c>
-      <c r="O42" t="s">
-        <v>44</v>
-      </c>
-      <c r="P42" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>43</v>
-      </c>
-      <c r="R42" t="s">
-        <v>46</v>
-      </c>
-      <c r="S42" t="s">
-        <v>68</v>
-      </c>
-      <c r="T42" t="s">
-        <v>43</v>
-      </c>
-      <c r="U42" t="s">
-        <v>46</v>
-      </c>
-      <c r="V42" t="s">
-        <v>68</v>
-      </c>
-      <c r="W42" t="s">
-        <v>142</v>
-      </c>
-      <c r="X42" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF42" t="s">
         <v>404</v>
       </c>
-      <c r="AE42" t="s">
-        <v>402</v>
-      </c>
-      <c r="AF42" t="s">
+      <c r="AG42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI42" t="s">
         <v>405</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>410</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
@@ -8471,8 +8502,9 @@
       <c r="D43">
         <v>6.69</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>400</v>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
         <v>49</v>
@@ -8493,76 +8525,76 @@
         <v>67</v>
       </c>
       <c r="L43" t="s">
+        <v>411</v>
+      </c>
+      <c r="M43" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R43" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" t="s">
+        <v>68</v>
+      </c>
+      <c r="T43" t="s">
+        <v>43</v>
+      </c>
+      <c r="U43" t="s">
+        <v>46</v>
+      </c>
+      <c r="V43" t="s">
+        <v>68</v>
+      </c>
+      <c r="W43" t="s">
+        <v>142</v>
+      </c>
+      <c r="X43" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD43" t="s">
         <v>412</v>
       </c>
-      <c r="M43" t="s">
-        <v>43</v>
-      </c>
-      <c r="N43" t="s">
-        <v>45</v>
-      </c>
-      <c r="O43" t="s">
-        <v>44</v>
-      </c>
-      <c r="P43" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>43</v>
-      </c>
-      <c r="R43" t="s">
-        <v>46</v>
-      </c>
-      <c r="S43" t="s">
-        <v>68</v>
-      </c>
-      <c r="T43" t="s">
-        <v>43</v>
-      </c>
-      <c r="U43" t="s">
-        <v>46</v>
-      </c>
-      <c r="V43" t="s">
-        <v>68</v>
-      </c>
-      <c r="W43" t="s">
-        <v>142</v>
-      </c>
-      <c r="X43" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF43" t="s">
         <v>413</v>
       </c>
-      <c r="AE43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF43" t="s">
+      <c r="AG43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH43" t="s">
         <v>414</v>
       </c>
-      <c r="AG43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>415</v>
-      </c>
       <c r="AI43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
@@ -8570,7 +8602,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C44" s="2">
         <v>43697</v>
@@ -8578,8 +8610,9 @@
       <c r="D44">
         <v>6.54</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>400</v>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
         <v>49</v>
@@ -8600,76 +8633,76 @@
         <v>67</v>
       </c>
       <c r="L44" t="s">
+        <v>416</v>
+      </c>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" t="s">
+        <v>46</v>
+      </c>
+      <c r="S44" t="s">
+        <v>68</v>
+      </c>
+      <c r="T44" t="s">
+        <v>43</v>
+      </c>
+      <c r="U44" t="s">
+        <v>46</v>
+      </c>
+      <c r="V44" t="s">
+        <v>68</v>
+      </c>
+      <c r="W44" t="s">
+        <v>142</v>
+      </c>
+      <c r="X44" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>419</v>
+      </c>
+      <c r="AI44" t="s">
         <v>417</v>
-      </c>
-      <c r="M44" t="s">
-        <v>43</v>
-      </c>
-      <c r="N44" t="s">
-        <v>44</v>
-      </c>
-      <c r="O44" t="s">
-        <v>45</v>
-      </c>
-      <c r="P44" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>43</v>
-      </c>
-      <c r="R44" t="s">
-        <v>46</v>
-      </c>
-      <c r="S44" t="s">
-        <v>68</v>
-      </c>
-      <c r="T44" t="s">
-        <v>43</v>
-      </c>
-      <c r="U44" t="s">
-        <v>46</v>
-      </c>
-      <c r="V44" t="s">
-        <v>68</v>
-      </c>
-      <c r="W44" t="s">
-        <v>142</v>
-      </c>
-      <c r="X44" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>420</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
@@ -8677,7 +8710,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C45" s="2">
         <v>43697</v>
@@ -8685,14 +8718,15 @@
       <c r="D45">
         <v>6.71</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>400</v>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
         <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H45" t="s">
         <v>40</v>
@@ -8707,7 +8741,7 @@
         <v>67</v>
       </c>
       <c r="L45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M45" t="s">
         <v>43</v>
@@ -8767,13 +8801,13 @@
         <v>45</v>
       </c>
       <c r="AF45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s">
         <v>45</v>
       </c>
       <c r="AH45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
@@ -8781,7 +8815,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C46" s="2">
         <v>43697</v>
@@ -8789,8 +8823,9 @@
       <c r="D46">
         <v>7.16</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>400</v>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -8811,7 +8846,7 @@
         <v>67</v>
       </c>
       <c r="L46" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M46" t="s">
         <v>43</v>
@@ -8865,146 +8900,49 @@
         <v>45</v>
       </c>
       <c r="AD46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE46" t="s">
         <v>45</v>
       </c>
       <c r="AF46" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI46" t="s">
         <v>428</v>
       </c>
-      <c r="AG46" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>427</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>430</v>
-      </c>
-      <c r="C47" s="2">
-        <v>43711</v>
-      </c>
-      <c r="D47">
-        <v>3.29</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" t="s">
-        <v>431</v>
-      </c>
-      <c r="I47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s">
-        <v>42</v>
-      </c>
-      <c r="K47" t="s">
-        <v>67</v>
-      </c>
-      <c r="L47" t="s">
-        <v>433</v>
-      </c>
-      <c r="M47" t="s">
-        <v>68</v>
-      </c>
-      <c r="N47" t="s">
-        <v>68</v>
-      </c>
-      <c r="O47" t="s">
-        <v>68</v>
-      </c>
-      <c r="P47" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>68</v>
-      </c>
-      <c r="R47" t="s">
-        <v>68</v>
-      </c>
-      <c r="S47" t="s">
-        <v>68</v>
-      </c>
-      <c r="T47" t="s">
-        <v>68</v>
-      </c>
-      <c r="U47" t="s">
-        <v>68</v>
-      </c>
-      <c r="V47" t="s">
-        <v>68</v>
-      </c>
-      <c r="W47" t="s">
-        <v>68</v>
-      </c>
-      <c r="X47" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>432</v>
-      </c>
+    </row>
+    <row r="47" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C47" s="5">
+        <v>43697</v>
+      </c>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C48" s="2">
         <v>43711</v>
       </c>
       <c r="D48">
-        <v>5.29</v>
+        <v>3.29</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -9013,7 +8951,7 @@
         <v>68</v>
       </c>
       <c r="H48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I48" t="s">
         <v>41</v>
@@ -9025,93 +8963,94 @@
         <v>67</v>
       </c>
       <c r="L48" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M48" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="N48" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="O48" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="P48" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="Q48" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="R48" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="S48" t="s">
         <v>68</v>
       </c>
       <c r="T48" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="U48" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="V48" t="s">
         <v>68</v>
       </c>
       <c r="W48" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="X48" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="Y48" t="s">
         <v>68</v>
       </c>
       <c r="Z48" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="AA48" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="AB48" t="s">
         <v>68</v>
       </c>
       <c r="AC48" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AD48" t="s">
-        <v>436</v>
+        <v>68</v>
       </c>
       <c r="AE48" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AF48" t="s">
-        <v>437</v>
+        <v>68</v>
       </c>
       <c r="AG48" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AH48" t="s">
-        <v>438</v>
+        <v>68</v>
       </c>
       <c r="AI48" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C49" s="2">
         <v>43711</v>
       </c>
       <c r="D49">
-        <v>4.96</v>
+        <v>5.29</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
         <v>49</v>
@@ -9120,7 +9059,7 @@
         <v>68</v>
       </c>
       <c r="H49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I49" t="s">
         <v>41</v>
@@ -9132,7 +9071,7 @@
         <v>67</v>
       </c>
       <c r="L49" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M49" t="s">
         <v>43</v>
@@ -9183,42 +9122,43 @@
         <v>68</v>
       </c>
       <c r="AC49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AE49" t="s">
         <v>45</v>
       </c>
       <c r="AF49" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s">
-        <v>192</v>
+        <v>437</v>
       </c>
       <c r="AI49" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C50" s="2">
-        <v>43714</v>
+        <v>43711</v>
       </c>
       <c r="D50">
-        <v>5.73</v>
+        <v>4.96</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>49</v>
@@ -9227,7 +9167,7 @@
         <v>68</v>
       </c>
       <c r="H50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I50" t="s">
         <v>41</v>
@@ -9239,19 +9179,19 @@
         <v>67</v>
       </c>
       <c r="L50" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M50" t="s">
         <v>43</v>
       </c>
       <c r="N50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q50" t="s">
         <v>43</v>
@@ -9275,7 +9215,7 @@
         <v>142</v>
       </c>
       <c r="X50" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="Y50" t="s">
         <v>68</v>
@@ -9284,57 +9224,58 @@
         <v>142</v>
       </c>
       <c r="AA50" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="AB50" t="s">
         <v>68</v>
       </c>
       <c r="AC50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD50" t="s">
-        <v>244</v>
+        <v>441</v>
       </c>
       <c r="AE50" t="s">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="AF50" t="s">
-        <v>68</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH50" t="s">
-        <v>447</v>
+        <v>192</v>
       </c>
       <c r="AI50" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2">
         <v>43714</v>
       </c>
       <c r="D51">
-        <v>6.91</v>
-      </c>
-      <c r="E51" t="s">
-        <v>400</v>
+        <v>5.73</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
         <v>68</v>
       </c>
       <c r="H51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I51" t="s">
         <v>41</v>
@@ -9346,7 +9287,7 @@
         <v>67</v>
       </c>
       <c r="L51" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s">
         <v>43</v>
@@ -9400,36 +9341,40 @@
         <v>45</v>
       </c>
       <c r="AD51" t="s">
-        <v>452</v>
+        <v>244</v>
       </c>
       <c r="AE51" t="s">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="AF51" t="s">
-        <v>453</v>
+        <v>68</v>
       </c>
       <c r="AG51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s">
-        <v>454</v>
+        <v>446</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C52" s="2">
-        <v>43716</v>
+        <v>43714</v>
       </c>
       <c r="D52">
-        <v>7.33</v>
-      </c>
-      <c r="E52" t="s">
-        <v>400</v>
+        <v>6.91</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
@@ -9438,7 +9383,7 @@
         <v>68</v>
       </c>
       <c r="H52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I52" t="s">
         <v>41</v>
@@ -9450,7 +9395,7 @@
         <v>67</v>
       </c>
       <c r="L52" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M52" t="s">
         <v>43</v>
@@ -9462,7 +9407,7 @@
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q52" t="s">
         <v>43</v>
@@ -9504,36 +9449,37 @@
         <v>45</v>
       </c>
       <c r="AD52" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AE52" t="s">
         <v>45</v>
       </c>
       <c r="AF52" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AG52" t="s">
         <v>45</v>
       </c>
       <c r="AH52" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C53" s="2">
         <v>43716</v>
       </c>
       <c r="D53">
-        <v>7.87</v>
-      </c>
-      <c r="E53" t="s">
-        <v>400</v>
+        <v>7.33</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
         <v>39</v>
@@ -9542,7 +9488,7 @@
         <v>68</v>
       </c>
       <c r="H53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I53" t="s">
         <v>41</v>
@@ -9554,7 +9500,7 @@
         <v>67</v>
       </c>
       <c r="L53" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s">
         <v>43</v>
@@ -9605,39 +9551,40 @@
         <v>68</v>
       </c>
       <c r="AC53" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AD53" t="s">
-        <v>68</v>
+        <v>456</v>
       </c>
       <c r="AE53" t="s">
         <v>45</v>
       </c>
       <c r="AF53" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s">
-        <v>463</v>
+        <v>45</v>
       </c>
       <c r="AH53" t="s">
-        <v>68</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C54" s="2">
         <v>43716</v>
       </c>
       <c r="D54">
-        <v>5.28</v>
+        <v>7.87</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -9646,7 +9593,7 @@
         <v>68</v>
       </c>
       <c r="H54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I54" t="s">
         <v>41</v>
@@ -9658,19 +9605,19 @@
         <v>67</v>
       </c>
       <c r="L54" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M54" t="s">
         <v>43</v>
       </c>
       <c r="N54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q54" t="s">
         <v>43</v>
@@ -9709,39 +9656,40 @@
         <v>68</v>
       </c>
       <c r="AC54" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AD54" t="s">
-        <v>466</v>
+        <v>68</v>
       </c>
       <c r="AE54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF54" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AG54" t="s">
-        <v>45</v>
+        <v>462</v>
       </c>
       <c r="AH54" t="s">
-        <v>468</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C55" s="2">
         <v>43716</v>
       </c>
       <c r="D55">
-        <v>6.77</v>
-      </c>
-      <c r="E55" t="s">
-        <v>400</v>
+        <v>5.28</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
         <v>39</v>
@@ -9750,7 +9698,7 @@
         <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I55" t="s">
         <v>41</v>
@@ -9762,7 +9710,7 @@
         <v>67</v>
       </c>
       <c r="L55" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M55" t="s">
         <v>43</v>
@@ -9786,13 +9734,13 @@
         <v>68</v>
       </c>
       <c r="T55" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="U55" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="V55" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="W55" t="s">
         <v>142</v>
@@ -9813,42 +9761,40 @@
         <v>68</v>
       </c>
       <c r="AC55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD55" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AE55" t="s">
         <v>44</v>
       </c>
       <c r="AF55" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AG55" t="s">
         <v>45</v>
       </c>
       <c r="AH55" t="s">
-        <v>474</v>
-      </c>
-      <c r="AI55" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C56" s="2">
         <v>43716</v>
       </c>
       <c r="D56">
-        <v>5.95</v>
+        <v>6.77</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -9857,7 +9803,7 @@
         <v>68</v>
       </c>
       <c r="H56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I56" t="s">
         <v>41</v>
@@ -9869,7 +9815,7 @@
         <v>67</v>
       </c>
       <c r="L56" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M56" t="s">
         <v>43</v>
@@ -9881,7 +9827,7 @@
         <v>45</v>
       </c>
       <c r="P56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q56" t="s">
         <v>43</v>
@@ -9893,13 +9839,13 @@
         <v>68</v>
       </c>
       <c r="T56" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V56" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="W56" t="s">
         <v>142</v>
@@ -9923,48 +9869,49 @@
         <v>44</v>
       </c>
       <c r="AD56" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AE56" t="s">
         <v>44</v>
       </c>
       <c r="AF56" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AG56" t="s">
         <v>45</v>
       </c>
       <c r="AH56" t="s">
-        <v>481</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>477</v>
+        <v>473</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C57" s="2">
-        <v>43718</v>
+        <v>43716</v>
       </c>
       <c r="D57">
-        <v>5.74</v>
+        <v>5.95</v>
       </c>
       <c r="E57">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>68</v>
       </c>
       <c r="H57" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I57" t="s">
         <v>41</v>
@@ -9976,10 +9923,10 @@
         <v>67</v>
       </c>
       <c r="L57" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M57" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N57" t="s">
         <v>44</v>
@@ -10027,41 +9974,42 @@
         <v>68</v>
       </c>
       <c r="AC57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD57" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="AE57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF57" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AG57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH57" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AI57" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C58" s="2">
         <v>43718</v>
       </c>
       <c r="D58">
-        <v>5.54</v>
+        <v>5.74</v>
       </c>
       <c r="E58">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F58" t="s">
@@ -10071,7 +10019,7 @@
         <v>68</v>
       </c>
       <c r="H58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I58" t="s">
         <v>41</v>
@@ -10083,19 +10031,19 @@
         <v>67</v>
       </c>
       <c r="L58" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="M58" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="N58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q58" t="s">
         <v>43</v>
@@ -10134,41 +10082,42 @@
         <v>68</v>
       </c>
       <c r="AC58" t="s">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="AD58" t="s">
-        <v>68</v>
+        <v>484</v>
       </c>
       <c r="AE58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF58" t="s">
-        <v>244</v>
+        <v>485</v>
       </c>
       <c r="AG58" t="s">
         <v>44</v>
       </c>
       <c r="AH58" t="s">
-        <v>192</v>
+        <v>486</v>
       </c>
       <c r="AI58" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C59" s="2">
-        <v>43720</v>
-      </c>
-      <c r="D59" s="3">
-        <v>5.0999999999999996</v>
+        <v>43718</v>
+      </c>
+      <c r="D59">
+        <v>5.54</v>
       </c>
       <c r="E59">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F59" t="s">
@@ -10178,7 +10127,7 @@
         <v>68</v>
       </c>
       <c r="H59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I59" t="s">
         <v>41</v>
@@ -10190,7 +10139,7 @@
         <v>67</v>
       </c>
       <c r="L59" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M59" t="s">
         <v>43</v>
@@ -10241,39 +10190,43 @@
         <v>68</v>
       </c>
       <c r="AC59" t="s">
-        <v>44</v>
+        <v>490</v>
       </c>
       <c r="AD59" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="AE59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF59" t="s">
-        <v>402</v>
+        <v>244</v>
       </c>
       <c r="AG59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s">
-        <v>494</v>
+        <v>192</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C60" s="2">
         <v>43720</v>
       </c>
-      <c r="D60">
-        <v>6.97</v>
-      </c>
-      <c r="E60" t="s">
-        <v>400</v>
+      <c r="D60" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
         <v>49</v>
@@ -10282,7 +10235,7 @@
         <v>68</v>
       </c>
       <c r="H60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I60" t="s">
         <v>41</v>
@@ -10294,93 +10247,91 @@
         <v>67</v>
       </c>
       <c r="L60" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M60" t="s">
         <v>43</v>
       </c>
       <c r="N60" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="O60" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q60" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="R60" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S60" t="s">
         <v>68</v>
       </c>
       <c r="T60" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="U60" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V60" t="s">
         <v>68</v>
       </c>
       <c r="W60" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="X60" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="Y60" t="s">
         <v>68</v>
       </c>
       <c r="Z60" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="AA60" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="AB60" t="s">
         <v>68</v>
       </c>
       <c r="AC60" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AD60" t="s">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="AE60" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AF60" t="s">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="AG60" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AH60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C61" s="2">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="D61">
-        <v>5.34</v>
+        <v>6.97</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
         <v>49</v>
@@ -10389,7 +10340,7 @@
         <v>68</v>
       </c>
       <c r="H61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I61" t="s">
         <v>41</v>
@@ -10401,90 +10352,93 @@
         <v>67</v>
       </c>
       <c r="L61" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M61" t="s">
         <v>43</v>
       </c>
       <c r="N61" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="O61" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="P61" t="s">
         <v>44</v>
       </c>
       <c r="Q61" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="R61" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="S61" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T61" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="U61" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="V61" t="s">
         <v>68</v>
       </c>
       <c r="W61" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="X61" t="s">
-        <v>500</v>
+        <v>68</v>
       </c>
       <c r="Y61" t="s">
         <v>68</v>
       </c>
       <c r="Z61" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="AA61" t="s">
-        <v>501</v>
+        <v>68</v>
       </c>
       <c r="AB61" t="s">
         <v>68</v>
       </c>
       <c r="AC61" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AD61" t="s">
-        <v>502</v>
+        <v>68</v>
       </c>
       <c r="AE61" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AF61" t="s">
-        <v>503</v>
+        <v>68</v>
       </c>
       <c r="AG61" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AH61" t="s">
-        <v>504</v>
+        <v>68</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C62" s="2">
         <v>43721</v>
       </c>
-      <c r="D62" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="E62" t="s">
-        <v>400</v>
+      <c r="D62">
+        <v>5.34</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
       </c>
       <c r="F62" t="s">
         <v>49</v>
@@ -10493,7 +10447,7 @@
         <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I62" t="s">
         <v>41</v>
@@ -10505,73 +10459,338 @@
         <v>67</v>
       </c>
       <c r="L62" t="s">
+        <v>498</v>
+      </c>
+      <c r="M62" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" t="s">
+        <v>45</v>
+      </c>
+      <c r="O62" t="s">
+        <v>44</v>
+      </c>
+      <c r="P62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>77</v>
+      </c>
+      <c r="R62" t="s">
+        <v>42</v>
+      </c>
+      <c r="S62" t="s">
+        <v>43</v>
+      </c>
+      <c r="T62" t="s">
+        <v>43</v>
+      </c>
+      <c r="U62" t="s">
+        <v>46</v>
+      </c>
+      <c r="V62" t="s">
+        <v>68</v>
+      </c>
+      <c r="W62" t="s">
+        <v>142</v>
+      </c>
+      <c r="X62" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>504</v>
+      </c>
+      <c r="C63" s="2">
+        <v>43721</v>
+      </c>
+      <c r="D63" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" t="s">
+        <v>430</v>
+      </c>
+      <c r="I63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63" t="s">
+        <v>67</v>
+      </c>
+      <c r="L63" t="s">
+        <v>505</v>
+      </c>
+      <c r="M63" t="s">
+        <v>43</v>
+      </c>
+      <c r="N63" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" t="s">
+        <v>45</v>
+      </c>
+      <c r="P63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>43</v>
+      </c>
+      <c r="R63" t="s">
+        <v>46</v>
+      </c>
+      <c r="S63" t="s">
+        <v>68</v>
+      </c>
+      <c r="T63" t="s">
+        <v>43</v>
+      </c>
+      <c r="U63" t="s">
+        <v>46</v>
+      </c>
+      <c r="V63" t="s">
+        <v>68</v>
+      </c>
+      <c r="W63" t="s">
+        <v>142</v>
+      </c>
+      <c r="X63" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD63" t="s">
         <v>506</v>
       </c>
-      <c r="M62" t="s">
-        <v>43</v>
-      </c>
-      <c r="N62" t="s">
-        <v>44</v>
-      </c>
-      <c r="O62" t="s">
-        <v>45</v>
-      </c>
-      <c r="P62" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>43</v>
-      </c>
-      <c r="R62" t="s">
-        <v>46</v>
-      </c>
-      <c r="S62" t="s">
-        <v>68</v>
-      </c>
-      <c r="T62" t="s">
-        <v>43</v>
-      </c>
-      <c r="U62" t="s">
-        <v>46</v>
-      </c>
-      <c r="V62" t="s">
-        <v>68</v>
-      </c>
-      <c r="W62" t="s">
-        <v>142</v>
-      </c>
-      <c r="X62" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD62" t="s">
+      <c r="AE63" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF63" t="s">
         <v>507</v>
       </c>
-      <c r="AE62" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF62" t="s">
+      <c r="AG63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH63" t="s">
         <v>508</v>
       </c>
-      <c r="AG62" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>509</v>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>510</v>
+      </c>
+      <c r="C64" s="2">
+        <v>43371</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" t="s">
+        <v>430</v>
+      </c>
+      <c r="I64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C65" s="2">
+        <v>43371</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" t="s">
+        <v>430</v>
+      </c>
+      <c r="I65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>512</v>
+      </c>
+      <c r="C66" s="2">
+        <v>43371</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" t="s">
+        <v>430</v>
+      </c>
+      <c r="I66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>513</v>
+      </c>
+      <c r="C67" s="2">
+        <v>43371</v>
+      </c>
+      <c r="G67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" t="s">
+        <v>430</v>
+      </c>
+      <c r="I67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>514</v>
+      </c>
+      <c r="C68" s="2">
+        <v>43371</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" t="s">
+        <v>430</v>
+      </c>
+      <c r="I68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>515</v>
+      </c>
+      <c r="C69" s="2">
+        <v>43371</v>
+      </c>
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" t="s">
+        <v>430</v>
+      </c>
+      <c r="I69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>516</v>
+      </c>
+      <c r="C70" s="2">
+        <v>43371</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" t="s">
+        <v>430</v>
+      </c>
+      <c r="I70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>517</v>
+      </c>
+      <c r="C71" s="2">
+        <v>43371</v>
+      </c>
+      <c r="G71" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" t="s">
+        <v>430</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaba/Documents/GitHub/praise-draw/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/Stanford/Social Learning Lab/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C991E96D-4501-1D41-BD1E-8C3FFA4500E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2785104E-CA53-F346-ADEB-D118A59B73FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34820" yWindow="2180" windowWidth="34820" windowHeight="16660" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3973,9 +3979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
   <dimension ref="A1:AI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF42" sqref="AF42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4246,7 +4252,7 @@
         <v>5.31</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E63" si="0">ROUNDDOWN(D3,0)</f>
+        <f t="shared" ref="E3:E71" si="0">ROUNDDOWN(D3,0)</f>
         <v>5</v>
       </c>
       <c r="F3" t="s">
@@ -10643,6 +10649,13 @@
       <c r="C64" s="2">
         <v>43371</v>
       </c>
+      <c r="D64">
+        <v>6.92</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="G64" t="s">
         <v>68</v>
       </c>
@@ -10663,6 +10676,13 @@
       <c r="C65" s="2">
         <v>43371</v>
       </c>
+      <c r="D65">
+        <v>6.03</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="G65" t="s">
         <v>68</v>
       </c>
@@ -10683,6 +10703,13 @@
       <c r="C66" s="2">
         <v>43371</v>
       </c>
+      <c r="D66">
+        <v>5.45</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="G66" t="s">
         <v>68</v>
       </c>
@@ -10703,6 +10730,13 @@
       <c r="C67" s="2">
         <v>43371</v>
       </c>
+      <c r="D67">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G67" t="s">
         <v>68</v>
       </c>
@@ -10723,6 +10757,13 @@
       <c r="C68" s="2">
         <v>43371</v>
       </c>
+      <c r="D68">
+        <v>7.53</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="G68" t="s">
         <v>68</v>
       </c>
@@ -10743,6 +10784,13 @@
       <c r="C69" s="2">
         <v>43371</v>
       </c>
+      <c r="D69" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="G69" t="s">
         <v>68</v>
       </c>
@@ -10762,6 +10810,13 @@
       </c>
       <c r="C70" s="2">
         <v>43371</v>
+      </c>
+      <c r="D70">
+        <v>6.07</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="G70" t="s">
         <v>68</v>
@@ -10782,6 +10837,13 @@
       </c>
       <c r="C71" s="2">
         <v>43371</v>
+      </c>
+      <c r="D71">
+        <v>6.33</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="G71" t="s">
         <v>68</v>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/Stanford/Social Learning Lab/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2785104E-CA53-F346-ADEB-D118A59B73FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11440B71-E150-E44B-A508-FDEE93FFE6C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="547">
   <si>
     <t>count</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>because she gave a little boy a lot of stars</t>
   </si>
   <si>
-    <t>PD3_190820_03</t>
-  </si>
-  <si>
     <t>because it looks like a flower and that [bad] does not look like a flower at all</t>
   </si>
   <si>
@@ -1587,6 +1584,96 @@
   </si>
   <si>
     <t>PD3_190928_08</t>
+  </si>
+  <si>
+    <t>this one [bad] has scribble scrabble and this one [good] has nice things on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I messed up the teacher checks, my fault he failed </t>
+  </si>
+  <si>
+    <t>because there's no scribble scrabble</t>
+  </si>
+  <si>
+    <t>because these look nicer</t>
+  </si>
+  <si>
+    <t>because I want to do nice ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because these look nice and beautiful </t>
+  </si>
+  <si>
+    <t>because it's carefully</t>
+  </si>
+  <si>
+    <t>the boy from before was friends with this boy, he peeked in two times and disrupted but wasn't horrible, I would still count it</t>
+  </si>
+  <si>
+    <t>because I drawed three</t>
+  </si>
+  <si>
+    <t>[inaudible]</t>
+  </si>
+  <si>
+    <t>because I like them</t>
+  </si>
+  <si>
+    <t>because this one [bad] is like scribble scrabble and this one [good] is nicely drew</t>
+  </si>
+  <si>
+    <t>because when she was picking John's picture she was like picking the ones that he really did good, but she [karen] was just picking like good, scribble scrabble, good, scribble scrabble</t>
+  </si>
+  <si>
+    <t>it's because she's just showing you which one you drew the best so next time you know like which one you drew the best, so if she [karen] picks this one, you're going to draw this one next time, but if she [linda] picks it, she'll like</t>
+  </si>
+  <si>
+    <t>because it's beautiful and it's not scrabble</t>
+  </si>
+  <si>
+    <t>because um I wanted her to pick one which one would be very good</t>
+  </si>
+  <si>
+    <t>cuz I want to tell her can you see what I did was very good or very silly</t>
+  </si>
+  <si>
+    <t>cuz she actually knows which one will be good</t>
+  </si>
+  <si>
+    <t>because it is beautiful and this one [bad] is just scribble scrabble</t>
+  </si>
+  <si>
+    <t>because I wanted to do a different flower</t>
+  </si>
+  <si>
+    <t>because I like the drawings that the boy did</t>
+  </si>
+  <si>
+    <t>because she helped the boy do beautiful drawings</t>
+  </si>
+  <si>
+    <t>because the stem in this one [bad] doesn't look like a stem and there's no petals on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because she maybe if I draw bad she thinks it's good, if I draw good then she thinks it might be bad, the opposite, linda is the opposite too, because linda thinks these ones are good and these ones are bad </t>
+  </si>
+  <si>
+    <t>because she knows this flower's good, this flower's not, this flower's good, this flower's not</t>
+  </si>
+  <si>
+    <t>because she thinks she really wants me to draw better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because it they didn't they made it like a flower and that one [bad] they kind of like scribbled all over </t>
+  </si>
+  <si>
+    <t>because she liked these kinds and she liked the perfect ones</t>
+  </si>
+  <si>
+    <t>because she likes the ones that are better</t>
+  </si>
+  <si>
+    <t>because she likes these ones and the ones she likes too and she likes all of the ones and she likes the ones that are better</t>
   </si>
 </sst>
 </file>
@@ -1609,18 +1696,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1635,14 +1716,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3977,11 +4055,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
-  <dimension ref="A1:AI71"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI70" sqref="AI70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4000,20 +4078,20 @@
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="18" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="19.1640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28.5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="19.83203125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="28.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="20" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.1640625" customWidth="1"/>
     <col min="30" max="30" width="23.5" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
@@ -4252,7 +4330,7 @@
         <v>5.31</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E71" si="0">ROUNDDOWN(D3,0)</f>
+        <f t="shared" ref="E3:E70" si="0">ROUNDDOWN(D3,0)</f>
         <v>5</v>
       </c>
       <c r="F3" t="s">
@@ -8608,7 +8686,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C44" s="2">
         <v>43697</v>
@@ -8639,76 +8717,76 @@
         <v>67</v>
       </c>
       <c r="L44" t="s">
+        <v>415</v>
+      </c>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" t="s">
+        <v>46</v>
+      </c>
+      <c r="S44" t="s">
+        <v>68</v>
+      </c>
+      <c r="T44" t="s">
+        <v>43</v>
+      </c>
+      <c r="U44" t="s">
+        <v>46</v>
+      </c>
+      <c r="V44" t="s">
+        <v>68</v>
+      </c>
+      <c r="W44" t="s">
+        <v>142</v>
+      </c>
+      <c r="X44" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI44" t="s">
         <v>416</v>
-      </c>
-      <c r="M44" t="s">
-        <v>43</v>
-      </c>
-      <c r="N44" t="s">
-        <v>44</v>
-      </c>
-      <c r="O44" t="s">
-        <v>45</v>
-      </c>
-      <c r="P44" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>43</v>
-      </c>
-      <c r="R44" t="s">
-        <v>46</v>
-      </c>
-      <c r="S44" t="s">
-        <v>68</v>
-      </c>
-      <c r="T44" t="s">
-        <v>43</v>
-      </c>
-      <c r="U44" t="s">
-        <v>46</v>
-      </c>
-      <c r="V44" t="s">
-        <v>68</v>
-      </c>
-      <c r="W44" t="s">
-        <v>142</v>
-      </c>
-      <c r="X44" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>419</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
@@ -8716,7 +8794,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C45" s="2">
         <v>43697</v>
@@ -8732,7 +8810,7 @@
         <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H45" t="s">
         <v>40</v>
@@ -8747,7 +8825,7 @@
         <v>67</v>
       </c>
       <c r="L45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M45" t="s">
         <v>43</v>
@@ -8821,7 +8899,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
       <c r="C46" s="2">
         <v>43697</v>
@@ -8852,7 +8930,7 @@
         <v>67</v>
       </c>
       <c r="L46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s">
         <v>43</v>
@@ -8906,49 +8984,148 @@
         <v>45</v>
       </c>
       <c r="AD46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE46" t="s">
         <v>45</v>
       </c>
       <c r="AF46" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>425</v>
+      </c>
+      <c r="AI46" t="s">
         <v>427</v>
       </c>
-      <c r="AG46" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>426</v>
-      </c>
-      <c r="AI46" t="s">
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C47" s="5">
-        <v>43697</v>
-      </c>
-      <c r="E47" s="6"/>
+      <c r="C47" s="2">
+        <v>43711</v>
+      </c>
+      <c r="D47">
+        <v>3.29</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="s">
+        <v>429</v>
+      </c>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" t="s">
+        <v>431</v>
+      </c>
+      <c r="M47" t="s">
+        <v>68</v>
+      </c>
+      <c r="N47" t="s">
+        <v>68</v>
+      </c>
+      <c r="O47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>68</v>
+      </c>
+      <c r="R47" t="s">
+        <v>68</v>
+      </c>
+      <c r="S47" t="s">
+        <v>68</v>
+      </c>
+      <c r="T47" t="s">
+        <v>68</v>
+      </c>
+      <c r="U47" t="s">
+        <v>68</v>
+      </c>
+      <c r="V47" t="s">
+        <v>68</v>
+      </c>
+      <c r="W47" t="s">
+        <v>68</v>
+      </c>
+      <c r="X47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2">
         <v>43711</v>
       </c>
       <c r="D48">
-        <v>3.29</v>
+        <v>5.29</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -8957,7 +9134,7 @@
         <v>68</v>
       </c>
       <c r="H48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I48" t="s">
         <v>41</v>
@@ -8969,94 +9146,94 @@
         <v>67</v>
       </c>
       <c r="L48" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="N48" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="O48" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="P48" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="Q48" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="R48" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="S48" t="s">
         <v>68</v>
       </c>
       <c r="T48" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="U48" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="V48" t="s">
         <v>68</v>
       </c>
       <c r="W48" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="X48" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="Y48" t="s">
         <v>68</v>
       </c>
       <c r="Z48" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="AA48" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="AB48" t="s">
         <v>68</v>
       </c>
       <c r="AC48" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AD48" t="s">
-        <v>68</v>
+        <v>434</v>
       </c>
       <c r="AE48" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AF48" t="s">
-        <v>68</v>
+        <v>435</v>
       </c>
       <c r="AG48" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s">
-        <v>68</v>
+        <v>436</v>
       </c>
       <c r="AI48" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C49" s="2">
         <v>43711</v>
       </c>
       <c r="D49">
-        <v>5.29</v>
+        <v>4.96</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>49</v>
@@ -9065,7 +9242,7 @@
         <v>68</v>
       </c>
       <c r="H49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I49" t="s">
         <v>41</v>
@@ -9077,7 +9254,7 @@
         <v>67</v>
       </c>
       <c r="L49" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M49" t="s">
         <v>43</v>
@@ -9128,43 +9305,43 @@
         <v>68</v>
       </c>
       <c r="AC49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD49" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AE49" t="s">
         <v>45</v>
       </c>
       <c r="AF49" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH49" t="s">
-        <v>437</v>
+        <v>192</v>
       </c>
       <c r="AI49" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2">
-        <v>43711</v>
+        <v>43714</v>
       </c>
       <c r="D50">
-        <v>4.96</v>
+        <v>5.73</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
         <v>49</v>
@@ -9173,7 +9350,7 @@
         <v>68</v>
       </c>
       <c r="H50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I50" t="s">
         <v>41</v>
@@ -9185,19 +9362,19 @@
         <v>67</v>
       </c>
       <c r="L50" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s">
         <v>43</v>
       </c>
       <c r="N50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q50" t="s">
         <v>43</v>
@@ -9221,7 +9398,7 @@
         <v>142</v>
       </c>
       <c r="X50" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="Y50" t="s">
         <v>68</v>
@@ -9230,58 +9407,58 @@
         <v>142</v>
       </c>
       <c r="AA50" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="AB50" t="s">
         <v>68</v>
       </c>
       <c r="AC50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD50" t="s">
-        <v>441</v>
+        <v>244</v>
       </c>
       <c r="AE50" t="s">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s">
-        <v>442</v>
+        <v>68</v>
       </c>
       <c r="AG50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s">
-        <v>192</v>
+        <v>445</v>
       </c>
       <c r="AI50" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C51" s="2">
         <v>43714</v>
       </c>
       <c r="D51">
-        <v>5.73</v>
+        <v>6.91</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
         <v>68</v>
       </c>
       <c r="H51" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I51" t="s">
         <v>41</v>
@@ -9293,7 +9470,7 @@
         <v>67</v>
       </c>
       <c r="L51" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M51" t="s">
         <v>43</v>
@@ -9347,40 +9524,37 @@
         <v>45</v>
       </c>
       <c r="AD51" t="s">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="AE51" t="s">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="AF51" t="s">
-        <v>68</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH51" t="s">
-        <v>446</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C52" s="2">
-        <v>43714</v>
+        <v>43716</v>
       </c>
       <c r="D52">
-        <v>6.91</v>
+        <v>7.33</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
@@ -9389,7 +9563,7 @@
         <v>68</v>
       </c>
       <c r="H52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I52" t="s">
         <v>41</v>
@@ -9401,7 +9575,7 @@
         <v>67</v>
       </c>
       <c r="L52" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M52" t="s">
         <v>43</v>
@@ -9413,7 +9587,7 @@
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q52" t="s">
         <v>43</v>
@@ -9455,33 +9629,33 @@
         <v>45</v>
       </c>
       <c r="AD52" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AE52" t="s">
         <v>45</v>
       </c>
       <c r="AF52" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s">
         <v>45</v>
       </c>
       <c r="AH52" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2">
         <v>43716</v>
       </c>
       <c r="D53">
-        <v>7.33</v>
+        <v>7.87</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
@@ -9494,7 +9668,7 @@
         <v>68</v>
       </c>
       <c r="H53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I53" t="s">
         <v>41</v>
@@ -9506,7 +9680,7 @@
         <v>67</v>
       </c>
       <c r="L53" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s">
         <v>43</v>
@@ -9557,40 +9731,40 @@
         <v>68</v>
       </c>
       <c r="AC53" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AD53" t="s">
-        <v>456</v>
+        <v>68</v>
       </c>
       <c r="AE53" t="s">
         <v>45</v>
       </c>
       <c r="AF53" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AG53" t="s">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="AH53" t="s">
-        <v>458</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C54" s="2">
         <v>43716</v>
       </c>
       <c r="D54">
-        <v>7.87</v>
+        <v>5.28</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -9599,7 +9773,7 @@
         <v>68</v>
       </c>
       <c r="H54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I54" t="s">
         <v>41</v>
@@ -9611,19 +9785,19 @@
         <v>67</v>
       </c>
       <c r="L54" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M54" t="s">
         <v>43</v>
       </c>
       <c r="N54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q54" t="s">
         <v>43</v>
@@ -9662,40 +9836,40 @@
         <v>68</v>
       </c>
       <c r="AC54" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AD54" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="AE54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF54" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AG54" t="s">
-        <v>462</v>
+        <v>45</v>
       </c>
       <c r="AH54" t="s">
-        <v>68</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C55" s="2">
         <v>43716</v>
       </c>
       <c r="D55">
-        <v>5.28</v>
+        <v>6.77</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
         <v>39</v>
@@ -9704,7 +9878,7 @@
         <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I55" t="s">
         <v>41</v>
@@ -9716,7 +9890,7 @@
         <v>67</v>
       </c>
       <c r="L55" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M55" t="s">
         <v>43</v>
@@ -9740,13 +9914,13 @@
         <v>68</v>
       </c>
       <c r="T55" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V55" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="W55" t="s">
         <v>142</v>
@@ -9767,40 +9941,43 @@
         <v>68</v>
       </c>
       <c r="AC55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD55" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AE55" t="s">
         <v>44</v>
       </c>
       <c r="AF55" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AG55" t="s">
         <v>45</v>
       </c>
       <c r="AH55" t="s">
-        <v>467</v>
+        <v>472</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2">
         <v>43716</v>
       </c>
       <c r="D56">
-        <v>6.77</v>
+        <v>5.95</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -9809,7 +9986,7 @@
         <v>68</v>
       </c>
       <c r="H56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I56" t="s">
         <v>41</v>
@@ -9821,7 +9998,7 @@
         <v>67</v>
       </c>
       <c r="L56" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M56" t="s">
         <v>43</v>
@@ -9833,7 +10010,7 @@
         <v>45</v>
       </c>
       <c r="P56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q56" t="s">
         <v>43</v>
@@ -9845,13 +10022,13 @@
         <v>68</v>
       </c>
       <c r="T56" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="U56" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="V56" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="W56" t="s">
         <v>142</v>
@@ -9875,49 +10052,49 @@
         <v>44</v>
       </c>
       <c r="AD56" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AE56" t="s">
         <v>44</v>
       </c>
       <c r="AF56" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AG56" t="s">
         <v>45</v>
       </c>
       <c r="AH56" t="s">
-        <v>473</v>
-      </c>
-      <c r="AI56" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C57" s="2">
-        <v>43716</v>
+        <v>43718</v>
       </c>
       <c r="D57">
-        <v>5.95</v>
+        <v>5.74</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>68</v>
       </c>
       <c r="H57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I57" t="s">
         <v>41</v>
@@ -9929,10 +10106,10 @@
         <v>67</v>
       </c>
       <c r="L57" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M57" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="N57" t="s">
         <v>44</v>
@@ -9980,39 +10157,39 @@
         <v>68</v>
       </c>
       <c r="AC57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD57" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AE57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF57" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AG57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH57" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AI57" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C58" s="2">
         <v>43718</v>
       </c>
       <c r="D58">
-        <v>5.74</v>
+        <v>5.54</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
@@ -10025,7 +10202,7 @@
         <v>68</v>
       </c>
       <c r="H58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I58" t="s">
         <v>41</v>
@@ -10037,19 +10214,19 @@
         <v>67</v>
       </c>
       <c r="L58" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M58" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q58" t="s">
         <v>43</v>
@@ -10088,39 +10265,39 @@
         <v>68</v>
       </c>
       <c r="AC58" t="s">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="AD58" t="s">
-        <v>484</v>
+        <v>68</v>
       </c>
       <c r="AE58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF58" t="s">
-        <v>485</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s">
         <v>44</v>
       </c>
       <c r="AH58" t="s">
-        <v>486</v>
+        <v>192</v>
       </c>
       <c r="AI58" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C59" s="2">
-        <v>43718</v>
-      </c>
-      <c r="D59">
-        <v>5.54</v>
+        <v>43720</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5.0999999999999996</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
@@ -10133,7 +10310,7 @@
         <v>68</v>
       </c>
       <c r="H59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I59" t="s">
         <v>41</v>
@@ -10145,7 +10322,7 @@
         <v>67</v>
       </c>
       <c r="L59" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M59" t="s">
         <v>43</v>
@@ -10196,43 +10373,40 @@
         <v>68</v>
       </c>
       <c r="AC59" t="s">
-        <v>490</v>
+        <v>44</v>
       </c>
       <c r="AD59" t="s">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="AE59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF59" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="AG59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH59" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C60" s="2">
         <v>43720</v>
       </c>
-      <c r="D60" s="3">
-        <v>5.0999999999999996</v>
+      <c r="D60">
+        <v>6.97</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
         <v>49</v>
@@ -10241,7 +10415,7 @@
         <v>68</v>
       </c>
       <c r="H60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I60" t="s">
         <v>41</v>
@@ -10253,312 +10427,312 @@
         <v>67</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s">
         <v>43</v>
       </c>
       <c r="N60" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="O60" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="P60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q60" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="R60" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="S60" t="s">
         <v>68</v>
       </c>
       <c r="T60" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="U60" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="V60" t="s">
         <v>68</v>
       </c>
       <c r="W60" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="X60" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="Y60" t="s">
         <v>68</v>
       </c>
       <c r="Z60" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="AA60" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="AB60" t="s">
         <v>68</v>
       </c>
       <c r="AC60" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AD60" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="AE60" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AF60" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="AG60" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AH60" t="s">
-        <v>493</v>
+        <v>68</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C61" s="2">
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="D61">
-        <v>6.97</v>
+        <v>5.34</v>
       </c>
       <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" t="s">
+        <v>429</v>
+      </c>
+      <c r="I61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L61" t="s">
+        <v>497</v>
+      </c>
+      <c r="M61" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61" t="s">
+        <v>44</v>
+      </c>
+      <c r="P61" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s">
+        <v>42</v>
+      </c>
+      <c r="S61" t="s">
+        <v>43</v>
+      </c>
+      <c r="T61" t="s">
+        <v>43</v>
+      </c>
+      <c r="U61" t="s">
+        <v>46</v>
+      </c>
+      <c r="V61" t="s">
+        <v>68</v>
+      </c>
+      <c r="W61" t="s">
+        <v>142</v>
+      </c>
+      <c r="X61" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>499</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>501</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>503</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43721</v>
+      </c>
+      <c r="D62" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" t="s">
+        <v>429</v>
+      </c>
+      <c r="I62" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" t="s">
+        <v>504</v>
+      </c>
+      <c r="M62" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" t="s">
+        <v>44</v>
+      </c>
+      <c r="O62" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>43</v>
+      </c>
+      <c r="R62" t="s">
+        <v>46</v>
+      </c>
+      <c r="S62" t="s">
+        <v>68</v>
+      </c>
+      <c r="T62" t="s">
+        <v>43</v>
+      </c>
+      <c r="U62" t="s">
+        <v>46</v>
+      </c>
+      <c r="V62" t="s">
+        <v>68</v>
+      </c>
+      <c r="W62" t="s">
+        <v>142</v>
+      </c>
+      <c r="X62" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>506</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>509</v>
+      </c>
+      <c r="C63" s="2">
+        <v>43371</v>
+      </c>
+      <c r="D63">
+        <v>6.93</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" t="s">
-        <v>68</v>
-      </c>
-      <c r="H61" t="s">
-        <v>430</v>
-      </c>
-      <c r="I61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61" t="s">
-        <v>42</v>
-      </c>
-      <c r="K61" t="s">
-        <v>67</v>
-      </c>
-      <c r="L61" t="s">
-        <v>495</v>
-      </c>
-      <c r="M61" t="s">
-        <v>43</v>
-      </c>
-      <c r="N61" t="s">
-        <v>68</v>
-      </c>
-      <c r="O61" t="s">
-        <v>68</v>
-      </c>
-      <c r="P61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>68</v>
-      </c>
-      <c r="R61" t="s">
-        <v>68</v>
-      </c>
-      <c r="S61" t="s">
-        <v>68</v>
-      </c>
-      <c r="T61" t="s">
-        <v>68</v>
-      </c>
-      <c r="U61" t="s">
-        <v>68</v>
-      </c>
-      <c r="V61" t="s">
-        <v>68</v>
-      </c>
-      <c r="W61" t="s">
-        <v>68</v>
-      </c>
-      <c r="X61" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>497</v>
-      </c>
-      <c r="C62" s="2">
-        <v>43721</v>
-      </c>
-      <c r="D62">
-        <v>5.34</v>
-      </c>
-      <c r="E62">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" t="s">
-        <v>430</v>
-      </c>
-      <c r="I62" t="s">
-        <v>41</v>
-      </c>
-      <c r="J62" t="s">
-        <v>42</v>
-      </c>
-      <c r="K62" t="s">
-        <v>67</v>
-      </c>
-      <c r="L62" t="s">
-        <v>498</v>
-      </c>
-      <c r="M62" t="s">
-        <v>43</v>
-      </c>
-      <c r="N62" t="s">
-        <v>45</v>
-      </c>
-      <c r="O62" t="s">
-        <v>44</v>
-      </c>
-      <c r="P62" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>77</v>
-      </c>
-      <c r="R62" t="s">
-        <v>42</v>
-      </c>
-      <c r="S62" t="s">
-        <v>43</v>
-      </c>
-      <c r="T62" t="s">
-        <v>43</v>
-      </c>
-      <c r="U62" t="s">
-        <v>46</v>
-      </c>
-      <c r="V62" t="s">
-        <v>68</v>
-      </c>
-      <c r="W62" t="s">
-        <v>142</v>
-      </c>
-      <c r="X62" t="s">
-        <v>499</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>500</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>501</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>502</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>504</v>
-      </c>
-      <c r="C63" s="2">
-        <v>43721</v>
-      </c>
-      <c r="D63" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
         <v>68</v>
       </c>
       <c r="H63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I63" t="s">
         <v>41</v>
@@ -10570,10 +10744,10 @@
         <v>67</v>
       </c>
       <c r="L63" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="N63" t="s">
         <v>44</v>
@@ -10621,27 +10795,30 @@
         <v>68</v>
       </c>
       <c r="AC63" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="AD63" t="s">
-        <v>506</v>
+        <v>68</v>
       </c>
       <c r="AE63" t="s">
         <v>44</v>
       </c>
       <c r="AF63" t="s">
-        <v>507</v>
+        <v>244</v>
       </c>
       <c r="AG63" t="s">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="AH63" t="s">
-        <v>508</v>
+        <v>68</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>510</v>
@@ -10650,25 +10827,103 @@
         <v>43371</v>
       </c>
       <c r="D64">
-        <v>6.92</v>
+        <v>6.03</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="F64" t="s">
+        <v>39</v>
+      </c>
       <c r="G64" t="s">
         <v>68</v>
       </c>
       <c r="H64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I64" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64" t="s">
+        <v>67</v>
+      </c>
+      <c r="L64" t="s">
+        <v>519</v>
+      </c>
+      <c r="M64" t="s">
+        <v>43</v>
+      </c>
+      <c r="N64" t="s">
+        <v>44</v>
+      </c>
+      <c r="O64" t="s">
+        <v>45</v>
+      </c>
+      <c r="P64" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>43</v>
+      </c>
+      <c r="R64" t="s">
+        <v>46</v>
+      </c>
+      <c r="S64" t="s">
+        <v>68</v>
+      </c>
+      <c r="T64" t="s">
+        <v>43</v>
+      </c>
+      <c r="U64" t="s">
+        <v>46</v>
+      </c>
+      <c r="V64" t="s">
+        <v>68</v>
+      </c>
+      <c r="W64" t="s">
+        <v>142</v>
+      </c>
+      <c r="X64" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>511</v>
@@ -10677,25 +10932,106 @@
         <v>43371</v>
       </c>
       <c r="D65">
-        <v>6.03</v>
+        <v>5.45</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>39</v>
       </c>
       <c r="G65" t="s">
         <v>68</v>
       </c>
       <c r="H65" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I65" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>42</v>
+      </c>
+      <c r="K65" t="s">
+        <v>67</v>
+      </c>
+      <c r="L65" t="s">
+        <v>523</v>
+      </c>
+      <c r="M65" t="s">
+        <v>43</v>
+      </c>
+      <c r="N65" t="s">
+        <v>44</v>
+      </c>
+      <c r="O65" t="s">
+        <v>45</v>
+      </c>
+      <c r="P65" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>43</v>
+      </c>
+      <c r="R65" t="s">
+        <v>46</v>
+      </c>
+      <c r="S65" t="s">
+        <v>68</v>
+      </c>
+      <c r="T65" t="s">
+        <v>43</v>
+      </c>
+      <c r="U65" t="s">
+        <v>46</v>
+      </c>
+      <c r="V65" t="s">
+        <v>68</v>
+      </c>
+      <c r="W65" t="s">
+        <v>142</v>
+      </c>
+      <c r="X65" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>512</v>
@@ -10704,25 +11040,103 @@
         <v>43371</v>
       </c>
       <c r="D66">
-        <v>5.45</v>
+        <v>8.01</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>49</v>
       </c>
       <c r="G66" t="s">
         <v>68</v>
       </c>
       <c r="H66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I66" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L66" t="s">
+        <v>528</v>
+      </c>
+      <c r="M66" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" t="s">
+        <v>45</v>
+      </c>
+      <c r="O66" t="s">
+        <v>44</v>
+      </c>
+      <c r="P66" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>43</v>
+      </c>
+      <c r="R66" t="s">
+        <v>46</v>
+      </c>
+      <c r="S66" t="s">
+        <v>68</v>
+      </c>
+      <c r="T66" t="s">
+        <v>43</v>
+      </c>
+      <c r="U66" t="s">
+        <v>46</v>
+      </c>
+      <c r="V66" t="s">
+        <v>68</v>
+      </c>
+      <c r="W66" t="s">
+        <v>142</v>
+      </c>
+      <c r="X66" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>513</v>
@@ -10731,25 +11145,103 @@
         <v>43371</v>
       </c>
       <c r="D67">
-        <v>8.7100000000000009</v>
+        <v>7.53</v>
       </c>
       <c r="E67">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
       </c>
       <c r="G67" t="s">
         <v>68</v>
       </c>
       <c r="H67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I67" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" t="s">
+        <v>67</v>
+      </c>
+      <c r="L67" t="s">
+        <v>531</v>
+      </c>
+      <c r="M67" t="s">
+        <v>43</v>
+      </c>
+      <c r="N67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O67" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>43</v>
+      </c>
+      <c r="R67" t="s">
+        <v>46</v>
+      </c>
+      <c r="S67" t="s">
+        <v>68</v>
+      </c>
+      <c r="T67" t="s">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V67" t="s">
+        <v>43</v>
+      </c>
+      <c r="W67" t="s">
+        <v>142</v>
+      </c>
+      <c r="X67" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>532</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>533</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>514</v>
@@ -10757,26 +11249,104 @@
       <c r="C68" s="2">
         <v>43371</v>
       </c>
-      <c r="D68">
-        <v>7.53</v>
+      <c r="D68" s="3">
+        <v>6.51</v>
       </c>
       <c r="E68">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>49</v>
       </c>
       <c r="G68" t="s">
         <v>68</v>
       </c>
       <c r="H68" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I68" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" t="s">
+        <v>67</v>
+      </c>
+      <c r="L68" t="s">
+        <v>535</v>
+      </c>
+      <c r="M68" t="s">
+        <v>43</v>
+      </c>
+      <c r="N68" t="s">
+        <v>45</v>
+      </c>
+      <c r="O68" t="s">
+        <v>44</v>
+      </c>
+      <c r="P68" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>43</v>
+      </c>
+      <c r="R68" t="s">
+        <v>46</v>
+      </c>
+      <c r="S68" t="s">
+        <v>68</v>
+      </c>
+      <c r="T68" t="s">
+        <v>43</v>
+      </c>
+      <c r="U68" t="s">
+        <v>46</v>
+      </c>
+      <c r="V68" t="s">
+        <v>68</v>
+      </c>
+      <c r="W68" t="s">
+        <v>142</v>
+      </c>
+      <c r="X68" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>536</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>537</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>515</v>
@@ -10784,26 +11354,104 @@
       <c r="C69" s="2">
         <v>43371</v>
       </c>
-      <c r="D69" s="3">
-        <v>6.5</v>
+      <c r="D69">
+        <v>6.08</v>
       </c>
       <c r="E69">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
       <c r="G69" t="s">
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I69" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" t="s">
+        <v>67</v>
+      </c>
+      <c r="L69" t="s">
+        <v>539</v>
+      </c>
+      <c r="M69" t="s">
+        <v>43</v>
+      </c>
+      <c r="N69" t="s">
+        <v>45</v>
+      </c>
+      <c r="O69" t="s">
+        <v>44</v>
+      </c>
+      <c r="P69" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s">
+        <v>42</v>
+      </c>
+      <c r="S69" t="s">
+        <v>43</v>
+      </c>
+      <c r="T69" t="s">
+        <v>43</v>
+      </c>
+      <c r="U69" t="s">
+        <v>46</v>
+      </c>
+      <c r="V69" t="s">
+        <v>68</v>
+      </c>
+      <c r="W69" t="s">
+        <v>142</v>
+      </c>
+      <c r="X69" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>516</v>
@@ -10812,47 +11460,98 @@
         <v>43371</v>
       </c>
       <c r="D70">
-        <v>6.07</v>
+        <v>6.34</v>
       </c>
       <c r="E70">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
       <c r="G70" t="s">
         <v>68</v>
       </c>
       <c r="H70" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I70" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>517</v>
-      </c>
-      <c r="C71" s="2">
-        <v>43371</v>
-      </c>
-      <c r="D71">
-        <v>6.33</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G71" t="s">
-        <v>68</v>
-      </c>
-      <c r="H71" t="s">
-        <v>430</v>
-      </c>
-      <c r="I71" t="s">
-        <v>41</v>
+      <c r="J70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K70" t="s">
+        <v>67</v>
+      </c>
+      <c r="L70" t="s">
+        <v>543</v>
+      </c>
+      <c r="M70" t="s">
+        <v>43</v>
+      </c>
+      <c r="N70" t="s">
+        <v>44</v>
+      </c>
+      <c r="O70" t="s">
+        <v>45</v>
+      </c>
+      <c r="P70" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>43</v>
+      </c>
+      <c r="R70" t="s">
+        <v>46</v>
+      </c>
+      <c r="S70" t="s">
+        <v>68</v>
+      </c>
+      <c r="T70" t="s">
+        <v>43</v>
+      </c>
+      <c r="U70" t="s">
+        <v>46</v>
+      </c>
+      <c r="V70" t="s">
+        <v>68</v>
+      </c>
+      <c r="W70" t="s">
+        <v>142</v>
+      </c>
+      <c r="X70" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -10864,7 +11563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCF0D24-0A3F-5B4C-B64B-3F8F6122393A}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/Stanford/Social Learning Lab/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11440B71-E150-E44B-A508-FDEE93FFE6C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC31A164-C62A-8C42-B12D-99D74C5B8BD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
     <sheet name="Pilot 2 + 3" sheetId="2" r:id="rId2"/>
-    <sheet name="Quality Ratings" sheetId="4" r:id="rId3"/>
+    <sheet name="Pilot 4" sheetId="5" r:id="rId3"/>
+    <sheet name="Quality Ratings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="595">
   <si>
     <t>count</t>
   </si>
@@ -1674,6 +1675,150 @@
   </si>
   <si>
     <t>because she likes these ones and the ones she likes too and she likes all of the ones and she likes the ones that are better</t>
+  </si>
+  <si>
+    <t>PD4_191013_01</t>
+  </si>
+  <si>
+    <t>cuz it's actually tracing the lines, not scribble scrabble</t>
+  </si>
+  <si>
+    <t>tracing_teacher</t>
+  </si>
+  <si>
+    <t>choose_practice</t>
+  </si>
+  <si>
+    <t>practice_explanation</t>
+  </si>
+  <si>
+    <t>cuz I practice a lot</t>
+  </si>
+  <si>
+    <t>overpraise_explanation</t>
+  </si>
+  <si>
+    <t>to make him feel proud</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>PD4_191013_02</t>
+  </si>
+  <si>
+    <t>cuz it looks like a heart</t>
+  </si>
+  <si>
+    <t>first said I don’t know for the warmup, but when I asked to guess she picked the right one; kind of didn’t get the teacher check right, I let it slide</t>
+  </si>
+  <si>
+    <t>number_practices</t>
+  </si>
+  <si>
+    <t>cuz I I don’t know</t>
+  </si>
+  <si>
+    <t>cuz all of them were good</t>
+  </si>
+  <si>
+    <t>wrote the word june even though I told her to just do december; first two kids I was still getting the hang of the new setup</t>
+  </si>
+  <si>
+    <t>PD4_191013_03</t>
+  </si>
+  <si>
+    <t>because because this [bad] is not a letter it's just a scribble scrabble</t>
+  </si>
+  <si>
+    <t>his older sister was sitting in the room, and she told him he didn't have to do all of them which probably made him finish earlier than otherwise</t>
+  </si>
+  <si>
+    <t>because it kind of looked hard</t>
+  </si>
+  <si>
+    <t>because she just did three</t>
+  </si>
+  <si>
+    <t>because I think she thought all the letters were maybe she did it on accident</t>
+  </si>
+  <si>
+    <t>PD4_191013_04</t>
+  </si>
+  <si>
+    <t>cuz this one [bad] looks like more of a z and this one [good] is more in the lines</t>
+  </si>
+  <si>
+    <t>wanted to trace all the words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because she [linda] did all of them and some of them were like crazy </t>
+  </si>
+  <si>
+    <t>so I could get better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because she was I don’t know </t>
+  </si>
+  <si>
+    <t>PD4_191013_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am almost sure I didn’t test any four year olds this day but the year of birth on the consent form is kind of tricky to tell, looks like it says the kid is four; failed the warmup, after I corrected him he changed his mind </t>
+  </si>
+  <si>
+    <t>because she [karen] just says all the drawings are good</t>
+  </si>
+  <si>
+    <t>PD4_191013_06</t>
+  </si>
+  <si>
+    <t>because it actually looks like an a this one [bad] does not it just looks like scribble scribble</t>
+  </si>
+  <si>
+    <t>cuz it kind of looked easy</t>
+  </si>
+  <si>
+    <t>cuz teacher karen when you showed me the videos she said all of them were great when some were not</t>
+  </si>
+  <si>
+    <t>cuz she think they look nice</t>
+  </si>
+  <si>
+    <t>PD4_191013_07</t>
+  </si>
+  <si>
+    <t>cuz I understand it more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuz I did this when I just moved from brazil cuz I came from brazil, I used to trace a lot but now I don’t </t>
+  </si>
+  <si>
+    <t>cuz you said I was giving that to her</t>
+  </si>
+  <si>
+    <t>cuz they were all perfect</t>
+  </si>
+  <si>
+    <t>PD4_191013_08</t>
+  </si>
+  <si>
+    <t>cuz its in the lines and its not going like crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>cuz I didn’t actually know so many cursive and stuff</t>
+  </si>
+  <si>
+    <t>cuz she chose the right letters</t>
+  </si>
+  <si>
+    <t>cuz she wanted it to be perfect</t>
+  </si>
+  <si>
+    <t>practice_match</t>
   </si>
 </sst>
 </file>
@@ -4057,9 +4202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FDC708-1639-6547-A64F-F806FC16AE1E}">
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI70" sqref="AI70"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11560,6 +11705,896 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F37BCAE-525E-6748-9017-84BC60860672}">
+  <dimension ref="A1:AE9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" customWidth="1"/>
+    <col min="23" max="25" width="14.5" customWidth="1"/>
+    <col min="26" max="26" width="15.5" customWidth="1"/>
+    <col min="27" max="27" width="18" customWidth="1"/>
+    <col min="28" max="28" width="11.5" customWidth="1"/>
+    <col min="29" max="29" width="20.1640625" customWidth="1"/>
+    <col min="30" max="30" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>549</v>
+      </c>
+      <c r="X1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D2">
+        <v>8.16</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>548</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D3">
+        <v>5.18</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>557</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D4">
+        <v>5.92</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>564</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>568</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>570</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D6">
+        <v>4.87</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>590</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D7">
+        <v>6.32</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>579</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D8">
+        <v>6.87</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>584</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>586</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43751</v>
+      </c>
+      <c r="D9">
+        <v>6.87</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>429</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>589</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>592</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCF0D24-0A3F-5B4C-B64B-3F8F6122393A}">
   <dimension ref="A1:E39"/>
   <sheetViews>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/Stanford/Social Learning Lab/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC31A164-C62A-8C42-B12D-99D74C5B8BD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D1D5CE-9750-2649-96B7-13FCD7C73DBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="600">
   <si>
     <t>count</t>
   </si>
@@ -1819,6 +1819,21 @@
   </si>
   <si>
     <t>practice_match</t>
+  </si>
+  <si>
+    <t>PD4_191027_01</t>
+  </si>
+  <si>
+    <t>PD4_191027_02</t>
+  </si>
+  <si>
+    <t>PD4_191027_03</t>
+  </si>
+  <si>
+    <t>PD4_191027_04</t>
+  </si>
+  <si>
+    <t>PD4_191027_05</t>
   </si>
 </sst>
 </file>
@@ -11706,10 +11721,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F37BCAE-525E-6748-9017-84BC60860672}">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12589,6 +12604,181 @@
         <v>593</v>
       </c>
     </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43765</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>429</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43765</v>
+      </c>
+      <c r="D11">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43765</v>
+      </c>
+      <c r="D12">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>429</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43765</v>
+      </c>
+      <c r="D13">
+        <v>6.32</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>429</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>599</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43765</v>
+      </c>
+      <c r="D14">
+        <v>7.02</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>429</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/Stanford/Social Learning Lab/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D1D5CE-9750-2649-96B7-13FCD7C73DBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25884A93-4A4C-8845-BE74-4AE80051F130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="623">
   <si>
     <t>count</t>
   </si>
@@ -1834,6 +1834,75 @@
   </si>
   <si>
     <t>PD4_191027_05</t>
+  </si>
+  <si>
+    <t>because it's on the lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because I already know, oh gosh, I forgot </t>
+  </si>
+  <si>
+    <t>I said the wrong teacher name at first; he was worried about the time practicing would take, not sure how we think about that, seemed kind of like he wanted to but chose not to in the end; also said im confused for get_better but then answered right</t>
+  </si>
+  <si>
+    <t>because she thinks some of them are not right and some of them are right</t>
+  </si>
+  <si>
+    <t>cuz maybe when she was little she didn't know about that and when she was bigger she didn't know still about that maybe</t>
+  </si>
+  <si>
+    <t>because they made it in the lines</t>
+  </si>
+  <si>
+    <t>failed the teacher check, I made her say the names but she didn't get them on her own; was taking a super long time on the practices and I wasn’t timing, her dad told her to stop eventually and then so did i</t>
+  </si>
+  <si>
+    <t>I want to learn</t>
+  </si>
+  <si>
+    <t>because they put so many shooting stars</t>
+  </si>
+  <si>
+    <t>cuz that's good</t>
+  </si>
+  <si>
+    <t>because it did inside the lines</t>
+  </si>
+  <si>
+    <t>failed the teacher checks same as her sister</t>
+  </si>
+  <si>
+    <t>because I like to do practice</t>
+  </si>
+  <si>
+    <t>because I draw inside in the lines</t>
+  </si>
+  <si>
+    <t>because I like it</t>
+  </si>
+  <si>
+    <t>because it's not messy</t>
+  </si>
+  <si>
+    <t>because I did</t>
+  </si>
+  <si>
+    <t>because she said that the ones that are not messy are great</t>
+  </si>
+  <si>
+    <t>because she likes the drawings</t>
+  </si>
+  <si>
+    <t>it looks more like an a</t>
+  </si>
+  <si>
+    <t>so I could get good</t>
+  </si>
+  <si>
+    <t>she didn't do the ones that had scribbles on it, and she only did the ones that look perfect</t>
+  </si>
+  <si>
+    <t>nice I think? she does look nice</t>
   </si>
 </sst>
 </file>
@@ -11723,8 +11792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F37BCAE-525E-6748-9017-84BC60860672}">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11926,8 +11995,8 @@
       <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" t="s">
-        <v>46</v>
+      <c r="Y2">
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12021,8 +12090,8 @@
       <c r="X3" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" t="s">
-        <v>46</v>
+      <c r="Y3">
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12116,8 +12185,8 @@
       <c r="X4" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" t="s">
-        <v>42</v>
+      <c r="Y4">
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>10</v>
@@ -12211,8 +12280,8 @@
       <c r="X5" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" t="s">
-        <v>46</v>
+      <c r="Y5">
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>7</v>
@@ -12306,8 +12375,8 @@
       <c r="X6" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" t="s">
-        <v>42</v>
+      <c r="Y6">
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -12401,8 +12470,8 @@
       <c r="X7" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" t="s">
-        <v>46</v>
+      <c r="Y7">
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -12493,8 +12562,8 @@
       <c r="X8" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" t="s">
-        <v>42</v>
+      <c r="Y8">
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -12585,8 +12654,8 @@
       <c r="X9" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" t="s">
-        <v>42</v>
+      <c r="Y9">
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>9</v>
@@ -12635,8 +12704,68 @@
       <c r="J10" t="s">
         <v>42</v>
       </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>600</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" t="s">
+        <v>68</v>
+      </c>
+      <c r="W10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
       <c r="Z10">
         <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -12670,8 +12799,68 @@
       <c r="J11" t="s">
         <v>42</v>
       </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>605</v>
+      </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
       <c r="Z11">
         <v>12</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -12705,8 +12894,68 @@
       <c r="J12" t="s">
         <v>42</v>
       </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>610</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" t="s">
+        <v>68</v>
+      </c>
+      <c r="W12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
         <v>7</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -12740,8 +12989,65 @@
       <c r="J13" t="s">
         <v>42</v>
       </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>615</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s">
+        <v>68</v>
+      </c>
+      <c r="W13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
       <c r="Z13">
         <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>617</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -12775,8 +13081,65 @@
       <c r="J14" t="s">
         <v>42</v>
       </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>619</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W14" t="s">
+        <v>44</v>
+      </c>
+      <c r="X14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
       <c r="Z14">
         <v>6</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>621</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/Stanford/Social Learning Lab/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25884A93-4A4C-8845-BE74-4AE80051F130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5CFEEF-FF75-3443-97AC-F04B9BF4752C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="657">
   <si>
     <t>count</t>
   </si>
@@ -1818,9 +1818,6 @@
     <t>cuz she wanted it to be perfect</t>
   </si>
   <si>
-    <t>practice_match</t>
-  </si>
-  <si>
     <t>PD4_191027_01</t>
   </si>
   <si>
@@ -1903,6 +1900,111 @@
   </si>
   <si>
     <t>nice I think? she does look nice</t>
+  </si>
+  <si>
+    <t>PD4_191110_01</t>
+  </si>
+  <si>
+    <t>time_out</t>
+  </si>
+  <si>
+    <t>hard_tracing</t>
+  </si>
+  <si>
+    <t>hard_tracing_explanation</t>
+  </si>
+  <si>
+    <t>selective_explanation</t>
+  </si>
+  <si>
+    <t>classroom_prefer</t>
+  </si>
+  <si>
+    <t>classroom_prefer_explanation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first kid with new format, everyone practices no forced choice; the second memcheck was kind of iffy, unfortunately you can't see it in the video but it looked like he almost said the right ones but kind of pointed to one of the bad ones, on the edge for including; was not chatty and wouldn't provide explanations for anything </t>
+  </si>
+  <si>
+    <t>PD4_191110_02</t>
+  </si>
+  <si>
+    <t>because it's in the lines</t>
+  </si>
+  <si>
+    <t>because…not sure</t>
+  </si>
+  <si>
+    <t>because he did it into the lines</t>
+  </si>
+  <si>
+    <t>because she thinks they're all good</t>
+  </si>
+  <si>
+    <t>because she…not sure</t>
+  </si>
+  <si>
+    <t>PD4_191110_03</t>
+  </si>
+  <si>
+    <t>because that [bad] is scribble and that one [good] is not it's tracing the lines</t>
+  </si>
+  <si>
+    <t>no (of letters)</t>
+  </si>
+  <si>
+    <t>because she put stars on every one</t>
+  </si>
+  <si>
+    <t>because she can help me</t>
+  </si>
+  <si>
+    <t>because they look like letters</t>
+  </si>
+  <si>
+    <t>because they are all good drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because she can, if we’re doing tracings, she can tell me if it's good or not </t>
+  </si>
+  <si>
+    <t>PD4_191110_04</t>
+  </si>
+  <si>
+    <t>because she is all the good ones</t>
+  </si>
+  <si>
+    <t>because so these are the better ones and these are not traced</t>
+  </si>
+  <si>
+    <t>because those three are not good</t>
+  </si>
+  <si>
+    <t>maybe she liked all of them, or all of them were right</t>
+  </si>
+  <si>
+    <t>because she gave three stars and not to the bad ones</t>
+  </si>
+  <si>
+    <t>PD4_191110_05</t>
+  </si>
+  <si>
+    <t>because this one [bad] is like scribble scrabble and this one [good] is in the lines</t>
+  </si>
+  <si>
+    <t>because the scribble scrabble ones that he draw, she [linda] put a star and the ones that were good she [linda] also put a star so all of them were good but the ones that were scribble scrabble she [karen] said okay but the ones that were really good she [karen] will do the class</t>
+  </si>
+  <si>
+    <t>because she [karen] did the good drawings but she [linda] did it in the good and bad drawings but she [karen] did it only in the good drawings which is the better one</t>
+  </si>
+  <si>
+    <t>because they look good and he wrote it right in the lines</t>
+  </si>
+  <si>
+    <t>because she thinks, she's just like nice but this one is not good and this one is not good and this one is not good</t>
+  </si>
+  <si>
+    <t>because she told better</t>
   </si>
 </sst>
 </file>
@@ -1925,12 +2027,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1945,11 +2053,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11790,10 +11899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F37BCAE-525E-6748-9017-84BC60860672}">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11819,15 +11928,21 @@
     <col min="20" max="20" width="18.1640625" customWidth="1"/>
     <col min="21" max="21" width="15.83203125" customWidth="1"/>
     <col min="22" max="22" width="19.33203125" customWidth="1"/>
-    <col min="23" max="25" width="14.5" customWidth="1"/>
+    <col min="23" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" customWidth="1"/>
     <col min="26" max="26" width="15.5" customWidth="1"/>
     <col min="27" max="27" width="18" customWidth="1"/>
     <col min="28" max="28" width="11.5" customWidth="1"/>
     <col min="29" max="29" width="20.1640625" customWidth="1"/>
-    <col min="30" max="30" width="20.33203125" customWidth="1"/>
+    <col min="30" max="30" width="11.83203125" customWidth="1"/>
+    <col min="31" max="31" width="22.1640625" customWidth="1"/>
+    <col min="32" max="32" width="19.83203125" customWidth="1"/>
+    <col min="33" max="33" width="20.33203125" customWidth="1"/>
+    <col min="34" max="34" width="16.83203125" customWidth="1"/>
+    <col min="35" max="35" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11901,7 +12016,7 @@
         <v>550</v>
       </c>
       <c r="Y1" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="Z1" t="s">
         <v>559</v>
@@ -11916,13 +12031,28 @@
         <v>407</v>
       </c>
       <c r="AD1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AG1" t="s">
         <v>553</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11995,8 +12125,8 @@
       <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
+      <c r="Y2" t="s">
+        <v>68</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12011,13 +12141,28 @@
         <v>68</v>
       </c>
       <c r="AD2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" t="s">
         <v>554</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12090,8 +12235,8 @@
       <c r="X3" t="s">
         <v>46</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
+      <c r="Y3" t="s">
+        <v>68</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12106,13 +12251,28 @@
         <v>244</v>
       </c>
       <c r="AD3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" t="s">
         <v>561</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12185,8 +12345,8 @@
       <c r="X4" t="s">
         <v>42</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
+      <c r="Y4" t="s">
+        <v>68</v>
       </c>
       <c r="Z4">
         <v>10</v>
@@ -12201,13 +12361,28 @@
         <v>567</v>
       </c>
       <c r="AD4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" t="s">
         <v>568</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12280,8 +12455,8 @@
       <c r="X5" t="s">
         <v>42</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
+      <c r="Y5" t="s">
+        <v>68</v>
       </c>
       <c r="Z5">
         <v>7</v>
@@ -12296,13 +12471,28 @@
         <v>572</v>
       </c>
       <c r="AD5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" t="s">
         <v>574</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12375,8 +12565,8 @@
       <c r="X6" t="s">
         <v>46</v>
       </c>
-      <c r="Y6">
-        <v>1</v>
+      <c r="Y6" t="s">
+        <v>68</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -12391,13 +12581,28 @@
         <v>577</v>
       </c>
       <c r="AD6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" t="s">
         <v>244</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12470,8 +12675,8 @@
       <c r="X7" t="s">
         <v>46</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
+      <c r="Y7" t="s">
+        <v>68</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -12486,10 +12691,25 @@
         <v>581</v>
       </c>
       <c r="AD7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG7" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AH7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12562,8 +12782,8 @@
       <c r="X8" t="s">
         <v>46</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
+      <c r="Y8" t="s">
+        <v>68</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -12578,10 +12798,25 @@
         <v>586</v>
       </c>
       <c r="AD8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AH8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12654,8 +12889,8 @@
       <c r="X9" t="s">
         <v>42</v>
       </c>
-      <c r="Y9">
-        <v>1</v>
+      <c r="Y9" t="s">
+        <v>68</v>
       </c>
       <c r="Z9">
         <v>9</v>
@@ -12670,15 +12905,30 @@
         <v>592</v>
       </c>
       <c r="AD9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG9" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AH9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C10" s="2">
         <v>43765</v>
@@ -12708,7 +12958,7 @@
         <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M10" t="s">
         <v>43</v>
@@ -12746,34 +12996,49 @@
       <c r="X10" t="s">
         <v>46</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
+      <c r="Y10" t="s">
+        <v>68</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>603</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>601</v>
       </c>
-      <c r="AB10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>603</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>604</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C11" s="2">
         <v>43765</v>
@@ -12803,7 +13068,7 @@
         <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M11" t="s">
         <v>77</v>
@@ -12841,34 +13106,49 @@
       <c r="X11" t="s">
         <v>42</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
+      <c r="Y11" t="s">
+        <v>68</v>
       </c>
       <c r="Z11">
         <v>12</v>
       </c>
       <c r="AA11" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="s">
         <v>607</v>
       </c>
-      <c r="AB11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG11" t="s">
         <v>608</v>
       </c>
-      <c r="AD11" t="s">
-        <v>609</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AH11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C12" s="2">
         <v>43765</v>
@@ -12898,7 +13178,7 @@
         <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M12" t="s">
         <v>77</v>
@@ -12936,34 +13216,49 @@
       <c r="X12" t="s">
         <v>42</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
+      <c r="Y12" t="s">
+        <v>68</v>
       </c>
       <c r="Z12">
         <v>7</v>
       </c>
       <c r="AA12" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC12" t="s">
         <v>612</v>
       </c>
-      <c r="AB12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG12" t="s">
         <v>613</v>
       </c>
-      <c r="AD12" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AH12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C13" s="2">
         <v>43765</v>
@@ -12993,7 +13288,7 @@
         <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M13" t="s">
         <v>43</v>
@@ -13031,31 +13326,46 @@
       <c r="X13" t="s">
         <v>46</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
+      <c r="Y13" t="s">
+        <v>68</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" t="s">
         <v>616</v>
       </c>
-      <c r="AB13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG13" t="s">
         <v>617</v>
       </c>
-      <c r="AD13" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AH13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C14" s="2">
         <v>43765</v>
@@ -13085,7 +13395,7 @@
         <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M14" t="s">
         <v>43</v>
@@ -13123,23 +13433,536 @@
       <c r="X14" t="s">
         <v>42</v>
       </c>
-      <c r="Y14">
-        <v>1</v>
+      <c r="Y14" t="s">
+        <v>68</v>
       </c>
       <c r="Z14">
         <v>6</v>
       </c>
       <c r="AA14" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC14" t="s">
         <v>620</v>
       </c>
-      <c r="AB14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG14" t="s">
         <v>621</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AH14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>622</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43779</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>429</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>401</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="4"/>
+      <c r="AA15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>630</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43779</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>429</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>631</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" t="s">
+        <v>68</v>
+      </c>
+      <c r="W16" t="s">
+        <v>45</v>
+      </c>
+      <c r="X16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>632</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>632</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>633</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>634</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>636</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43779</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>429</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>637</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W17" t="s">
+        <v>44</v>
+      </c>
+      <c r="X17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z17" s="4"/>
+      <c r="AA17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>639</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>640</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>641</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>642</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>644</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43779</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>429</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" t="s">
+        <v>590</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" t="s">
+        <v>68</v>
+      </c>
+      <c r="W18" t="s">
+        <v>45</v>
+      </c>
+      <c r="X18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z18" s="4"/>
+      <c r="AA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>645</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>646</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>647</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43779</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>429</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" t="s">
+        <v>651</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19" t="s">
+        <v>68</v>
+      </c>
+      <c r="T19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" t="s">
+        <v>46</v>
+      </c>
+      <c r="V19" t="s">
+        <v>68</v>
+      </c>
+      <c r="W19" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z19" s="4"/>
+      <c r="AA19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>653</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>654</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>655</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/Stanford/Social Learning Lab/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5CFEEF-FF75-3443-97AC-F04B9BF4752C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CC2F1B-2CD8-4B47-A6CC-1791ADF9044E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="657">
   <si>
     <t>count</t>
   </si>
@@ -2027,18 +2027,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2053,12 +2047,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11902,7 +11897,7 @@
   <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13477,8 +13472,12 @@
       <c r="C15" s="2">
         <v>43779</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6</v>
+      </c>
       <c r="F15" t="s">
         <v>39</v>
       </c>
@@ -13491,7 +13490,9 @@
       <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K15" t="s">
         <v>67</v>
       </c>
@@ -13537,7 +13538,9 @@
       <c r="Y15" t="s">
         <v>42</v>
       </c>
-      <c r="Z15" s="4"/>
+      <c r="Z15" s="4">
+        <v>23</v>
+      </c>
       <c r="AA15" t="s">
         <v>68</v>
       </c>
@@ -13579,8 +13582,12 @@
       <c r="C16" s="2">
         <v>43779</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7</v>
+      </c>
       <c r="F16" t="s">
         <v>49</v>
       </c>
@@ -13593,7 +13600,9 @@
       <c r="I16" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K16" t="s">
         <v>67</v>
       </c>
@@ -13639,7 +13648,9 @@
       <c r="Y16" t="s">
         <v>46</v>
       </c>
-      <c r="Z16" s="4"/>
+      <c r="Z16" s="4">
+        <v>10</v>
+      </c>
       <c r="AA16" t="s">
         <v>68</v>
       </c>
@@ -13678,8 +13689,12 @@
       <c r="C17" s="2">
         <v>43779</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4">
+        <v>6.39</v>
+      </c>
+      <c r="E17" s="4">
+        <v>6</v>
+      </c>
       <c r="F17" t="s">
         <v>49</v>
       </c>
@@ -13692,7 +13707,9 @@
       <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K17" t="s">
         <v>67</v>
       </c>
@@ -13738,7 +13755,9 @@
       <c r="Y17" t="s">
         <v>638</v>
       </c>
-      <c r="Z17" s="4"/>
+      <c r="Z17" s="4">
+        <v>26</v>
+      </c>
       <c r="AA17" t="s">
         <v>68</v>
       </c>
@@ -13777,8 +13796,12 @@
       <c r="C18" s="2">
         <v>43779</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4">
+        <v>6.45</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6</v>
+      </c>
       <c r="F18" t="s">
         <v>39</v>
       </c>
@@ -13791,7 +13814,9 @@
       <c r="I18" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K18" t="s">
         <v>590</v>
       </c>
@@ -13837,7 +13862,9 @@
       <c r="Y18" t="s">
         <v>46</v>
       </c>
-      <c r="Z18" s="4"/>
+      <c r="Z18" s="4">
+        <v>14</v>
+      </c>
       <c r="AA18" t="s">
         <v>68</v>
       </c>
@@ -13876,8 +13903,12 @@
       <c r="C19" s="2">
         <v>43779</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4">
+        <v>7.86</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7</v>
+      </c>
       <c r="F19" t="s">
         <v>39</v>
       </c>
@@ -13890,7 +13921,9 @@
       <c r="I19" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K19" t="s">
         <v>67</v>
       </c>
@@ -13936,7 +13969,9 @@
       <c r="Y19" t="s">
         <v>46</v>
       </c>
-      <c r="Z19" s="4"/>
+      <c r="Z19" s="4">
+        <v>4</v>
+      </c>
       <c r="AA19" t="s">
         <v>68</v>
       </c>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/Stanford/Social Learning Lab/GitHub/praise-draw/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaba/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CC2F1B-2CD8-4B47-A6CC-1791ADF9044E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB65A4F-C6EF-0D41-8141-703EC6897936}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
+    <workbookView xWindow="-38100" yWindow="-900" windowWidth="37320" windowHeight="21140" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot 1" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,20 @@
     <sheet name="Pilot 4" sheetId="5" r:id="rId3"/>
     <sheet name="Quality Ratings" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Pilot 4'!$A$1:$AK$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="658">
   <si>
     <t>count</t>
   </si>
@@ -2005,6 +2002,9 @@
   </si>
   <si>
     <t>because she told better</t>
+  </si>
+  <si>
+    <t>forced_choice_version</t>
   </si>
 </sst>
 </file>
@@ -11894,10 +11894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F37BCAE-525E-6748-9017-84BC60860672}">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11925,7 +11925,7 @@
     <col min="22" max="22" width="19.33203125" customWidth="1"/>
     <col min="23" max="24" width="14.5" customWidth="1"/>
     <col min="25" max="25" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="15.5" customWidth="1"/>
+    <col min="26" max="26" width="21.1640625" customWidth="1"/>
     <col min="27" max="27" width="18" customWidth="1"/>
     <col min="28" max="28" width="11.5" customWidth="1"/>
     <col min="29" max="29" width="20.1640625" customWidth="1"/>
@@ -11934,10 +11934,10 @@
     <col min="32" max="32" width="19.83203125" customWidth="1"/>
     <col min="33" max="33" width="20.33203125" customWidth="1"/>
     <col min="34" max="34" width="16.83203125" customWidth="1"/>
-    <col min="35" max="35" width="25.6640625" customWidth="1"/>
+    <col min="35" max="36" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12044,10 +12044,13 @@
         <v>628</v>
       </c>
       <c r="AJ1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AK1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12153,11 +12156,14 @@
       <c r="AI2" t="s">
         <v>68</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12263,11 +12269,14 @@
       <c r="AI3" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12373,11 +12382,14 @@
       <c r="AI4" t="s">
         <v>68</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12483,11 +12495,14 @@
       <c r="AI5" t="s">
         <v>68</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12593,11 +12608,14 @@
       <c r="AI6" t="s">
         <v>68</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12703,8 +12721,11 @@
       <c r="AI7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12810,8 +12831,11 @@
       <c r="AI8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12917,8 +12941,11 @@
       <c r="AI9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13024,11 +13051,14 @@
       <c r="AI10" t="s">
         <v>68</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK10" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13134,11 +13164,14 @@
       <c r="AI11" t="s">
         <v>68</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13244,11 +13277,14 @@
       <c r="AI12" t="s">
         <v>68</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13354,8 +13390,11 @@
       <c r="AI13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13461,8 +13500,11 @@
       <c r="AI14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13568,11 +13610,14 @@
       <c r="AI15" t="s">
         <v>401</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13678,8 +13723,11 @@
       <c r="AI16" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13785,8 +13833,11 @@
       <c r="AI17" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13892,8 +13943,11 @@
       <c r="AI18" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13999,8 +14053,12 @@
       <c r="AI19" t="s">
         <v>656</v>
       </c>
+      <c r="AJ19" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK19" xr:uid="{6C8AC2CA-7D33-6D49-B0D9-F717B4229F4D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/analysis/praise-draw_data.xlsx
+++ b/analysis/praise-draw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaba/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB65A4F-C6EF-0D41-8141-703EC6897936}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5D8B57-4928-3849-B55B-2C20D2CB60F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38100" yWindow="-900" windowWidth="37320" windowHeight="21140" activeTab="2" xr2:uid="{7F85E784-ACEF-194A-84B2-6A49ADD88783}"/>
   </bookViews>
@@ -11896,8 +11896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F37BCAE-525E-6748-9017-84BC60860672}">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
